--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>//Remark</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Star</t>
+  </si>
+  <si>
+    <t>Tadpole Strike</t>
+  </si>
+  <si>
+    <t>Attack a enemy.</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
   <si>
     <t>Bite</t>
@@ -1206,12 +1215,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1767,19 +1776,22 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1791,16 +1803,16 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
         <v>32</v>
       </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -1812,9 +1824,62 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>9001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1220,7 +1220,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1791,7 +1791,7 @@
         <v>32</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18940" windowHeight="8040"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>//Remark</t>
   </si>
@@ -40,6 +40,9 @@
     <t>isRangeSelf</t>
   </si>
   <si>
+    <t>needExtraTarget</t>
+  </si>
+  <si>
     <t>radius</t>
   </si>
   <si>
@@ -145,6 +148,15 @@
     <t>Summon fire vortex to burn multiple foes.</t>
   </si>
   <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
@@ -172,9 +184,6 @@
     <t>Moon</t>
   </si>
   <si>
-    <t>Help</t>
-  </si>
-  <si>
     <t>Real</t>
   </si>
   <si>
@@ -185,9 +194,6 @@
   </si>
   <si>
     <t>Regain AP by 1.</t>
-  </si>
-  <si>
-    <t>Star</t>
   </si>
   <si>
     <t>Tadpole Strike</t>
@@ -1215,12 +1221,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1230,12 +1236,13 @@
     <col min="4" max="4" width="7.36363636363636" customWidth="1"/>
     <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
     <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
-    <col min="9" max="13" width="20.8181818181818" customWidth="1"/>
-    <col min="14" max="14" width="11.7272727272727" customWidth="1"/>
-    <col min="15" max="16" width="25.8181818181818" customWidth="1"/>
-    <col min="17" max="17" width="20.8181818181818" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6363636363636" customWidth="1"/>
-    <col min="19" max="19" width="15.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="15.9090909090909" customWidth="1"/>
+    <col min="10" max="14" width="20.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="11.7272727272727" customWidth="1"/>
+    <col min="16" max="17" width="25.8181818181818" customWidth="1"/>
+    <col min="18" max="18" width="20.8181818181818" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6363636363636" customWidth="1"/>
+    <col min="20" max="20" width="15.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1243,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1271,7 +1278,7 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1280,7 +1287,7 @@
       <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1289,93 +1296,99 @@
       <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="S2" t="s">
         <v>19</v>
       </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" t="s">
-        <v>20</v>
+      <c r="T3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1383,58 +1396,61 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="R4" t="b">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="b">
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1442,58 +1458,61 @@
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5">
         <v>200</v>
       </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" t="s">
         <v>37</v>
       </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1501,176 +1520,182 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
         <v>35</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6">
         <v>300</v>
       </c>
-      <c r="O6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" t="s">
         <v>37</v>
       </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7">
-        <v>2001</v>
+        <v>1302</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>120</v>
-      </c>
-      <c r="O7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7">
+        <v>3001</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
         <v>2001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
-        <v>2101</v>
-      </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>34</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>100</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8">
+        <v>120</v>
+      </c>
+      <c r="P8" t="s">
         <v>37</v>
       </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8">
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9">
-        <v>2201</v>
+        <v>2101</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1678,105 +1703,111 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>2201</v>
+      </c>
+      <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="N9">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="C10" t="s">
         <v>54</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
-        <v>2301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
         <v>57</v>
       </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10">
-        <v>1001</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:20">
       <c r="A11">
-        <v>3001</v>
+        <v>2301</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -1785,101 +1816,169 @@
         <v>59</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11">
+        <v>1001</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12">
         <v>100</v>
       </c>
-      <c r="O11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" t="b">
+      <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
+    <row r="13" spans="1:19">
+      <c r="A13">
         <v>9001</v>
       </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>34</v>
       </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12">
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13">
         <v>100</v>
       </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" t="b">
+      <c r="P13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="15860" windowHeight="10840"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>//Remark</t>
   </si>
@@ -79,6 +79,9 @@
     <t>characterID</t>
   </si>
   <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -142,12 +145,18 @@
     <t>Sun</t>
   </si>
   <si>
+    <t>imgIconSkill_1101</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
     <t>Summon fire vortex to burn multiple foes.</t>
   </si>
   <si>
+    <t>imgIconSkill_1102</t>
+  </si>
+  <si>
     <t>Teleport</t>
   </si>
   <si>
@@ -157,6 +166,9 @@
     <t>Help</t>
   </si>
   <si>
+    <t>imgIconSkill_1302</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
     <t>Square</t>
   </si>
   <si>
+    <t>imgIconSkill_2101</t>
+  </si>
+  <si>
     <t>Self Heal</t>
   </si>
   <si>
@@ -190,10 +205,16 @@
     <t>MAXHP</t>
   </si>
   <si>
+    <t>imgIconSkill_2201</t>
+  </si>
+  <si>
     <t>Inspire</t>
   </si>
   <si>
     <t>Regain AP by 1.</t>
+  </si>
+  <si>
+    <t>imgIconSkill_2301</t>
   </si>
   <si>
     <t>Tadpole Strike</t>
@@ -1221,12 +1242,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1243,6 +1264,7 @@
     <col min="18" max="18" width="20.8181818181818" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.6363636363636" customWidth="1"/>
     <col min="20" max="20" width="15.9090909090909" customWidth="1"/>
+    <col min="21" max="21" width="16.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1250,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1311,67 +1333,73 @@
       <c r="T2" t="s">
         <v>20</v>
       </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1379,16 +1407,16 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1403,31 +1431,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
@@ -1436,21 +1464,21 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1465,31 +1493,31 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1497,22 +1525,25 @@
       <c r="T5">
         <v>1001</v>
       </c>
+      <c r="U5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1527,31 +1558,31 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O6">
         <v>300</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1559,19 +1590,22 @@
       <c r="T6">
         <v>1001</v>
       </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>1302</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1586,37 +1620,40 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7">
         <v>3001</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
       </c>
       <c r="T7">
         <v>1001</v>
+      </c>
+      <c r="U7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1624,16 +1661,16 @@
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1648,31 +1685,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
       <c r="N8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O8">
         <v>120</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
@@ -1681,21 +1718,21 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>2101</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1710,31 +1747,31 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O9">
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1742,22 +1779,25 @@
       <c r="T9">
         <v>2001</v>
       </c>
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>2201</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1772,31 +1812,31 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
         <v>34</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O10">
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1804,22 +1844,25 @@
       <c r="T10">
         <v>2001</v>
       </c>
+      <c r="U10" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>2301</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1834,37 +1877,40 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q11">
         <v>1001</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
       </c>
       <c r="T11">
         <v>2001</v>
+      </c>
+      <c r="U11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1872,16 +1918,16 @@
         <v>3001</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1896,31 +1942,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O12">
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1931,13 +1977,13 @@
         <v>9001</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1952,31 +1998,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
         <v>34</v>
       </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O13">
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15860" windowHeight="10840"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>//Remark</t>
   </si>
@@ -25,63 +25,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>costAP</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>isRangeSelf</t>
+  </si>
+  <si>
+    <t>needExtraTarget</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>regionType</t>
+  </si>
+  <si>
+    <t>foeEffect</t>
+  </si>
+  <si>
+    <t>characterEffect</t>
+  </si>
+  <si>
+    <t>plantEffect</t>
+  </si>
+  <si>
+    <t>damageType</t>
+  </si>
+  <si>
+    <t>damageDeltaStd</t>
+  </si>
+  <si>
+    <t>damageDelta</t>
+  </si>
+  <si>
+    <t>damageModifier</t>
+  </si>
+  <si>
+    <t>listSpecialEffect</t>
+  </si>
+  <si>
+    <t>skillSubjectType</t>
+  </si>
+  <si>
+    <t>isNormalAttack</t>
+  </si>
+  <si>
+    <t>characterID</t>
+  </si>
+  <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
+    <t>unlockNodeID</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
-    <t>costAP</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>isRangeSelf</t>
-  </si>
-  <si>
-    <t>needExtraTarget</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>regionType</t>
-  </si>
-  <si>
-    <t>foeEffect</t>
-  </si>
-  <si>
-    <t>characterEffect</t>
-  </si>
-  <si>
-    <t>plantEffect</t>
-  </si>
-  <si>
-    <t>damageType</t>
-  </si>
-  <si>
-    <t>damageDelta</t>
-  </si>
-  <si>
-    <t>damageDeltaStd</t>
-  </si>
-  <si>
-    <t>listSpecialEffect</t>
-  </si>
-  <si>
-    <t>skillSubjectType</t>
-  </si>
-  <si>
-    <t>isNormalAttack</t>
-  </si>
-  <si>
-    <t>characterID</t>
-  </si>
-  <si>
-    <t>iconUrl</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -115,48 +121,39 @@
     <t>Elemental Ball</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
     <t>Use elemental ball to attack single foe.</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Harm</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>ATK</t>
-  </si>
-  <si>
-    <t>Character</t>
-  </si>
-  <si>
     <t>Fire Ball</t>
   </si>
   <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>imgIconSkill_1101</t>
+  </si>
+  <si>
     <t>Use fire ball to attack multiple foes.</t>
   </si>
   <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>imgIconSkill_1101</t>
-  </si>
-  <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>Summon fire vortex to burn multiple foes.</t>
-  </si>
-  <si>
-    <t>imgIconSkill_1102</t>
-  </si>
-  <si>
     <t>Teleport</t>
   </si>
   <si>
@@ -172,58 +169,58 @@
     <t>Strike</t>
   </si>
   <si>
+    <t>Physical</t>
+  </si>
+  <si>
     <t>Use weapon to strike a foe.</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
     <t>Wind Chop</t>
   </si>
   <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>imgIconSkill_2101</t>
+  </si>
+  <si>
     <t>Cut the foes around you.</t>
   </si>
   <si>
-    <t>Square</t>
-  </si>
-  <si>
-    <t>imgIconSkill_2101</t>
-  </si>
-  <si>
     <t>Self Heal</t>
   </si>
   <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>MAXHP</t>
+  </si>
+  <si>
+    <t>imgIconSkill_2201</t>
+  </si>
+  <si>
     <t>Self Heal for 20% HP.</t>
   </si>
   <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>MAXHP</t>
-  </si>
-  <si>
-    <t>imgIconSkill_2201</t>
-  </si>
-  <si>
     <t>Inspire</t>
   </si>
   <si>
+    <t>imgIconSkill_2301</t>
+  </si>
+  <si>
     <t>Regain AP by 1.</t>
   </si>
   <si>
-    <t>imgIconSkill_2301</t>
-  </si>
-  <si>
     <t>Tadpole Strike</t>
   </si>
   <si>
+    <t>Plant</t>
+  </si>
+  <si>
     <t>Attack a enemy.</t>
-  </si>
-  <si>
-    <t>Plant</t>
   </si>
   <si>
     <t>Bite</t>
@@ -401,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,7 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +754,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,16 +778,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -793,89 +796,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +895,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,29 +1251,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U7" sqref="U7"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="42.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="7.36363636363636" customWidth="1"/>
-    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
-    <col min="7" max="7" width="14.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="15.9090909090909" customWidth="1"/>
-    <col min="10" max="14" width="20.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="7.36363636363636" customWidth="1"/>
+    <col min="4" max="4" width="22.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="14.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="15.9090909090909" customWidth="1"/>
+    <col min="9" max="13" width="20.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="25.8181818181818" customWidth="1"/>
     <col min="15" max="15" width="11.7272727272727" customWidth="1"/>
-    <col min="16" max="17" width="25.8181818181818" customWidth="1"/>
+    <col min="16" max="16" width="14.9090909090909" customWidth="1"/>
+    <col min="17" max="17" width="25.8181818181818" customWidth="1"/>
     <col min="18" max="18" width="20.8181818181818" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.6363636363636" customWidth="1"/>
     <col min="20" max="20" width="15.9090909090909" customWidth="1"/>
-    <col min="21" max="21" width="16.2727272727273" customWidth="1"/>
+    <col min="21" max="21" width="20.1818181818182" customWidth="1"/>
+    <col min="22" max="22" width="14.1818181818182" customWidth="1"/>
+    <col min="23" max="23" width="42.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1272,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1285,7 +1297,7 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1300,7 +1312,7 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1309,7 +1321,7 @@
       <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -1324,138 +1336,147 @@
       <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="U2" t="s">
         <v>21</v>
       </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="V3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
@@ -1463,61 +1484,64 @@
       <c r="T4">
         <v>1001</v>
       </c>
+      <c r="V4">
+        <v>1001</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1526,63 +1550,66 @@
         <v>1001</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="V5">
+        <v>1101</v>
+      </c>
+      <c r="W5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6">
-        <v>1102</v>
+        <v>1302</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O6">
-        <v>300</v>
-      </c>
-      <c r="P6" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1591,187 +1618,202 @@
         <v>1001</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="V6">
+        <v>1302</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23">
       <c r="A7">
-        <v>1302</v>
+        <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
       </c>
       <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="b">
+      <c r="T7">
+        <v>2001</v>
+      </c>
+      <c r="V7">
+        <v>2001</v>
+      </c>
+      <c r="W7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7">
-        <v>3001</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
         <v>39</v>
       </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1001</v>
-      </c>
-      <c r="U7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>2001</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
       <c r="O8">
-        <v>120</v>
-      </c>
-      <c r="P8" t="s">
-        <v>38</v>
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>2001</v>
       </c>
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8">
+        <v>2101</v>
+      </c>
+      <c r="W8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23">
       <c r="A9">
-        <v>2101</v>
+        <v>2201</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9">
+        <v>57</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O9">
-        <v>100</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="P9">
+        <v>-1</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1780,63 +1822,66 @@
         <v>2001</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="V9">
+        <v>2201</v>
+      </c>
+      <c r="W9" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:23">
       <c r="A10">
-        <v>2201</v>
+        <v>2301</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10">
+        <v>63</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10">
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O10">
-        <v>20</v>
-      </c>
-      <c r="P10" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1845,186 +1890,127 @@
         <v>2001</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="V10">
+        <v>2301</v>
+      </c>
+      <c r="W10" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:23">
       <c r="A11">
-        <v>2301</v>
+        <v>3001</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
       </c>
       <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
         <v>35</v>
       </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="Q11">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>2001</v>
-      </c>
-      <c r="U11" t="s">
-        <v>66</v>
+      <c r="W11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
-        <v>3001</v>
+        <v>9001</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
       </c>
       <c r="J12" t="s">
         <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O12">
         <v>100</v>
       </c>
-      <c r="P12" t="s">
-        <v>38</v>
-      </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13">
-        <v>9001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12080"/>
+    <workbookView windowWidth="13890" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>imgIconSkill_2101</t>
+    <t>imgIconSkill_BFCut</t>
   </si>
   <si>
     <t>Cut the foes around you.</t>
@@ -1254,9 +1254,9 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13890" windowHeight="6800"/>
+    <workbookView windowWidth="9860" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1254,9 +1254,9 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R8" sqref="R8"/>
+      <selection pane="topRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9860" windowHeight="6800"/>
+    <workbookView windowWidth="13760" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>//Remark</t>
   </si>
@@ -154,10 +154,16 @@
     <t>Use fire ball to attack multiple foes.</t>
   </si>
   <si>
+    <t>Holy Thunder</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Default</t>
+  </si>
+  <si>
     <t>Teleport</t>
-  </si>
-  <si>
-    <t>Star</t>
   </si>
   <si>
     <t>Help</t>
@@ -1251,12 +1257,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U3" sqref="U3"/>
+      <selection pane="topRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1535,7 +1541,7 @@
         <v>39</v>
       </c>
       <c r="O5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1561,7 +1567,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1573,13 +1579,13 @@
         <v>47</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1588,25 +1594,25 @@
         <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>40</v>
@@ -1618,33 +1624,33 @@
         <v>1001</v>
       </c>
       <c r="U6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>1302</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
-      </c>
-      <c r="V6">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7">
-        <v>2001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1653,81 +1659,81 @@
         <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="S7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2001</v>
+        <v>1001</v>
+      </c>
+      <c r="U7" t="s">
+        <v>51</v>
       </c>
       <c r="V7">
-        <v>2001</v>
-      </c>
-      <c r="W7" t="s">
-        <v>52</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
         <v>39</v>
@@ -1735,9 +1741,6 @@
       <c r="O8">
         <v>100</v>
       </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
@@ -1745,33 +1748,30 @@
         <v>40</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
+        <v>1002</v>
+      </c>
+      <c r="V8">
         <v>2001</v>
       </c>
-      <c r="U8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8">
-        <v>2101</v>
-      </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>2201</v>
+        <v>2101</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
         <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1819,36 +1819,36 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="V9">
-        <v>2201</v>
+        <v>2101</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1863,22 +1863,25 @@
         <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
         <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="P10">
+        <v>-1</v>
       </c>
       <c r="Q10">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>40</v>
@@ -1887,33 +1890,33 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="U10" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10">
+        <v>2201</v>
+      </c>
+      <c r="W10" t="s">
         <v>64</v>
-      </c>
-      <c r="V10">
-        <v>2301</v>
-      </c>
-      <c r="W10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>3001</v>
+        <v>2301</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1928,51 +1931,60 @@
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s">
         <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1002</v>
+      </c>
+      <c r="U11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11">
+        <v>2301</v>
+      </c>
+      <c r="W11" t="s">
         <v>67</v>
       </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
-        <v>9001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1987,16 +1999,16 @@
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N12" t="s">
         <v>39</v>
@@ -2008,9 +2020,68 @@
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
         <v>70</v>
       </c>
-      <c r="S12" t="b">
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>9001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13760" windowHeight="6800"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1260,9 +1260,9 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T11" sqref="T11"/>
+      <selection pane="topRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1579,7 +1579,7 @@
         <v>47</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1611,6 +1611,7 @@
       <c r="O6">
         <v>100</v>
       </c>
+      <c r="P6"/>
       <c r="Q6">
         <v>0</v>
       </c>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1260,9 +1260,9 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P6" sqref="P6"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6">
-        <v>1301</v>
+        <v>1401</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1611,7 +1611,6 @@
       <c r="O6">
         <v>100</v>
       </c>
-      <c r="P6"/>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -1628,12 +1627,12 @@
         <v>48</v>
       </c>
       <c r="V6">
-        <v>1301</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7">
-        <v>1302</v>
+        <v>1402</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -1693,7 +1692,7 @@
         <v>51</v>
       </c>
       <c r="V7">
-        <v>1302</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="8" spans="1:23">

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>//Remark</t>
   </si>
@@ -28,9 +28,6 @@
     <t>costAP</t>
   </si>
   <si>
-    <t>element</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -70,10 +67,7 @@
     <t>listSpecialEffect</t>
   </si>
   <si>
-    <t>skillSubjectType</t>
-  </si>
-  <si>
-    <t>isNormalAttack</t>
+    <t>activeSkillType</t>
   </si>
   <si>
     <t>characterID</t>
@@ -94,9 +88,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>enum|SkillElementType</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -115,28 +106,28 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>enum|BattleUnitType</t>
+    <t>enum|ActiveSkillType</t>
   </si>
   <si>
     <t>Elemental Ball</t>
   </si>
   <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Harm</t>
-  </si>
-  <si>
     <t>Magic</t>
   </si>
   <si>
     <t>ATK</t>
   </si>
   <si>
-    <t>Character</t>
+    <t>NormalAttack</t>
   </si>
   <si>
     <t>Use elemental ball to attack single foe.</t>
@@ -145,7 +136,7 @@
     <t>Fire Ball</t>
   </si>
   <si>
-    <t>Sun</t>
+    <t>DamageSkill</t>
   </si>
   <si>
     <t>imgIconSkill_1101</t>
@@ -154,19 +145,28 @@
     <t>Use fire ball to attack multiple foes.</t>
   </si>
   <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Default</t>
+  </si>
+  <si>
     <t>Holy Thunder</t>
   </si>
   <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>imgIconSkill_Default</t>
-  </si>
-  <si>
     <t>Teleport</t>
   </si>
   <si>
-    <t>Help</t>
+    <t>SupportSkill</t>
   </si>
   <si>
     <t>imgIconSkill_1302</t>
@@ -196,9 +196,6 @@
     <t>Self Heal</t>
   </si>
   <si>
-    <t>Moon</t>
-  </si>
-  <si>
     <t>Real</t>
   </si>
   <si>
@@ -223,7 +220,7 @@
     <t>Tadpole Strike</t>
   </si>
   <si>
-    <t>Plant</t>
+    <t>PlantSkill</t>
   </si>
   <si>
     <t>Attack a enemy.</t>
@@ -232,7 +229,7 @@
     <t>Bite</t>
   </si>
   <si>
-    <t>Foe</t>
+    <t>MonsterSkill</t>
   </si>
 </sst>
 </file>
@@ -884,11 +881,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1257,32 +1251,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V8" sqref="V8"/>
+      <selection pane="topRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="7.36363636363636" customWidth="1"/>
-    <col min="4" max="4" width="22.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="14.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="15.9090909090909" customWidth="1"/>
-    <col min="9" max="13" width="20.8181818181818" customWidth="1"/>
-    <col min="14" max="14" width="25.8181818181818" customWidth="1"/>
-    <col min="15" max="15" width="11.7272727272727" customWidth="1"/>
-    <col min="16" max="16" width="14.9090909090909" customWidth="1"/>
-    <col min="17" max="17" width="25.8181818181818" customWidth="1"/>
-    <col min="18" max="18" width="20.8181818181818" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6363636363636" customWidth="1"/>
-    <col min="20" max="20" width="15.9090909090909" customWidth="1"/>
-    <col min="21" max="21" width="20.1818181818182" customWidth="1"/>
-    <col min="22" max="22" width="14.1818181818182" customWidth="1"/>
-    <col min="23" max="23" width="42.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="5.81818181818182" customWidth="1"/>
+    <col min="5" max="5" width="11.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="15.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="6.81818181818182" customWidth="1"/>
+    <col min="8" max="12" width="20.8181818181818" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="11.7272727272727" customWidth="1"/>
+    <col min="15" max="15" width="14.9090909090909" customWidth="1"/>
+    <col min="16" max="16" width="18.7272727272727" customWidth="1"/>
+    <col min="17" max="17" width="20.5454545454545" customWidth="1"/>
+    <col min="18" max="18" width="11.5454545454545" customWidth="1"/>
+    <col min="19" max="19" width="20.1818181818182" customWidth="1"/>
+    <col min="20" max="20" width="14.1818181818182" customWidth="1"/>
+    <col min="21" max="21" width="42.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1290,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1300,40 +1294,40 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -1345,744 +1339,740 @@
       <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" t="s">
         <v>20</v>
       </c>
       <c r="U2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>4</v>
       </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
         <v>35</v>
       </c>
       <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4">
+        <v>1001</v>
+      </c>
+      <c r="T4">
+        <f>A4</f>
+        <v>1001</v>
+      </c>
+      <c r="U4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1001</v>
-      </c>
-      <c r="V4">
-        <v>1001</v>
-      </c>
-      <c r="W4" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5">
+        <v>150</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>1001</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T12" si="0">A5</f>
+        <v>1101</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>1301</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5">
-        <v>150</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>1001</v>
-      </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5">
-        <v>1101</v>
-      </c>
-      <c r="W5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <v>1401</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
         <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>40</v>
       </c>
-      <c r="S6" t="b">
-        <v>0</v>
+      <c r="R6">
+        <v>1001</v>
+      </c>
+      <c r="S6" t="s">
+        <v>47</v>
       </c>
       <c r="T6">
-        <v>1001</v>
-      </c>
-      <c r="U6" t="s">
+        <f t="shared" si="0"/>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>1401</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
-      </c>
-      <c r="V6">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <v>1402</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7">
+        <v>1001</v>
+      </c>
+      <c r="S7" t="s">
         <v>47</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3001</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
       <c r="T7">
-        <v>1001</v>
-      </c>
-      <c r="U7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
         <v>1402</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8">
-        <v>2001</v>
-      </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" t="b">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>3001</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8">
+        <v>1001</v>
+      </c>
+      <c r="S8" t="s">
+        <v>51</v>
       </c>
       <c r="T8">
-        <v>1002</v>
-      </c>
-      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
         <v>2001</v>
       </c>
-      <c r="W8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9">
-        <v>2101</v>
-      </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9">
+        <v>1002</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10">
+        <v>2101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
         <v>53</v>
       </c>
-      <c r="N9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9">
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10">
         <v>100</v>
       </c>
-      <c r="P9">
+      <c r="O10">
         <v>-1</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>40</v>
       </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="R10">
         <v>1002</v>
       </c>
-      <c r="U9" t="s">
+      <c r="S10" t="s">
         <v>57</v>
       </c>
-      <c r="V9">
+      <c r="T10">
+        <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="W9" t="s">
+      <c r="U10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10">
+    <row r="11" spans="1:21">
+      <c r="A11">
         <v>2201</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>59</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10">
-        <v>50</v>
-      </c>
-      <c r="P10">
-        <v>-1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>1002</v>
-      </c>
-      <c r="U10" t="s">
-        <v>63</v>
-      </c>
-      <c r="V10">
-        <v>2201</v>
-      </c>
-      <c r="W10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11">
-        <v>2301</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11">
+        <v>50</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11">
+        <v>1002</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>2201</v>
+      </c>
+      <c r="U11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>2301</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1001</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12">
+        <v>1002</v>
+      </c>
+      <c r="S12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>2301</v>
+      </c>
+      <c r="U12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>3001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" t="s">
         <v>36</v>
       </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1001</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>1002</v>
-      </c>
-      <c r="U11" t="s">
-        <v>66</v>
-      </c>
-      <c r="V11">
-        <v>2301</v>
-      </c>
-      <c r="W11" t="s">
-        <v>67</v>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>68</v>
+      </c>
+      <c r="U13" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12">
-        <v>3001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>9001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
         <v>36</v>
       </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12">
+      <c r="N14">
         <v>100</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13">
-        <v>9001</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
         <v>71</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S13" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t>//Remark</t>
   </si>
@@ -67,6 +67,9 @@
     <t>listSpecialEffect</t>
   </si>
   <si>
+    <t>listSpecialDelta</t>
+  </si>
+  <si>
     <t>activeSkillType</t>
   </si>
   <si>
@@ -145,6 +148,18 @@
     <t>Use fire ball to attack multiple foes.</t>
   </si>
   <si>
+    <t xml:space="preserve">Gravity </t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>ATKMOV</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Default</t>
+  </si>
+  <si>
     <t>Stream</t>
   </si>
   <si>
@@ -157,9 +172,6 @@
     <t>RES</t>
   </si>
   <si>
-    <t>imgIconSkill_Default</t>
-  </si>
-  <si>
     <t>Holy Thunder</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
   </si>
   <si>
     <t>Wind Chop</t>
-  </si>
-  <si>
-    <t>Square</t>
   </si>
   <si>
     <t>imgIconSkill_BFCut</t>
@@ -401,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,25 +425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +772,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,16 +796,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -799,89 +814,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,10 +912,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,12 +1269,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S6" sqref="S6"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1271,12 +1289,13 @@
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="11.7272727272727" customWidth="1"/>
     <col min="15" max="15" width="14.9090909090909" customWidth="1"/>
-    <col min="16" max="16" width="18.7272727272727" customWidth="1"/>
-    <col min="17" max="17" width="20.5454545454545" customWidth="1"/>
-    <col min="18" max="18" width="11.5454545454545" customWidth="1"/>
-    <col min="19" max="19" width="20.1818181818182" customWidth="1"/>
-    <col min="20" max="20" width="14.1818181818182" customWidth="1"/>
-    <col min="21" max="21" width="42.2727272727273" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.7272727272727" customWidth="1"/>
+    <col min="18" max="18" width="20.5454545454545" customWidth="1"/>
+    <col min="19" max="19" width="11.5454545454545" customWidth="1"/>
+    <col min="20" max="20" width="20.1818181818182" customWidth="1"/>
+    <col min="21" max="21" width="14.1818181818182" customWidth="1"/>
+    <col min="22" max="22" width="42.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1284,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1309,13 +1328,13 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1333,13 +1352,13 @@
       <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="T2" t="s">
@@ -1348,78 +1367,84 @@
       <c r="U2" t="s">
         <v>21</v>
       </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
       </c>
       <c r="U3" t="s">
         <v>23</v>
       </c>
+      <c r="V3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1437,22 +1462,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -1460,26 +1485,29 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4">
         <v>1001</v>
       </c>
-      <c r="T4">
-        <f>A4</f>
+      <c r="U4">
+        <f t="shared" ref="U4:U13" si="0">A4</f>
         <v>1001</v>
       </c>
-      <c r="U4" t="s">
-        <v>38</v>
+      <c r="V4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1497,22 +1525,22 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5">
         <v>150</v>
@@ -1520,410 +1548,428 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5">
         <v>1001</v>
       </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T12" si="0">A5</f>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="U5" t="s">
-        <v>42</v>
+      <c r="V5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
-        <v>1301</v>
+    <row r="6" spans="1:21">
+      <c r="A6" s="4">
+        <v>1202</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
         <v>46</v>
       </c>
       <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>-3</v>
+      </c>
+      <c r="P6">
+        <v>2001</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6">
+        <v>1001</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="5">
+        <v>1301</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7">
         <v>200</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7">
         <v>1001</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T7" t="s">
         <v>47</v>
       </c>
-      <c r="T6">
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>1301</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
         <v>1401</v>
       </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="J8" t="s">
         <v>35</v>
       </c>
-      <c r="M7" t="s">
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="N7">
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8">
         <v>100</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8">
         <v>1001</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T8" t="s">
         <v>47</v>
       </c>
-      <c r="T7">
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
         <v>1402</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E8" t="b">
+      <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="b">
+      <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>3001</v>
       </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9">
         <v>1001</v>
       </c>
-      <c r="S8" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8">
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="10" spans="1:22">
+      <c r="A10" s="2">
         <v>2001</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="L9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9">
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10">
         <v>100</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10">
         <v>1002</v>
       </c>
-      <c r="T9">
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="U9" t="s">
-        <v>54</v>
+      <c r="V10" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
+    <row r="11" spans="1:22">
+      <c r="A11" s="3">
         <v>2101</v>
       </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10">
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11">
         <v>100</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>-1</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11">
         <v>1002</v>
       </c>
-      <c r="S10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10">
+      <c r="T11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="U10" t="s">
-        <v>58</v>
+      <c r="V11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>2201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11">
-        <v>50</v>
-      </c>
-      <c r="O11">
-        <v>-1</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11">
-        <v>1002</v>
-      </c>
-      <c r="S11" t="s">
+    <row r="12" spans="1:22">
+      <c r="A12" s="5">
+        <v>2301</v>
+      </c>
+      <c r="B12" t="s">
         <v>62</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>2201</v>
-      </c>
-      <c r="U11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
-        <v>2301</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1932,58 +1978,64 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
       </c>
       <c r="P12">
-        <v>1001</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12">
         <v>1002</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>65</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>2301</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
-        <v>3001</v>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1">
+        <v>2401</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1995,48 +2047,61 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13">
+        <v>1002</v>
+      </c>
+      <c r="T13" t="s">
         <v>68</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+      <c r="V13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:22">
       <c r="A14">
-        <v>9001</v>
+        <v>3001</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -2048,22 +2113,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
         <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>100</v>
@@ -2071,8 +2136,67 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>71</v>
+      </c>
+      <c r="V14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>9001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1612,7 +1612,7 @@
         <v>100</v>
       </c>
       <c r="O6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="P6">
         <v>2001</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16580" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>//Remark</t>
   </si>
@@ -64,6 +64,12 @@
     <t>damageModifier</t>
   </si>
   <si>
+    <t>listBuffEffect</t>
+  </si>
+  <si>
+    <t>listBuffDelta</t>
+  </si>
+  <si>
     <t>listSpecialEffect</t>
   </si>
   <si>
@@ -224,6 +230,12 @@
   </si>
   <si>
     <t>Regain AP by 1.</t>
+  </si>
+  <si>
+    <t>Super Worker</t>
+  </si>
+  <si>
+    <t>UltimateSkill</t>
   </si>
   <si>
     <t>Tadpole Strike</t>
@@ -410,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +790,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,16 +814,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -814,89 +832,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +934,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1269,12 +1290,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1288,14 +1309,14 @@
     <col min="8" max="12" width="20.8181818181818" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="11.7272727272727" customWidth="1"/>
-    <col min="15" max="15" width="14.9090909090909" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.7272727272727" customWidth="1"/>
-    <col min="18" max="18" width="20.5454545454545" customWidth="1"/>
-    <col min="19" max="19" width="11.5454545454545" customWidth="1"/>
-    <col min="20" max="20" width="20.1818181818182" customWidth="1"/>
-    <col min="21" max="21" width="14.1818181818182" customWidth="1"/>
-    <col min="22" max="22" width="42.2727272727273" customWidth="1"/>
+    <col min="15" max="17" width="14.9090909090909" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="16.7272727272727" customWidth="1"/>
+    <col min="20" max="20" width="20.5454545454545" customWidth="1"/>
+    <col min="21" max="21" width="11.5454545454545" customWidth="1"/>
+    <col min="22" max="22" width="20.1818181818182" customWidth="1"/>
+    <col min="23" max="23" width="14.1818181818182" customWidth="1"/>
+    <col min="24" max="24" width="42.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1303,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1349,102 +1370,114 @@
       <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="V2" t="s">
         <v>22</v>
       </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V3" t="s">
-        <v>24</v>
+      <c r="W3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1462,22 +1495,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N4">
         <v>100</v>
@@ -1488,26 +1521,32 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4" t="s">
-        <v>38</v>
+      <c r="R4">
+        <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4">
         <v>1001</v>
       </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U13" si="0">A4</f>
+      <c r="W4">
+        <f t="shared" ref="W4:W14" si="0">A4</f>
         <v>1001</v>
       </c>
-      <c r="V4" t="s">
-        <v>39</v>
+      <c r="X4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1525,22 +1564,22 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5">
         <v>150</v>
@@ -1551,29 +1590,35 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5" t="s">
-        <v>41</v>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5">
         <v>1001</v>
       </c>
-      <c r="T5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5">
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="V5" t="s">
-        <v>43</v>
+      <c r="X5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23">
       <c r="A6" s="4">
         <v>1202</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1591,22 +1636,22 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>100</v>
@@ -1615,31 +1660,37 @@
         <v>-2</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>2001</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="R6" t="s">
-        <v>41</v>
-      </c>
-      <c r="S6">
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6">
         <v>1001</v>
       </c>
-      <c r="T6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6">
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="0"/>
         <v>1202</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23">
       <c r="A7" s="5">
         <v>1301</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1657,22 +1708,22 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>200</v>
@@ -1683,26 +1734,32 @@
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7" t="s">
-        <v>41</v>
+      <c r="R7">
+        <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7">
         <v>1001</v>
       </c>
-      <c r="T7" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7">
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>1301</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>1401</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1720,22 +1777,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -1746,26 +1803,32 @@
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
-        <v>41</v>
+      <c r="R8">
+        <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8">
         <v>1001</v>
       </c>
-      <c r="T8" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8">
+      <c r="V8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>1402</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1783,52 +1846,58 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>3001</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>54</v>
-      </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9">
         <v>1001</v>
       </c>
-      <c r="T9" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9">
+      <c r="V9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10" s="2">
         <v>2001</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1846,22 +1915,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>100</v>
@@ -1872,26 +1941,32 @@
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
-        <v>38</v>
+      <c r="R10">
+        <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10">
         <v>1002</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="V10" t="s">
-        <v>58</v>
+      <c r="X10" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11" s="3">
         <v>2101</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1909,22 +1984,22 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -1938,29 +2013,35 @@
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" t="s">
-        <v>41</v>
+      <c r="R11">
+        <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11">
         <v>1002</v>
       </c>
-      <c r="T11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U11">
+      <c r="V11" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="V11" t="s">
-        <v>61</v>
+      <c r="X11" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:24">
       <c r="A12" s="5">
         <v>2301</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1978,22 +2059,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>50</v>
@@ -2007,29 +2088,35 @@
       <c r="Q12">
         <v>0</v>
       </c>
-      <c r="R12" t="s">
-        <v>54</v>
+      <c r="R12">
+        <v>0</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12">
         <v>1002</v>
       </c>
-      <c r="T12" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12">
+      <c r="V12" t="s">
+        <v>67</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="0"/>
         <v>2301</v>
       </c>
-      <c r="V12" t="s">
-        <v>66</v>
+      <c r="X12" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>2401</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2047,144 +2134,163 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>1001</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="R13" t="s">
-        <v>54</v>
-      </c>
-      <c r="S13">
+      <c r="T13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U13">
         <v>1002</v>
       </c>
-      <c r="T13" t="s">
-        <v>68</v>
-      </c>
-      <c r="U13">
+      <c r="V13" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="0"/>
         <v>2401</v>
       </c>
-      <c r="V13" t="s">
-        <v>69</v>
+      <c r="X13" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
+    <row r="14" spans="1:23">
+      <c r="A14" s="6">
+        <v>2902</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1004</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14">
+        <v>1002</v>
+      </c>
+      <c r="V14" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
         <v>3001</v>
       </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>71</v>
-      </c>
-      <c r="V14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15">
-        <v>9001</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>100</v>
@@ -2195,8 +2301,76 @@
       <c r="Q15">
         <v>0</v>
       </c>
-      <c r="R15" t="s">
-        <v>74</v>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>9001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>//Remark</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Regain AP by 1.</t>
+  </si>
+  <si>
+    <t>Rush Hour</t>
   </si>
   <si>
     <t>Super Worker</t>
@@ -1290,12 +1293,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2184,20 +2187,20 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="6">
-        <v>2902</v>
+      <c r="A14" s="1">
+        <v>2402</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2215,7 +2218,7 @@
         <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
         <v>37</v>
@@ -2227,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="U14">
         <v>1002</v>
@@ -2248,25 +2251,25 @@
         <v>49</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f>A14</f>
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="6">
         <v>2902</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15">
-        <v>3001</v>
-      </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2278,54 +2281,61 @@
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
+        <v>74</v>
+      </c>
+      <c r="U15">
+        <v>1002</v>
+      </c>
+      <c r="V15" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15">
+        <f>A15</f>
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>3001</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="X15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>9001</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2340,16 +2350,16 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
         <v>39</v>
@@ -2370,7 +2380,69 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>9001</v>
+      </c>
+      <c r="B17" t="s">
         <v>78</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16580" windowHeight="7820"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -223,6 +223,9 @@
     <t>Self Heal for 20% HP.</t>
   </si>
   <si>
+    <t>Rush Hour</t>
+  </si>
+  <si>
     <t>Inspire</t>
   </si>
   <si>
@@ -230,9 +233,6 @@
   </si>
   <si>
     <t>Regain AP by 1.</t>
-  </si>
-  <si>
-    <t>Rush Hour</t>
   </si>
   <si>
     <t>Super Worker</t>
@@ -1296,9 +1296,9 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X21" sqref="X21"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1537,7 +1537,7 @@
         <v>1001</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W14" si="0">A4</f>
+        <f t="shared" ref="W4:W15" si="0">A4</f>
         <v>1001</v>
       </c>
       <c r="X4" t="s">
@@ -2114,7 +2114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>2401</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2164,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s">
         <v>56</v>
@@ -2176,22 +2176,19 @@
         <v>1002</v>
       </c>
       <c r="V13" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="W13">
-        <f t="shared" si="0"/>
+        <f>A13</f>
         <v>2401</v>
       </c>
-      <c r="X13" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>2402</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2236,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s">
         <v>56</v>
@@ -2248,11 +2245,14 @@
         <v>1002</v>
       </c>
       <c r="V14" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="W14">
         <f>A14</f>
         <v>2402</v>
+      </c>
+      <c r="X14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:23">

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="17020" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1296,9 +1296,9 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2071,7 +2071,7 @@
         <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
         <v>65</v>
@@ -2179,7 +2179,7 @@
         <v>49</v>
       </c>
       <c r="W13">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>2401</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
         <v>71</v>
       </c>
       <c r="W14">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>2402</v>
       </c>
       <c r="X14" t="s">
@@ -2320,7 +2320,7 @@
         <v>49</v>
       </c>
       <c r="W15">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>2902</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>//Remark</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>imgIconSkill_1302</t>
+  </si>
+  <si>
+    <t>Infinity</t>
   </si>
   <si>
     <t>Strike</t>
@@ -1293,12 +1296,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1537,7 +1540,7 @@
         <v>1001</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W15" si="0">A4</f>
+        <f t="shared" ref="W4:W16" si="0">A4</f>
         <v>1001</v>
       </c>
       <c r="X4" t="s">
@@ -1585,7 +1588,10 @@
         <v>39</v>
       </c>
       <c r="N5">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1895,21 +1901,21 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="2">
-        <v>2001</v>
+    <row r="10" spans="1:23">
+      <c r="A10" s="6">
+        <v>1902</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
       </c>
       <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="b">
         <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1921,28 +1927,28 @@
         <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1951,55 +1957,55 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="U10">
-        <v>1002</v>
+        <v>1001</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
       </c>
       <c r="W10">
         <f t="shared" si="0"/>
-        <v>2001</v>
-      </c>
-      <c r="X10" t="s">
-        <v>60</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="3">
-        <v>2101</v>
+      <c r="A11" s="2">
+        <v>2001</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
         <v>39</v>
@@ -2007,9 +2013,6 @@
       <c r="N11">
         <v>100</v>
       </c>
-      <c r="O11">
-        <v>-1</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -2023,31 +2026,28 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="U11">
         <v>1002</v>
       </c>
-      <c r="V11" t="s">
-        <v>62</v>
-      </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="X11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="5">
-        <v>2301</v>
+      <c r="A12" s="3">
+        <v>2101</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2059,32 +2059,30 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12">
-        <v>-1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O12"/>
       <c r="P12">
         <v>0</v>
       </c>
@@ -2098,34 +2096,34 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="U12">
         <v>1002</v>
       </c>
       <c r="V12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
+        <v>2101</v>
+      </c>
+      <c r="X12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="5">
         <v>2301</v>
       </c>
-      <c r="X12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1">
-        <v>2401</v>
-      </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2146,16 +2144,19 @@
         <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2164,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
         <v>56</v>
@@ -2176,16 +2177,19 @@
         <v>1002</v>
       </c>
       <c r="V13" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
+        <v>2301</v>
+      </c>
+      <c r="X13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1">
         <v>2401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1">
-        <v>2402</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -2197,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2233,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s">
         <v>56</v>
@@ -2245,31 +2249,28 @@
         <v>1002</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1">
         <v>2402</v>
       </c>
-      <c r="X14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="6">
-        <v>2902</v>
-      </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2287,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
         <v>37</v>
@@ -2299,46 +2300,49 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="U15">
         <v>1002</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
+        <v>2402</v>
+      </c>
+      <c r="X15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="6">
         <v>2902</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16">
-        <v>3001</v>
-      </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2350,54 +2354,61 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16">
+        <v>1002</v>
+      </c>
+      <c r="V16" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>3001</v>
+      </c>
+      <c r="B17" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17">
-        <v>9001</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -2412,16 +2423,16 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
         <v>39</v>
@@ -2442,7 +2453,69 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>9001</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17020" windowHeight="8940"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1301,7 +1301,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O14" sqref="O14"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2082,7 +2082,6 @@
       <c r="N12">
         <v>100</v>
       </c>
-      <c r="O12"/>
       <c r="P12">
         <v>0</v>
       </c>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1299,9 +1299,9 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O5" sqref="O5"/>
+      <selection pane="topRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1666,7 +1666,7 @@
         <v>100</v>
       </c>
       <c r="O6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>2001</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
         <v>43</v>
@@ -2012,6 +2012,9 @@
       </c>
       <c r="N11">
         <v>100</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>//Remark</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Holy Thunder</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
   <si>
     <t>Teleport</t>
@@ -1299,9 +1302,9 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O11" sqref="O11"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1786,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -1837,7 +1840,7 @@
         <v>1402</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1888,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9">
         <v>1001</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
@@ -1906,7 +1909,7 @@
         <v>1902</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1957,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10">
         <v>1001</v>
@@ -1975,7 +1978,7 @@
         <v>2001</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2005,7 +2008,7 @@
         <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
         <v>39</v>
@@ -2039,7 +2042,7 @@
         <v>2001</v>
       </c>
       <c r="X11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -2047,7 +2050,7 @@
         <v>2101</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2077,7 +2080,7 @@
         <v>37</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M12" t="s">
         <v>39</v>
@@ -2104,14 +2107,14 @@
         <v>1002</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="X12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -2119,7 +2122,7 @@
         <v>2301</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2149,10 +2152,10 @@
         <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>50</v>
@@ -2173,20 +2176,20 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13">
         <v>1002</v>
       </c>
       <c r="V13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
         <v>2301</v>
       </c>
       <c r="X13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2194,7 +2197,7 @@
         <v>2401</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2245,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14">
         <v>1002</v>
@@ -2263,7 +2266,7 @@
         <v>2402</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2314,20 +2317,20 @@
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15">
         <v>1002</v>
       </c>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
         <v>2402</v>
       </c>
       <c r="X15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2335,7 +2338,7 @@
         <v>2902</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2386,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16">
         <v>1002</v>
@@ -2404,7 +2407,7 @@
         <v>3001</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2434,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M17" t="s">
         <v>39</v>
@@ -2455,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2466,7 +2469,7 @@
         <v>9001</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2496,7 +2499,7 @@
         <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M18" t="s">
         <v>39</v>
@@ -2517,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1302,9 +1302,9 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1795,7 +1795,7 @@
         <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
   <si>
     <t>//Remark</t>
   </si>
@@ -256,10 +256,13 @@
     <t>Attack a enemy.</t>
   </si>
   <si>
-    <t>Bite</t>
+    <t>Slap</t>
   </si>
   <si>
     <t>MonsterSkill</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
   </si>
 </sst>
 </file>
@@ -1299,12 +1302,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2523,6 +2526,65 @@
         <v>81</v>
       </c>
     </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>9002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1305,9 +1305,9 @@
   <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V19" sqref="V19"/>
+      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1600,10 +1600,10 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
   <si>
     <t>//Remark</t>
   </si>
@@ -28,6 +28,9 @@
     <t>costAP</t>
   </si>
   <si>
+    <t>costMOV</t>
+  </si>
+  <si>
     <t>range</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>Cut the foes around you.</t>
+  </si>
+  <si>
+    <t>Overtime Work</t>
   </si>
   <si>
     <t>Self Heal</t>
@@ -1302,33 +1308,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="topRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="7.36363636363636" customWidth="1"/>
-    <col min="4" max="4" width="5.81818181818182" customWidth="1"/>
-    <col min="5" max="5" width="11.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="15.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="6.81818181818182" customWidth="1"/>
-    <col min="8" max="12" width="20.8181818181818" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="11.7272727272727" customWidth="1"/>
-    <col min="15" max="17" width="14.9090909090909" customWidth="1"/>
-    <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="16.7272727272727" customWidth="1"/>
-    <col min="20" max="20" width="20.5454545454545" customWidth="1"/>
-    <col min="21" max="21" width="11.5454545454545" customWidth="1"/>
-    <col min="22" max="22" width="20.1818181818182" customWidth="1"/>
-    <col min="23" max="23" width="14.1818181818182" customWidth="1"/>
-    <col min="24" max="24" width="42.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="8.09090909090909" customWidth="1"/>
+    <col min="5" max="5" width="5.81818181818182" customWidth="1"/>
+    <col min="6" max="6" width="11.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="15.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="6.81818181818182" customWidth="1"/>
+    <col min="9" max="13" width="20.8181818181818" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="11.7272727272727" customWidth="1"/>
+    <col min="16" max="18" width="14.9090909090909" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="16.7272727272727" customWidth="1"/>
+    <col min="21" max="21" width="20.5454545454545" customWidth="1"/>
+    <col min="22" max="22" width="11.5454545454545" customWidth="1"/>
+    <col min="23" max="23" width="20.1818181818182" customWidth="1"/>
+    <col min="24" max="24" width="14.1818181818182" customWidth="1"/>
+    <col min="25" max="25" width="42.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1336,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1353,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1361,7 +1368,7 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -1370,7 +1377,7 @@
       <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1382,25 +1389,25 @@
       <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="W2" t="s">
@@ -1409,105 +1416,111 @@
       <c r="X2" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="T3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="W3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X3" t="s">
         <v>26</v>
       </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
@@ -1516,7 +1529,7 @@
         <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
         <v>38</v>
@@ -1524,12 +1537,12 @@
       <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
@@ -1539,213 +1552,222 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4">
         <v>1001</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W16" si="0">A4</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X17" si="0">A4</f>
         <v>1001</v>
       </c>
-      <c r="X4" t="s">
-        <v>41</v>
+      <c r="Y4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5">
         <v>135</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>2001</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5">
         <v>1001</v>
       </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5">
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="X5" t="s">
-        <v>45</v>
+      <c r="Y5" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="4">
         <v>1202</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
         <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6">
         <v>100</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-3</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>2001</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6">
         <v>1001</v>
       </c>
-      <c r="V6" t="s">
-        <v>49</v>
-      </c>
-      <c r="W6">
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="0"/>
         <v>1202</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="5">
         <v>1301</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7">
         <v>200</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -1755,50 +1777,53 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7">
         <v>1001</v>
       </c>
-      <c r="V7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="0"/>
         <v>1301</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>1401</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -1809,12 +1834,12 @@
       <c r="M8" t="s">
         <v>39</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8">
         <v>100</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
         <v>0</v>
       </c>
@@ -1824,206 +1849,215 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8">
         <v>1001</v>
       </c>
-      <c r="V8" t="s">
-        <v>49</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>1402</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>3001</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9">
         <v>1001</v>
       </c>
-      <c r="V9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="6">
         <v>1902</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
       <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>1003</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>3</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10">
         <v>1001</v>
       </c>
-      <c r="V10" t="s">
-        <v>49</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="2">
         <v>2001</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11">
+        <v>62</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11">
         <v>100</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -2034,26 +2068,29 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11">
         <v>1002</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="X11" t="s">
-        <v>62</v>
+      <c r="Y11" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="3">
         <v>2101</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2061,39 +2098,39 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12">
         <v>100</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
       <c r="Q12">
         <v>0</v>
       </c>
@@ -2103,432 +2140,463 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U12">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12">
         <v>1002</v>
       </c>
-      <c r="V12" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12">
+      <c r="W12" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="X12" t="s">
-        <v>65</v>
+      <c r="Y12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
+        <v>2102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1002</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>3002</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13">
+        <v>1002</v>
+      </c>
+      <c r="W13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="5">
         <v>2301</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="B14" t="s">
         <v>68</v>
       </c>
-      <c r="N13">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14">
         <v>50</v>
       </c>
-      <c r="O13">
+      <c r="P14">
         <v>-1</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14">
         <v>1002</v>
       </c>
-      <c r="V13" t="s">
-        <v>69</v>
-      </c>
-      <c r="W13">
+      <c r="W14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="0"/>
         <v>2301</v>
       </c>
-      <c r="X13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="1">
-        <v>2401</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1002</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U14">
-        <v>1002</v>
-      </c>
-      <c r="V14" t="s">
-        <v>49</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="0"/>
-        <v>2401</v>
+      <c r="Y14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1">
+        <v>2401</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1002</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15">
+        <v>1002</v>
+      </c>
+      <c r="W15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1">
         <v>2402</v>
       </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>1001</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15" t="s">
-        <v>57</v>
-      </c>
-      <c r="U15">
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16">
         <v>1002</v>
       </c>
-      <c r="V15" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15">
+      <c r="W16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="0"/>
         <v>2402</v>
       </c>
-      <c r="X15" t="s">
-        <v>74</v>
+      <c r="Y16" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="6">
+    <row r="17" spans="1:24">
+      <c r="A17" s="6">
         <v>2902</v>
       </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>1004</v>
       </c>
-      <c r="Q16">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="R16">
-        <v>1003</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
-        <v>76</v>
-      </c>
-      <c r="U16">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17">
         <v>1002</v>
       </c>
-      <c r="V16" t="s">
-        <v>49</v>
-      </c>
-      <c r="W16">
+      <c r="W17" t="s">
+        <v>50</v>
+      </c>
+      <c r="X17">
         <f t="shared" si="0"/>
         <v>2902</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17">
+    <row r="18" spans="1:25">
+      <c r="A18">
         <v>3001</v>
       </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J18" t="s">
         <v>37</v>
       </c>
-      <c r="K17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17">
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18">
         <v>100</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>78</v>
-      </c>
-      <c r="X17" t="s">
-        <v>79</v>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
+    <row r="19" spans="1:21">
+      <c r="A19">
         <v>9001</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18">
-        <v>100</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
-        <v>9002</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -2537,52 +2605,117 @@
         <v>1</v>
       </c>
       <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19">
+        <v>100</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20">
+        <v>9002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="J19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
         <v>39</v>
       </c>
-      <c r="N19">
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20">
         <v>100</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>81</v>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t>//Remark</t>
   </si>
@@ -157,6 +157,24 @@
     <t>Use fire ball to attack multiple foes.</t>
   </si>
   <si>
+    <t>Boom!</t>
+  </si>
+  <si>
+    <t>BurnUnit</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>BURN</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Default</t>
+  </si>
+  <si>
+    <t>Deal damage according to burning level.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -166,9 +184,6 @@
     <t>ATKMOV</t>
   </si>
   <si>
-    <t>imgIconSkill_Default</t>
-  </si>
-  <si>
     <t>Stream</t>
   </si>
   <si>
@@ -181,6 +196,15 @@
     <t>RES</t>
   </si>
   <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>5002;6002</t>
+  </si>
+  <si>
+    <t>SupportSkill</t>
+  </si>
+  <si>
     <t>Holy Thunder</t>
   </si>
   <si>
@@ -190,12 +214,24 @@
     <t>Teleport</t>
   </si>
   <si>
-    <t>SupportSkill</t>
-  </si>
-  <si>
     <t>imgIconSkill_1302</t>
   </si>
   <si>
+    <t>Time Expand</t>
+  </si>
+  <si>
+    <t>5001;6001</t>
+  </si>
+  <si>
+    <t>0;0</t>
+  </si>
+  <si>
+    <t>UltimateSkill</t>
+  </si>
+  <si>
+    <t>Double the level of debuff for foe or buff for allies</t>
+  </si>
+  <si>
     <t>Infinity</t>
   </si>
   <si>
@@ -223,9 +259,6 @@
     <t>Self Heal</t>
   </si>
   <si>
-    <t>Real</t>
-  </si>
-  <si>
     <t>MAXHP</t>
   </si>
   <si>
@@ -248,9 +281,6 @@
   </si>
   <si>
     <t>Super Worker</t>
-  </si>
-  <si>
-    <t>UltimateSkill</t>
   </si>
   <si>
     <t>Tadpole Strike</t>
@@ -1308,12 +1338,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T22" sqref="T22"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1562,7 +1592,7 @@
         <v>1001</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X17" si="0">A4</f>
+        <f t="shared" ref="X4:X12" si="0">A4</f>
         <v>1001</v>
       </c>
       <c r="Y4" t="s">
@@ -1613,13 +1643,13 @@
         <v>40</v>
       </c>
       <c r="O5">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1647,9 +1677,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="4">
-        <v>1202</v>
+    <row r="6" spans="1:25">
+      <c r="A6" s="3">
+        <v>1102</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
@@ -1661,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -1679,22 +1709,19 @@
         <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>-3</v>
+        <v>300</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1703,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="s">
         <v>44</v>
@@ -1715,28 +1742,31 @@
         <v>1001</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>1202</v>
+        <v>1102</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="5">
-        <v>1301</v>
+      <c r="A7" s="4">
+        <v>1202</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1745,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
@@ -1757,16 +1787,19 @@
         <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O7">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>-3</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1775,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="s">
         <v>44</v>
@@ -1787,19 +1820,19 @@
         <v>1001</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>1301</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="1">
-        <v>1401</v>
+      <c r="A8" s="5">
+        <v>1301</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1808,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1817,28 +1850,28 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="O8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1859,19 +1892,19 @@
         <v>1001</v>
       </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>1401</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="1">
-        <v>1402</v>
+      <c r="A9" s="5">
+        <v>1302</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1880,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1895,13 +1928,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
         <v>38</v>
@@ -1918,44 +1951,44 @@
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>3001</v>
+      <c r="S9" t="s">
+        <v>61</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V9">
         <v>1001</v>
       </c>
       <c r="W9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>1402</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="6">
-        <v>1902</v>
+      <c r="A10" s="1">
+        <v>1401</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1964,31 +1997,31 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1997,25 +2030,25 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="V10">
         <v>1001</v>
       </c>
       <c r="W10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X10">
         <f t="shared" si="0"/>
-        <v>1902</v>
+        <v>1401</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="2">
-        <v>2001</v>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1">
+        <v>1402</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2024,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2039,58 +2072,55 @@
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>3001</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>62</v>
       </c>
-      <c r="N11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>41</v>
-      </c>
       <c r="V11">
-        <v>1002</v>
+        <v>1001</v>
+      </c>
+      <c r="W11" t="s">
+        <v>66</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>2001</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>63</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="3">
-        <v>2101</v>
+      <c r="A12" s="6">
+        <v>1901</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2099,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2108,28 +2138,28 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2137,44 +2167,44 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" t="s">
+        <v>69</v>
       </c>
       <c r="U12" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="V12">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="X12">
         <f t="shared" si="0"/>
-        <v>2101</v>
+        <v>1901</v>
       </c>
       <c r="Y12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="3">
-        <v>2102</v>
+      <c r="A13" s="6">
+        <v>1902</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -2192,7 +2222,7 @@
         <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
         <v>38</v>
@@ -2207,37 +2237,37 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="R13">
         <v>3</v>
       </c>
       <c r="S13">
-        <v>3002</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="V13">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="W13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X13">
-        <f t="shared" si="0"/>
-        <v>2102</v>
+        <f t="shared" ref="X13:X20" si="1">A13</f>
+        <v>1902</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="5">
-        <v>2301</v>
+      <c r="A14" s="2">
+        <v>2001</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2246,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -2261,25 +2291,25 @@
         <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="O14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2294,37 +2324,34 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="V14">
         <v>1002</v>
       </c>
-      <c r="W14" t="s">
-        <v>71</v>
-      </c>
       <c r="X14">
-        <f t="shared" si="0"/>
-        <v>2301</v>
+        <f t="shared" si="1"/>
+        <v>2001</v>
       </c>
       <c r="Y14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1">
-        <v>2401</v>
+    <row r="15" spans="1:25">
+      <c r="A15" s="3">
+        <v>2101</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2333,28 +2360,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
         <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2363,43 +2390,46 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="V15">
         <v>1002</v>
       </c>
       <c r="W15" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
-        <v>2401</v>
+        <f t="shared" si="1"/>
+        <v>2101</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="1">
-        <v>2402</v>
+    <row r="16" spans="1:24">
+      <c r="A16" s="3">
+        <v>2102</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2414,7 +2444,7 @@
         <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
         <v>38</v>
@@ -2429,49 +2459,46 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>1001</v>
+        <v>3002</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V16">
         <v>1002</v>
       </c>
       <c r="W16" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
-        <v>2402</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>2102</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
-      <c r="A17" s="6">
-        <v>2902</v>
+    <row r="17" spans="1:25">
+      <c r="A17" s="5">
+        <v>2301</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2489,25 +2516,28 @@
         <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
       </c>
       <c r="Q17">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2516,37 +2546,40 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="V17">
         <v>1002</v>
       </c>
       <c r="W17" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="X17">
-        <f t="shared" si="0"/>
-        <v>2902</v>
+        <f t="shared" si="1"/>
+        <v>2301</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
-      <c r="A18">
-        <v>3001</v>
+    <row r="18" spans="1:24">
+      <c r="A18" s="1">
+        <v>2401</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2558,22 +2591,22 @@
         <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
         <v>38</v>
       </c>
       <c r="M18" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2582,24 +2615,31 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="V18">
+        <v>1002</v>
+      </c>
+      <c r="W18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>2401</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
-        <v>9001</v>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>2402</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2608,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2626,54 +2666,67 @@
         <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1001</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
         <v>62</v>
       </c>
-      <c r="N19" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19">
-        <v>100</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>83</v>
+      <c r="V19">
+        <v>1002</v>
+      </c>
+      <c r="W19" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>2402</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>9002</v>
+    <row r="20" spans="1:24">
+      <c r="A20" s="6">
+        <v>2902</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2688,34 +2741,233 @@
         <v>38</v>
       </c>
       <c r="K20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1004</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V20">
+        <v>1002</v>
+      </c>
+      <c r="W20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21">
+        <v>3001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
         <v>37</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>9001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
         <v>37</v>
       </c>
-      <c r="M20" t="s">
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23">
+        <v>9002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
         <v>39</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N23" t="s">
         <v>40</v>
       </c>
-      <c r="O20">
+      <c r="O23">
         <v>100</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>83</v>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
   <si>
     <t>//Remark</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Infinity</t>
+  </si>
+  <si>
+    <t>Final Chant</t>
   </si>
   <si>
     <t>Strike</t>
@@ -1338,7 +1341,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
@@ -1592,7 +1595,7 @@
         <v>1001</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X12" si="0">A4</f>
+        <f t="shared" ref="X4:X14" si="0">A4</f>
         <v>1001</v>
       </c>
       <c r="Y4" t="s">
@@ -1721,7 +1724,7 @@
         <v>50</v>
       </c>
       <c r="O6">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2258,28 +2261,28 @@
         <v>51</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13:X20" si="1">A13</f>
+        <f t="shared" si="0"/>
         <v>1902</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="2">
-        <v>2001</v>
+    <row r="14" spans="1:24">
+      <c r="A14" s="6">
+        <v>1903</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -2291,31 +2294,28 @@
         <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="L14" t="s">
         <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2324,58 +2324,58 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="V14">
-        <v>1002</v>
+        <v>1001</v>
+      </c>
+      <c r="W14" t="s">
+        <v>51</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
-        <v>2001</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>1903</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="3">
-        <v>2101</v>
+      <c r="A15" s="2">
+        <v>2001</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
         <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N15" t="s">
         <v>40</v>
@@ -2383,6 +2383,9 @@
       <c r="O15">
         <v>100</v>
       </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
       <c r="Q15">
         <v>0</v>
       </c>
@@ -2396,471 +2399,478 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V15">
         <v>1002</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15">
+        <f t="shared" ref="X15:X21" si="1">A15</f>
+        <v>2001</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="3">
+        <v>2101</v>
+      </c>
+      <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="X15">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16">
+        <v>1002</v>
+      </c>
+      <c r="W16" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="1"/>
         <v>2101</v>
       </c>
-      <c r="Y15" t="s">
-        <v>78</v>
+      <c r="Y16" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="3">
+    <row r="17" spans="1:24">
+      <c r="A17" s="3">
         <v>2102</v>
       </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>36</v>
       </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
         <v>58</v>
       </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>1002</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>3002</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>3</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U17" t="s">
         <v>62</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>1002</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W17" t="s">
         <v>51</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f t="shared" si="1"/>
         <v>2102</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="5">
+    <row r="18" spans="1:25">
+      <c r="A18" s="5">
         <v>2301</v>
       </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
         <v>58</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>58</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>49</v>
       </c>
-      <c r="N17" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17">
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18">
         <v>50</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>-1</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
         <v>62</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>1002</v>
       </c>
-      <c r="W17" t="s">
-        <v>82</v>
-      </c>
-      <c r="X17">
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="1"/>
         <v>2301</v>
       </c>
-      <c r="Y17" t="s">
-        <v>83</v>
+      <c r="Y18" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
-      <c r="A18" s="1">
+    <row r="19" spans="1:24">
+      <c r="A19" s="1">
         <v>2401</v>
       </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" t="s">
         <v>58</v>
       </c>
-      <c r="L18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>1002</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U19" t="s">
         <v>62</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>1002</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W19" t="s">
         <v>51</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
         <v>2402</v>
       </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>36</v>
       </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
         <v>58</v>
       </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>1001</v>
       </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20" t="s">
         <v>62</v>
       </c>
-      <c r="V19">
+      <c r="V20">
         <v>1002</v>
       </c>
-      <c r="W19" t="s">
-        <v>86</v>
-      </c>
-      <c r="X19">
+      <c r="W20" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
-      <c r="Y19" t="s">
-        <v>87</v>
+      <c r="Y20" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
-      <c r="A20" s="6">
+    <row r="21" spans="1:24">
+      <c r="A21" s="6">
         <v>2902</v>
       </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20">
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>36</v>
       </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>58</v>
       </c>
-      <c r="M20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>1004</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>3</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
         <v>70</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>1002</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W21" t="s">
         <v>51</v>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
-      <c r="A21">
+    <row r="22" spans="1:25">
+      <c r="A22">
         <v>3001</v>
       </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>3</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21">
-        <v>100</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>9001</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2875,16 +2885,16 @@
         <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="N22" t="s">
         <v>40</v>
@@ -2905,15 +2915,18 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2922,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2946,7 +2959,7 @@
         <v>37</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="N23" t="s">
         <v>40</v>
@@ -2967,7 +2980,69 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24">
+        <v>9002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="101">
   <si>
     <t>//Remark</t>
   </si>
@@ -31,6 +31,9 @@
     <t>costMOV</t>
   </si>
   <si>
+    <t>costHP</t>
+  </si>
+  <si>
     <t>range</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>5002;6002</t>
   </si>
   <si>
+    <t>0;0</t>
+  </si>
+  <si>
     <t>SupportSkill</t>
   </si>
   <si>
@@ -223,9 +229,6 @@
     <t>5001;6001</t>
   </si>
   <si>
-    <t>0;0</t>
-  </si>
-  <si>
     <t>UltimateSkill</t>
   </si>
   <si>
@@ -259,6 +262,15 @@
     <t>Overtime Work</t>
   </si>
   <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>2001;4002</t>
+  </si>
+  <si>
+    <t>1;1</t>
+  </si>
+  <si>
     <t>Self Heal</t>
   </si>
   <si>
@@ -281,6 +293,9 @@
   </si>
   <si>
     <t>Regain AP by 1.</t>
+  </si>
+  <si>
+    <t>Final Guard</t>
   </si>
   <si>
     <t>Super Worker</t>
@@ -1341,34 +1356,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="7.36363636363636" customWidth="1"/>
-    <col min="4" max="4" width="8.09090909090909" customWidth="1"/>
-    <col min="5" max="5" width="5.81818181818182" customWidth="1"/>
-    <col min="6" max="6" width="11.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="15.9090909090909" customWidth="1"/>
-    <col min="8" max="8" width="6.81818181818182" customWidth="1"/>
-    <col min="9" max="13" width="20.8181818181818" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="11.7272727272727" customWidth="1"/>
-    <col min="16" max="18" width="14.9090909090909" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="16.7272727272727" customWidth="1"/>
-    <col min="21" max="21" width="20.5454545454545" customWidth="1"/>
-    <col min="22" max="22" width="11.5454545454545" customWidth="1"/>
-    <col min="23" max="23" width="20.1818181818182" customWidth="1"/>
-    <col min="24" max="24" width="14.1818181818182" customWidth="1"/>
-    <col min="25" max="25" width="42.2727272727273" customWidth="1"/>
+    <col min="4" max="5" width="8.09090909090909" customWidth="1"/>
+    <col min="6" max="6" width="5.81818181818182" customWidth="1"/>
+    <col min="7" max="7" width="11.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="15.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="6.81818181818182" customWidth="1"/>
+    <col min="10" max="14" width="20.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="11.7272727272727" customWidth="1"/>
+    <col min="17" max="19" width="14.9090909090909" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="21" max="21" width="16.7272727272727" customWidth="1"/>
+    <col min="22" max="22" width="20.5454545454545" customWidth="1"/>
+    <col min="23" max="23" width="11.5454545454545" customWidth="1"/>
+    <col min="24" max="24" width="20.1818181818182" customWidth="1"/>
+    <col min="25" max="25" width="14.1818181818182" customWidth="1"/>
+    <col min="26" max="26" width="42.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1376,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1404,7 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1404,7 +1419,7 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1413,7 +1428,7 @@
       <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1425,25 +1440,25 @@
       <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="X2" t="s">
@@ -1452,111 +1467,111 @@
       <c r="Y2" t="s">
         <v>25</v>
       </c>
+      <c r="Z2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="X3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="s">
         <v>27</v>
       </c>
+      <c r="Z3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>37</v>
@@ -1565,7 +1580,7 @@
         <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
         <v>39</v>
@@ -1573,12 +1588,12 @@
       <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
@@ -1588,147 +1603,141 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4">
         <v>1001</v>
       </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X14" si="0">A4</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y23" si="0">A4</f>
         <v>1001</v>
       </c>
-      <c r="Y4" t="s">
-        <v>42</v>
+      <c r="Z4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
         <v>40</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5">
         <v>100</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4001</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5">
         <v>1001</v>
       </c>
-      <c r="W5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5">
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5">
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
-      <c r="Y5" t="s">
-        <v>46</v>
+      <c r="Z5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6" s="3">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
         <v>50</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6">
         <v>250</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
@@ -1738,147 +1747,141 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6">
         <v>1001</v>
       </c>
-      <c r="W6" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6">
+      <c r="X6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="0"/>
         <v>1102</v>
       </c>
-      <c r="Y6" t="s">
-        <v>52</v>
+      <c r="Z6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="4">
         <v>1202</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>54</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7">
         <v>100</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-3</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>2001</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7">
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7">
         <v>1001</v>
       </c>
-      <c r="W7" t="s">
-        <v>51</v>
-      </c>
-      <c r="X7">
+      <c r="X7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="0"/>
         <v>1202</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="5">
         <v>1301</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
+      <c r="F8">
+        <v>3</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8">
         <v>200</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
@@ -1888,125 +1891,119 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8">
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8">
         <v>1001</v>
       </c>
-      <c r="W8" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8">
+      <c r="X8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="0"/>
         <v>1301</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="5">
         <v>1302</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
       <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9">
+        <v>63</v>
+      </c>
+      <c r="V9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9">
         <v>1001</v>
       </c>
-      <c r="W9" t="s">
-        <v>51</v>
-      </c>
-      <c r="X9">
+      <c r="X9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>1401</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>64</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
         <v>38</v>
@@ -2017,12 +2014,12 @@
       <c r="N10" t="s">
         <v>40</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10">
         <v>100</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
@@ -2032,362 +2029,347 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V10">
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10">
         <v>1001</v>
       </c>
-      <c r="W10" t="s">
-        <v>51</v>
-      </c>
-      <c r="X10">
+      <c r="X10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>1402</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>3001</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11">
         <v>1001</v>
       </c>
-      <c r="W11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X11">
+      <c r="X11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="6">
         <v>1901</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12" t="s">
-        <v>68</v>
+      <c r="S12">
+        <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12">
+        <v>63</v>
+      </c>
+      <c r="V12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12">
         <v>1001</v>
       </c>
-      <c r="W12" t="s">
-        <v>51</v>
-      </c>
-      <c r="X12">
+      <c r="X12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
-      <c r="Y12" t="s">
-        <v>71</v>
+      <c r="Z12" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="6">
         <v>1902</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
       <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>1003</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" t="s">
-        <v>70</v>
-      </c>
-      <c r="V13">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13">
         <v>1001</v>
       </c>
-      <c r="W13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13">
+      <c r="X13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="6">
         <v>1903</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1005</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" t="s">
-        <v>70</v>
-      </c>
-      <c r="V14">
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14">
         <v>1001</v>
       </c>
-      <c r="W14" t="s">
-        <v>51</v>
-      </c>
-      <c r="X14">
+      <c r="X14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="2">
         <v>2001</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
         <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15">
+        <v>76</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15">
         <v>100</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2398,69 +2380,66 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15">
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15">
         <v>1002</v>
       </c>
-      <c r="X15">
-        <f t="shared" ref="X15:X21" si="1">A15</f>
+      <c r="Y15">
+        <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="Y15" t="s">
-        <v>76</v>
+      <c r="Z15" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16" s="3">
         <v>2101</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16">
+        <v>76</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16">
         <v>100</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
       <c r="R16">
         <v>0</v>
       </c>
@@ -2470,176 +2449,167 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" t="s">
-        <v>44</v>
-      </c>
-      <c r="V16">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16">
         <v>1002</v>
       </c>
-      <c r="W16" t="s">
-        <v>78</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="1"/>
+      <c r="X16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="Y16" t="s">
-        <v>79</v>
+      <c r="Z16" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25">
       <c r="A17" s="3">
         <v>2102</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+        <v>39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>1002</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>3002</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3</v>
       </c>
-      <c r="U17" t="s">
-        <v>62</v>
-      </c>
-      <c r="V17">
+      <c r="V17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17">
         <v>1002</v>
       </c>
-      <c r="W17" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="1"/>
+      <c r="X17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
         <v>2102</v>
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
+        <v>2201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18" t="s">
+        <v>84</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18">
+        <v>1002</v>
+      </c>
+      <c r="X18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="5">
         <v>2301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18">
-        <v>50</v>
-      </c>
-      <c r="P18">
-        <v>-1</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>62</v>
-      </c>
-      <c r="V18">
-        <v>1002</v>
-      </c>
-      <c r="W18" t="s">
-        <v>83</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="1"/>
-        <v>2301</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="1">
-        <v>2401</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -2647,402 +2617,531 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19">
+        <v>50</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>64</v>
+      </c>
+      <c r="W19">
         <v>1002</v>
       </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19" t="s">
-        <v>62</v>
-      </c>
-      <c r="V19">
-        <v>1002</v>
-      </c>
-      <c r="W19" t="s">
-        <v>51</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="1"/>
-        <v>2401</v>
+      <c r="X19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>2301</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
+        <v>2401</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1002</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20">
+        <v>1002</v>
+      </c>
+      <c r="X20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1">
         <v>2402</v>
       </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>1001</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21">
         <v>1002</v>
       </c>
-      <c r="W20" t="s">
-        <v>87</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="1"/>
+      <c r="X21" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
         <v>2402</v>
       </c>
-      <c r="Y20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="6">
-        <v>2902</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" t="s">
-        <v>58</v>
-      </c>
-      <c r="M21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1004</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>70</v>
-      </c>
-      <c r="V21">
-        <v>1002</v>
-      </c>
-      <c r="W21" t="s">
-        <v>51</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="1"/>
-        <v>2902</v>
+      <c r="Z21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22">
-        <v>3001</v>
+      <c r="A22" s="6">
+        <v>2901</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22">
-        <v>100</v>
-      </c>
-      <c r="Q22">
+        <v>39</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>92</v>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22">
+        <v>1002</v>
+      </c>
+      <c r="X22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>2901</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23">
-        <v>9001</v>
+    <row r="23" spans="1:25">
+      <c r="A23" s="6">
+        <v>2902</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>40</v>
-      </c>
-      <c r="O23">
-        <v>100</v>
-      </c>
-      <c r="Q23">
+        <v>39</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" t="s">
-        <v>94</v>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23">
+        <v>1002</v>
+      </c>
+      <c r="X23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>2902</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:26">
       <c r="A24">
-        <v>9002</v>
+        <v>3001</v>
       </c>
       <c r="B24" t="s">
         <v>95</v>
       </c>
       <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>9001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>9002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>4</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
         <v>38</v>
       </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" t="s">
         <v>40</v>
       </c>
-      <c r="O24">
+      <c r="O26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26">
         <v>100</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>94</v>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -2546,7 +2546,7 @@
         <v>82</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>4</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="107">
   <si>
     <t>//Remark</t>
   </si>
@@ -178,6 +178,15 @@
     <t>Deal damage according to burning level.</t>
   </si>
   <si>
+    <t>Chronal Shift</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>SupportSkill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -193,9 +202,6 @@
     <t>Line</t>
   </si>
   <si>
-    <t>Help</t>
-  </si>
-  <si>
     <t>RES</t>
   </si>
   <si>
@@ -208,9 +214,6 @@
     <t>0;0</t>
   </si>
   <si>
-    <t>SupportSkill</t>
-  </si>
-  <si>
     <t>Holy Thunder</t>
   </si>
   <si>
@@ -283,6 +286,12 @@
     <t>Self Heal for 20% HP.</t>
   </si>
   <si>
+    <t>Fish Strike</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
     <t>Rush Hour</t>
   </si>
   <si>
@@ -301,6 +310,12 @@
     <t>Super Worker</t>
   </si>
   <si>
+    <t>Self Hurt Strike</t>
+  </si>
+  <si>
+    <t>COSTHP</t>
+  </si>
+  <si>
     <t>Tadpole Strike</t>
   </si>
   <si>
@@ -308,6 +323,9 @@
   </si>
   <si>
     <t>Attack a enemy.</t>
+  </si>
+  <si>
+    <t>Overcook</t>
   </si>
   <si>
     <t>Slap</t>
@@ -1356,12 +1374,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1613,7 +1631,7 @@
         <v>1001</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y23" si="0">A4</f>
+        <f>A4</f>
         <v>1001</v>
       </c>
       <c r="Z4" t="s">
@@ -1688,7 +1706,7 @@
         <v>46</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
+        <f>A5</f>
         <v>1101</v>
       </c>
       <c r="Z5" t="s">
@@ -1760,7 +1778,7 @@
         <v>52</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
+        <f>A6</f>
         <v>1102</v>
       </c>
       <c r="Z6" t="s">
@@ -1769,7 +1787,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="4">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -1778,55 +1796,52 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
         <v>55</v>
       </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
       <c r="M7" t="s">
         <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1006</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
         <v>56</v>
-      </c>
-      <c r="P7">
-        <v>100</v>
-      </c>
-      <c r="Q7">
-        <v>-3</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>2001</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7" t="s">
-        <v>45</v>
       </c>
       <c r="W7">
         <v>1001</v>
@@ -1835,19 +1850,19 @@
         <v>52</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
-        <v>1202</v>
+        <f>A7</f>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="5">
-        <v>1301</v>
+      <c r="A8" s="4">
+        <v>1202</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1859,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
@@ -1871,16 +1886,19 @@
         <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
         <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P8">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>-3</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1889,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
         <v>45</v>
@@ -1904,52 +1922,52 @@
         <v>52</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
-        <v>1301</v>
+        <f t="shared" ref="Y8:Y26" si="0">A8</f>
+        <v>1202</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="5">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>61</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1957,14 +1975,14 @@
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" t="s">
-        <v>63</v>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="W9">
         <v>1001</v>
@@ -1974,24 +1992,24 @@
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="1">
-        <v>1401</v>
+      <c r="A10" s="5">
+        <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -2000,25 +2018,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2026,14 +2044,14 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
+      <c r="T10" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" t="s">
+        <v>65</v>
       </c>
       <c r="V10" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="W10">
         <v>1001</v>
@@ -2043,51 +2061,51 @@
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>1401</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>67</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2096,43 +2114,43 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="W11">
         <v>1001</v>
       </c>
       <c r="X11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1">
         <v>1402</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="6">
-        <v>1901</v>
-      </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2141,13 +2159,13 @@
         <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
         <v>39</v>
@@ -2164,41 +2182,38 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12" t="s">
-        <v>70</v>
-      </c>
-      <c r="U12" t="s">
-        <v>63</v>
+      <c r="T12">
+        <v>3001</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="W12">
         <v>1001</v>
       </c>
       <c r="X12" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="6">
         <v>1901</v>
       </c>
-      <c r="Z12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="6">
-        <v>1902</v>
-      </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2213,13 +2228,13 @@
         <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
         <v>39</v>
@@ -2231,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s">
+        <v>65</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13">
         <v>1001</v>
@@ -2253,21 +2268,24 @@
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>1902</v>
+        <v>1901</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="6">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="D14">
-        <v>4</v>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2285,7 +2303,7 @@
         <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -2300,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S14">
         <v>3</v>
@@ -2312,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14">
         <v>1001</v>
@@ -2322,24 +2340,24 @@
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="6">
         <v>1903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="2">
-        <v>2001</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="D15">
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -2351,31 +2369,28 @@
         <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s">
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P15">
-        <v>100</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2384,55 +2399,55 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="W15">
-        <v>1002</v>
+        <v>1001</v>
+      </c>
+      <c r="X15" t="s">
+        <v>52</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>2001</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>77</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="3">
-        <v>2101</v>
+      <c r="A16" s="2">
+        <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s">
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" t="s">
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -2440,6 +2455,9 @@
       <c r="P16">
         <v>100</v>
       </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
       <c r="R16">
         <v>0</v>
       </c>
@@ -2453,31 +2471,28 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W16">
         <v>1002</v>
       </c>
-      <c r="X16" t="s">
-        <v>79</v>
-      </c>
       <c r="Y16">
         <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="3">
         <v>2101</v>
       </c>
-      <c r="Z16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="3">
-        <v>2102</v>
-      </c>
       <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2489,70 +2504,73 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M17" t="s">
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>3002</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="W17">
         <v>1002</v>
       </c>
       <c r="X17" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
-        <v>2102</v>
+        <v>2101</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="4">
-        <v>2201</v>
+      <c r="A18" s="3">
+        <v>2102</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="D18">
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -2564,10 +2582,10 @@
         <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M18" t="s">
         <v>39</v>
@@ -2581,20 +2599,20 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
-        <v>83</v>
-      </c>
-      <c r="S18" t="s">
-        <v>84</v>
+      <c r="R18">
+        <v>1002</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>3002</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="W18">
         <v>1002</v>
@@ -2604,24 +2622,24 @@
       </c>
       <c r="Y18">
         <f t="shared" si="0"/>
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="4">
         <v>2201</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="5">
-        <v>2301</v>
-      </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -2633,31 +2651,28 @@
         <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="P19">
-        <v>50</v>
-      </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" t="s">
+        <v>85</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2666,34 +2681,31 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="W19">
         <v>1002</v>
       </c>
       <c r="X19" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="Y19">
         <f t="shared" si="0"/>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="5">
         <v>2301</v>
       </c>
-      <c r="Z19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>2401</v>
-      </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2711,19 +2723,22 @@
         <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2732,28 +2747,31 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1002</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="W20">
         <v>1002</v>
       </c>
       <c r="X20" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="Y20">
         <f t="shared" si="0"/>
-        <v>2401</v>
+        <v>2301</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="1">
-        <v>2402</v>
+    <row r="21" spans="1:25">
+      <c r="A21" s="5">
+        <v>2302</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
@@ -2762,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2777,22 +2795,22 @@
         <v>37</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
         <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2801,43 +2819,37 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1001</v>
+        <v>3003</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="W21">
         <v>1002</v>
       </c>
       <c r="X21" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="Y21">
         <f t="shared" si="0"/>
-        <v>2402</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>92</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="6">
-        <v>2901</v>
+      <c r="A22" s="1">
+        <v>2401</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2855,7 +2867,7 @@
         <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M22" t="s">
         <v>39</v>
@@ -2870,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="W22">
         <v>1002</v>
@@ -2892,24 +2904,24 @@
       </c>
       <c r="Y22">
         <f t="shared" si="0"/>
-        <v>2901</v>
+        <v>2401</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="6">
-        <v>2902</v>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1">
+        <v>2402</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2924,10 +2936,10 @@
         <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N23" t="s">
         <v>39</v>
@@ -2939,46 +2951,52 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="W23">
         <v>1002</v>
       </c>
       <c r="X23" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="Y23">
         <f t="shared" si="0"/>
-        <v>2902</v>
+        <v>2402</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24">
-        <v>3001</v>
+    <row r="24" spans="1:25">
+      <c r="A24" s="6">
+        <v>2901</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2990,28 +3008,28 @@
         <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M24" t="s">
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3020,27 +3038,34 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z24" t="s">
+        <v>72</v>
+      </c>
+      <c r="W24">
+        <v>1002</v>
+      </c>
+      <c r="X24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="6">
+        <v>2902</v>
+      </c>
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
-        <v>9001</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3055,25 +3080,25 @@
         <v>39</v>
       </c>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -3082,21 +3107,31 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
+        <v>72</v>
+      </c>
+      <c r="W25">
+        <v>1002</v>
+      </c>
+      <c r="X25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="6">
+        <v>2903</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
-        <v>9002</v>
-      </c>
-      <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
       <c r="F26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -3111,19 +3146,19 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O26" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="P26">
         <v>100</v>
@@ -3141,7 +3176,252 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="W26">
+        <v>1002</v>
+      </c>
+      <c r="X26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>3001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27"/>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28">
+        <v>3101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28"/>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>4001</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29">
+        <v>9001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30">
+        <v>9002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="115">
   <si>
     <t>//Remark</t>
   </si>
@@ -335,6 +335,30 @@
   </si>
   <si>
     <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Anxious Nodule</t>
+  </si>
+  <si>
+    <t>Anxious Fire</t>
+  </si>
+  <si>
+    <t>Anxious Water</t>
+  </si>
+  <si>
+    <t>Anxious Gravity</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Cruelty</t>
+  </si>
+  <si>
+    <t>Emotional Damage</t>
+  </si>
+  <si>
+    <t>Summon Darkness</t>
   </si>
 </sst>
 </file>
@@ -1374,12 +1398,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V28" sqref="V28"/>
+      <selection pane="topRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2735,7 +2759,7 @@
         <v>87</v>
       </c>
       <c r="P20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q20">
         <v>-1</v>
@@ -3196,7 +3220,6 @@
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="C27"/>
       <c r="F27">
         <v>3</v>
       </c>
@@ -3256,7 +3279,6 @@
       <c r="B28" t="s">
         <v>103</v>
       </c>
-      <c r="C28"/>
       <c r="F28">
         <v>4</v>
       </c>
@@ -3376,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3421,6 +3443,478 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31">
+        <v>9101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32">
+        <v>9102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="R32">
+        <v>4001</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33">
+        <v>9103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>3003</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34">
+        <v>9104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>2001</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35">
+        <v>9201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>18</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35">
+        <v>100</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36">
+        <v>9202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36">
+        <v>100</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37">
+        <v>9301</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37">
+        <v>100</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38">
+        <v>9901</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16930" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="116">
   <si>
     <t>//Remark</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>1;1</t>
+  </si>
+  <si>
+    <t>Provoke</t>
   </si>
   <si>
     <t>Self Heal</t>
@@ -1398,12 +1401,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P20" sqref="P20"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2718,15 +2721,15 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="5">
-        <v>2301</v>
+    <row r="20" spans="1:25">
+      <c r="A20" s="4">
+        <v>2202</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2753,22 +2756,19 @@
         <v>55</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O20" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="P20">
-        <v>30</v>
-      </c>
-      <c r="Q20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2783,31 +2783,27 @@
         <v>1002</v>
       </c>
       <c r="X20" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="0"/>
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="5">
         <v>2301</v>
       </c>
-      <c r="Z20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="5">
-        <v>2302</v>
-      </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2819,22 +2815,25 @@
         <v>37</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N21" t="s">
         <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P21">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2843,40 +2842,43 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="W21">
         <v>1002</v>
       </c>
       <c r="X21" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="0"/>
-        <v>2302</v>
+        <f t="shared" ref="Y21:Y27" si="1">A21</f>
+        <v>2301</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" s="1">
-        <v>2401</v>
+      <c r="A22" s="5">
+        <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -2888,22 +2890,22 @@
         <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M22" t="s">
         <v>39</v>
       </c>
       <c r="N22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2912,13 +2914,13 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1002</v>
+        <v>3003</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="W22">
         <v>1002</v>
@@ -2927,13 +2929,13 @@
         <v>52</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
         <v>2401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="1">
-        <v>2402</v>
       </c>
       <c r="B23" t="s">
         <v>93</v>
@@ -2945,7 +2947,7 @@
         <v>4</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -2981,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="s">
         <v>56</v>
@@ -2993,34 +2995,28 @@
         <v>1002</v>
       </c>
       <c r="X23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="1"/>
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1">
+        <v>2402</v>
+      </c>
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>2402</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="6">
-        <v>2901</v>
-      </c>
-      <c r="B24" t="s">
-        <v>96</v>
-      </c>
       <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3050,43 +3046,49 @@
         <v>0</v>
       </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>1001</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="W24">
         <v>1002</v>
       </c>
       <c r="X24" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="0"/>
-        <v>2901</v>
+        <f t="shared" si="1"/>
+        <v>2402</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="6">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B25" t="s">
         <v>97</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -3107,7 +3109,7 @@
         <v>55</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N25" t="s">
         <v>39</v>
@@ -3119,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -3140,25 +3142,25 @@
         <v>52</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="0"/>
-        <v>2902</v>
+        <f t="shared" si="1"/>
+        <v>2901</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="6">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
       </c>
-      <c r="E26">
-        <v>99</v>
+      <c r="C26">
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3170,28 +3172,28 @@
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="P26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3209,19 +3211,22 @@
         <v>52</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="6">
         <v>2903</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27">
-        <v>3001</v>
-      </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E27">
+        <v>99</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3248,7 +3253,7 @@
         <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3266,21 +3271,28 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27">
+        <v>1002</v>
+      </c>
+      <c r="X27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="1"/>
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>3001</v>
+      </c>
+      <c r="B28" t="s">
         <v>101</v>
       </c>
-      <c r="Z27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28">
-        <v>3101</v>
-      </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
       <c r="F28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3304,19 +3316,19 @@
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="O28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R28">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3325,21 +3337,21 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29">
-        <v>9001</v>
+        <v>3101</v>
       </c>
       <c r="B29" t="s">
         <v>104</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="F29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3354,28 +3366,28 @@
         <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -3384,21 +3396,21 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3422,7 +3434,7 @@
         <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
@@ -3443,12 +3455,12 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31">
-        <v>9101</v>
+        <v>9002</v>
       </c>
       <c r="B31" t="s">
         <v>107</v>
@@ -3457,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3481,7 +3493,7 @@
         <v>38</v>
       </c>
       <c r="N31" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
@@ -3502,12 +3514,12 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32">
-        <v>9102</v>
+        <v>9101</v>
       </c>
       <c r="B32" t="s">
         <v>108</v>
@@ -3516,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -3525,13 +3537,13 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>37</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L32" t="s">
         <v>38</v>
@@ -3540,7 +3552,7 @@
         <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
@@ -3549,10 +3561,10 @@
         <v>100</v>
       </c>
       <c r="R32">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -3561,12 +3573,12 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33">
-        <v>9103</v>
+        <v>9102</v>
       </c>
       <c r="B33" t="s">
         <v>109</v>
@@ -3575,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -3584,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>37</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s">
         <v>38</v>
@@ -3608,24 +3620,24 @@
         <v>100</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="B34" t="s">
         <v>110</v>
@@ -3634,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -3661,7 +3673,7 @@
         <v>40</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -3673,18 +3685,18 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>2001</v>
+        <v>3003</v>
       </c>
       <c r="U34">
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35">
-        <v>9201</v>
+        <v>9104</v>
       </c>
       <c r="B35" t="s">
         <v>111</v>
@@ -3693,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -3720,7 +3732,7 @@
         <v>40</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -3732,18 +3744,18 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="B36" t="s">
         <v>112</v>
@@ -3752,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -3776,7 +3788,7 @@
         <v>38</v>
       </c>
       <c r="N36" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="O36" t="s">
         <v>41</v>
@@ -3797,12 +3809,12 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37">
-        <v>9301</v>
+        <v>9202</v>
       </c>
       <c r="B37" t="s">
         <v>113</v>
@@ -3835,7 +3847,7 @@
         <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="O37" t="s">
         <v>41</v>
@@ -3856,12 +3868,12 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38">
-        <v>9901</v>
+        <v>9301</v>
       </c>
       <c r="B38" t="s">
         <v>114</v>
@@ -3870,10 +3882,10 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -3885,37 +3897,96 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39">
+        <v>9901</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" t="s">
         <v>55</v>
       </c>
-      <c r="L38" t="s">
-        <v>39</v>
-      </c>
-      <c r="M38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O38" t="s">
-        <v>39</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38" t="s">
-        <v>105</v>
+      <c r="L39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1403,10 +1403,10 @@
   <sheetPr/>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+      <selection pane="topRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1403,10 +1403,10 @@
   <sheetPr/>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F36" sqref="F36"/>
+      <selection pane="topRight" activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3980,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>9001</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="V39" t="s">
         <v>106</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="131">
   <si>
     <t>//Remark</t>
   </si>
@@ -145,7 +145,7 @@
     <t>NormalAttack</t>
   </si>
   <si>
-    <t>Use elemental ball to attack single foe.</t>
+    <t>Normal attack,deal damage to single foe.</t>
   </si>
   <si>
     <t>Fire Ball</t>
@@ -187,6 +187,9 @@
     <t>SupportSkill</t>
   </si>
   <si>
+    <t>Dodge next attack.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -196,6 +199,10 @@
     <t>ATKMOV</t>
   </si>
   <si>
+    <t>Magic attack that reduce movement.
+Deal damage according to difference of movement between source and target.</t>
+  </si>
+  <si>
     <t>Stream</t>
   </si>
   <si>
@@ -205,7 +212,10 @@
     <t>RES</t>
   </si>
   <si>
-    <t>Clear</t>
+    <t>Magic attack that can heal plants in the range.</t>
+  </si>
+  <si>
+    <t>Time Mending</t>
   </si>
   <si>
     <t>5002;6002</t>
@@ -214,18 +224,27 @@
     <t>0;0</t>
   </si>
   <si>
-    <t>Holy Thunder</t>
+    <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
   </si>
   <si>
     <t>Water</t>
   </si>
   <si>
+    <t>Magic attack that can be transmitted damage by water tile.</t>
+  </si>
+  <si>
     <t>Teleport</t>
   </si>
   <si>
     <t>imgIconSkill_1302</t>
   </si>
   <si>
+    <t>Change one character or plant position.</t>
+  </si>
+  <si>
     <t>Time Expand</t>
   </si>
   <si>
@@ -241,18 +260,22 @@
     <t>Infinity</t>
   </si>
   <si>
+    <t>Gain 3 Infinity.
+Infinity can enlarge next X skills' radius by 1 unit.</t>
+  </si>
+  <si>
     <t>Final Chant</t>
   </si>
   <si>
+    <t>Increase skill range and AP but can't get Movement when turn starts.</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
     <t>Physical</t>
   </si>
   <si>
-    <t>Use weapon to strike a foe.</t>
-  </si>
-  <si>
     <t>Wind Chop</t>
   </si>
   <si>
@@ -265,6 +288,9 @@
     <t>Overtime Work</t>
   </si>
   <si>
+    <t>Gain extra AP every turn but gain burning as well.</t>
+  </si>
+  <si>
     <t>Curse</t>
   </si>
   <si>
@@ -274,9 +300,15 @@
     <t>1;1</t>
   </si>
   <si>
+    <t>The target will receive Fragile every time lost HP.</t>
+  </si>
+  <si>
     <t>Provoke</t>
   </si>
   <si>
+    <t>Attract enemies' attack in 2 turns.</t>
+  </si>
+  <si>
     <t>Self Heal</t>
   </si>
   <si>
@@ -286,7 +318,7 @@
     <t>imgIconSkill_2201</t>
   </si>
   <si>
-    <t>Self Heal for 20% HP.</t>
+    <t>Heal one character according to HP.</t>
   </si>
   <si>
     <t>Fish Strike</t>
@@ -295,9 +327,15 @@
     <t>DEF</t>
   </si>
   <si>
+    <t>Deal damage according to DEF, next strike will recover HP according to damage.</t>
+  </si>
+  <si>
     <t>Rush Hour</t>
   </si>
   <si>
+    <t>Gain 3 Movement.</t>
+  </si>
+  <si>
     <t>Inspire</t>
   </si>
   <si>
@@ -310,13 +348,22 @@
     <t>Final Guard</t>
   </si>
   <si>
+    <t>HP won't become 0.</t>
+  </si>
+  <si>
     <t>Super Worker</t>
   </si>
   <si>
-    <t>Self Hurt Strike</t>
+    <t>Increase ATK,DEF,RES,max Movement by 1.</t>
+  </si>
+  <si>
+    <t>Finish Work</t>
   </si>
   <si>
     <t>COSTHP</t>
+  </si>
+  <si>
+    <t>Cost HP to deal damage, the damage will be equal to lost HP.</t>
   </si>
   <si>
     <t>Tadpole Strike</t>
@@ -1025,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1099,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1403,10 +1453,10 @@
   <sheetPr/>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U39" sqref="U39"/>
+      <selection pane="topRight" activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1428,7 +1478,7 @@
     <col min="23" max="23" width="11.5454545454545" customWidth="1"/>
     <col min="24" max="24" width="20.1818181818182" customWidth="1"/>
     <col min="25" max="25" width="14.1818181818182" customWidth="1"/>
-    <col min="26" max="26" width="42.2727272727273" customWidth="1"/>
+    <col min="26" max="26" width="48.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1812,7 +1862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7" s="4">
         <v>1201</v>
       </c>
@@ -1880,13 +1930,16 @@
         <f>A7</f>
         <v>1201</v>
       </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" ht="42" spans="1:26">
       <c r="A8" s="4">
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1904,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
@@ -1919,7 +1972,7 @@
         <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -1949,16 +2002,19 @@
         <v>52</v>
       </c>
       <c r="Y8">
-        <f t="shared" ref="Y8:Y26" si="0">A8</f>
+        <f>A8</f>
         <v>1202</v>
       </c>
+      <c r="Z8" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9" s="5">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1976,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
@@ -1991,7 +2047,7 @@
         <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9">
         <v>200</v>
@@ -2018,16 +2074,19 @@
         <v>52</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Y8:Y26" si="0">A9</f>
         <v>1301</v>
       </c>
+      <c r="Z9" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10" s="5">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2072,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V10" t="s">
         <v>56</v>
@@ -2090,13 +2149,16 @@
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
+      <c r="Z10" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2114,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
@@ -2159,13 +2221,16 @@
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
+      <c r="Z11" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2222,11 +2287,14 @@
         <v>1001</v>
       </c>
       <c r="X12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
         <v>1402</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2234,7 +2302,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2279,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="V13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W13">
         <v>1001</v>
@@ -2298,15 +2366,15 @@
         <v>1901</v>
       </c>
       <c r="Z13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" ht="42" spans="1:26">
       <c r="A14" s="6">
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2357,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W14">
         <v>1001</v>
@@ -2369,13 +2437,16 @@
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
+      <c r="Z14" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15" s="6">
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2426,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W15">
         <v>1001</v>
@@ -2437,6 +2508,9 @@
       <c r="Y15">
         <f t="shared" si="0"/>
         <v>1903</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2444,7 +2518,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2474,7 +2548,7 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -2508,7 +2582,7 @@
         <v>2001</v>
       </c>
       <c r="Z16" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -2516,7 +2590,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2534,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
         <v>38</v>
@@ -2546,7 +2620,7 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
@@ -2573,22 +2647,22 @@
         <v>1002</v>
       </c>
       <c r="X17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="Z17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18" s="3">
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2651,13 +2725,16 @@
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
+      <c r="Z18" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19" s="4">
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2696,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="S19" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2720,13 +2797,16 @@
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
+      <c r="Z19" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20" s="4">
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2787,6 +2867,9 @@
       </c>
       <c r="Y20">
         <v>2202</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2794,7 +2877,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2827,7 +2910,7 @@
         <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P21">
         <v>30</v>
@@ -2854,22 +2937,22 @@
         <v>1002</v>
       </c>
       <c r="X21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Y21">
         <f t="shared" ref="Y21:Y27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="Z21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22" s="5">
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2902,7 +2985,7 @@
         <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="P22">
         <v>100</v>
@@ -2932,13 +3015,16 @@
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
+      <c r="Z22" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3000,6 +3086,9 @@
       <c r="Y23">
         <f t="shared" si="1"/>
         <v>2401</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -3007,7 +3096,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3064,22 +3153,22 @@
         <v>1002</v>
       </c>
       <c r="X24" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="Y24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="Z24" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26">
       <c r="A25" s="6">
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3133,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W25">
         <v>1002</v>
@@ -3145,13 +3234,16 @@
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
+      <c r="Z25" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26" s="6">
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3202,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W26">
         <v>1002</v>
@@ -3214,13 +3306,16 @@
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
+      <c r="Z26" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27" s="6">
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3253,7 +3348,7 @@
         <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3271,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="W27">
         <v>1002</v>
@@ -3282,6 +3377,9 @@
       <c r="Y27">
         <f t="shared" si="1"/>
         <v>2903</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3289,7 +3387,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -3337,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="Z28" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3348,7 +3446,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3396,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3404,7 +3502,7 @@
         <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3434,7 +3532,7 @@
         <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
@@ -3455,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3463,7 +3561,7 @@
         <v>9002</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3514,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3522,7 +3620,7 @@
         <v>9101</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3552,7 +3650,7 @@
         <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
@@ -3573,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3581,7 +3679,7 @@
         <v>9102</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3632,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3640,7 +3738,7 @@
         <v>9103</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3691,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3699,7 +3797,7 @@
         <v>9104</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3732,7 +3830,7 @@
         <v>40</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -3750,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3758,7 +3856,7 @@
         <v>9201</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3809,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3817,7 +3915,7 @@
         <v>9202</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3847,7 +3945,7 @@
         <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="O37" t="s">
         <v>41</v>
@@ -3868,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3876,7 +3974,7 @@
         <v>9301</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3927,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3935,7 +4033,7 @@
         <v>9901</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3986,7 +4084,7 @@
         <v>1098</v>
       </c>
       <c r="V39" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16930" windowHeight="11480"/>
+    <workbookView windowWidth="16750" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="134">
   <si>
     <t>//Remark</t>
   </si>
@@ -187,6 +187,9 @@
     <t>SupportSkill</t>
   </si>
   <si>
+    <t>imgIconSkill_ChronalShift</t>
+  </si>
+  <si>
     <t>Dodge next attack.</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>ATKMOV</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Gravity</t>
   </si>
   <si>
     <t>Magic attack that reduce movement.
@@ -309,22 +315,25 @@
     <t>Attract enemies' attack in 2 turns.</t>
   </si>
   <si>
-    <t>Self Heal</t>
+    <t>Take a Nap</t>
   </si>
   <si>
     <t>MAXHP</t>
   </si>
   <si>
-    <t>imgIconSkill_2201</t>
+    <t>imgIconSkill_Rest</t>
   </si>
   <si>
     <t>Heal one character according to HP.</t>
   </si>
   <si>
-    <t>Fish Strike</t>
+    <t>Fish Drat</t>
   </si>
   <si>
     <t>DEF</t>
+  </si>
+  <si>
+    <t>imgIconSkill_FishDrat</t>
   </si>
   <si>
     <t>Deal damage according to DEF, next strike will recover HP according to damage.</t>
@@ -1072,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1107,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1453,10 +1465,10 @@
   <sheetPr/>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1476,7 +1488,7 @@
     <col min="21" max="21" width="16.7272727272727" customWidth="1"/>
     <col min="22" max="22" width="20.5454545454545" customWidth="1"/>
     <col min="23" max="23" width="11.5454545454545" customWidth="1"/>
-    <col min="24" max="24" width="20.1818181818182" customWidth="1"/>
+    <col min="24" max="24" width="26.7272727272727" customWidth="1"/>
     <col min="25" max="25" width="14.1818181818182" customWidth="1"/>
     <col min="26" max="26" width="48.0909090909091" customWidth="1"/>
   </cols>
@@ -1923,15 +1935,15 @@
       <c r="W7">
         <v>1001</v>
       </c>
-      <c r="X7" t="s">
-        <v>52</v>
+      <c r="X7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="Y7">
         <f>A7</f>
         <v>1201</v>
       </c>
       <c r="Z7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:26">
@@ -1939,7 +1951,7 @@
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1957,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
         <v>38</v>
@@ -1972,7 +1984,7 @@
         <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -1999,14 +2011,14 @@
         <v>1001</v>
       </c>
       <c r="X8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="Y8">
         <f>A8</f>
         <v>1202</v>
       </c>
-      <c r="Z8" s="9" t="s">
-        <v>61</v>
+      <c r="Z8" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -2014,7 +2026,7 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2032,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
@@ -2047,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P9">
         <v>200</v>
@@ -2078,7 +2090,7 @@
         <v>1301</v>
       </c>
       <c r="Z9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -2086,7 +2098,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2131,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s">
         <v>56</v>
@@ -2150,7 +2162,7 @@
         <v>1302</v>
       </c>
       <c r="Z10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2158,7 +2170,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2176,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
@@ -2222,7 +2234,7 @@
         <v>1401</v>
       </c>
       <c r="Z11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2230,7 +2242,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2287,14 +2299,14 @@
         <v>1001</v>
       </c>
       <c r="X12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
       <c r="Z12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2302,7 +2314,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2347,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W13">
         <v>1001</v>
@@ -2366,7 +2378,7 @@
         <v>1901</v>
       </c>
       <c r="Z13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:26">
@@ -2374,7 +2386,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2425,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W14">
         <v>1001</v>
@@ -2437,8 +2449,8 @@
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
-      <c r="Z14" s="9" t="s">
-        <v>81</v>
+      <c r="Z14" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2446,7 +2458,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2497,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W15">
         <v>1001</v>
@@ -2510,7 +2522,7 @@
         <v>1903</v>
       </c>
       <c r="Z15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2518,7 +2530,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2548,7 +2560,7 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -2590,7 +2602,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2608,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
         <v>38</v>
@@ -2620,7 +2632,7 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
@@ -2647,14 +2659,14 @@
         <v>1002</v>
       </c>
       <c r="X17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="Z17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2662,7 +2674,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2726,7 +2738,7 @@
         <v>2102</v>
       </c>
       <c r="Z18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2734,7 +2746,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2773,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2798,7 +2810,7 @@
         <v>2201</v>
       </c>
       <c r="Z19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2806,7 +2818,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2869,7 +2881,7 @@
         <v>2202</v>
       </c>
       <c r="Z20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2877,7 +2889,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2910,7 +2922,7 @@
         <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P21">
         <v>30</v>
@@ -2937,14 +2949,14 @@
         <v>1002</v>
       </c>
       <c r="X21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y21">
         <f t="shared" ref="Y21:Y27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="Z21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2952,7 +2964,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2985,7 +2997,7 @@
         <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P22">
         <v>100</v>
@@ -3009,14 +3021,14 @@
         <v>1002</v>
       </c>
       <c r="X22" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="Y22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="Z22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -3024,7 +3036,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3088,7 +3100,7 @@
         <v>2401</v>
       </c>
       <c r="Z23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -3096,7 +3108,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3153,14 +3165,14 @@
         <v>1002</v>
       </c>
       <c r="X24" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="Z24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -3168,7 +3180,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3222,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W25">
         <v>1002</v>
@@ -3235,7 +3247,7 @@
         <v>2901</v>
       </c>
       <c r="Z25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -3243,7 +3255,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3294,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W26">
         <v>1002</v>
@@ -3307,7 +3319,7 @@
         <v>2902</v>
       </c>
       <c r="Z26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3315,7 +3327,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3348,7 +3360,7 @@
         <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3366,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W27">
         <v>1002</v>
@@ -3379,7 +3391,7 @@
         <v>2903</v>
       </c>
       <c r="Z27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3387,7 +3399,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -3435,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3446,7 +3458,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3494,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3502,7 +3514,7 @@
         <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3532,7 +3544,7 @@
         <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
@@ -3553,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3561,7 +3573,7 @@
         <v>9002</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3612,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3620,7 +3632,7 @@
         <v>9101</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3650,7 +3662,7 @@
         <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
@@ -3671,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3679,7 +3691,7 @@
         <v>9102</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3730,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3738,7 +3750,7 @@
         <v>9103</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3789,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3797,7 +3809,7 @@
         <v>9104</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3830,7 +3842,7 @@
         <v>40</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P35">
         <v>100</v>
@@ -3848,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3856,7 +3868,7 @@
         <v>9201</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3907,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3915,7 +3927,7 @@
         <v>9202</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3945,7 +3957,7 @@
         <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O37" t="s">
         <v>41</v>
@@ -3966,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3974,7 +3986,7 @@
         <v>9301</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4025,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -4033,7 +4045,7 @@
         <v>9901</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4084,7 +4096,7 @@
         <v>1098</v>
       </c>
       <c r="V39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16750" windowHeight="11480"/>
+    <workbookView windowWidth="15640" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="136">
   <si>
     <t>//Remark</t>
   </si>
@@ -218,6 +218,9 @@
     <t>RES</t>
   </si>
   <si>
+    <t>imgIconSkill_Stream</t>
+  </si>
+  <si>
     <t>Magic attack that can heal plants in the range.</t>
   </si>
   <si>
@@ -237,6 +240,9 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Lightning</t>
   </si>
   <si>
     <t>Magic attack that can be transmitted damage by water tile.</t>
@@ -1468,7 +1474,7 @@
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2083,14 +2089,14 @@
         <v>1001</v>
       </c>
       <c r="X9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Y9">
         <f t="shared" ref="Y8:Y26" si="0">A9</f>
         <v>1301</v>
       </c>
       <c r="Z9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -2098,7 +2104,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2143,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s">
         <v>56</v>
@@ -2162,7 +2168,7 @@
         <v>1302</v>
       </c>
       <c r="Z10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2170,7 +2176,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2188,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
@@ -2227,14 +2233,14 @@
         <v>1001</v>
       </c>
       <c r="X11" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
       <c r="Z11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2242,7 +2248,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2299,14 +2305,14 @@
         <v>1001</v>
       </c>
       <c r="X12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
       <c r="Z12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2314,7 +2320,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2359,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W13">
         <v>1001</v>
@@ -2378,7 +2384,7 @@
         <v>1901</v>
       </c>
       <c r="Z13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:26">
@@ -2386,7 +2392,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2437,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W14">
         <v>1001</v>
@@ -2450,7 +2456,7 @@
         <v>1902</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2458,7 +2464,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2509,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W15">
         <v>1001</v>
@@ -2522,7 +2528,7 @@
         <v>1903</v>
       </c>
       <c r="Z15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2530,7 +2536,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2560,7 +2566,7 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -2602,7 +2608,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2632,7 +2638,7 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
@@ -2659,14 +2665,14 @@
         <v>1002</v>
       </c>
       <c r="X17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="Z17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2674,7 +2680,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2738,7 +2744,7 @@
         <v>2102</v>
       </c>
       <c r="Z18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2746,7 +2752,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2785,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2810,7 +2816,7 @@
         <v>2201</v>
       </c>
       <c r="Z19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2818,7 +2824,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2881,7 +2887,7 @@
         <v>2202</v>
       </c>
       <c r="Z20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2889,7 +2895,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2922,7 +2928,7 @@
         <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P21">
         <v>30</v>
@@ -2949,14 +2955,14 @@
         <v>1002</v>
       </c>
       <c r="X21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y21">
         <f t="shared" ref="Y21:Y27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="Z21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2964,7 +2970,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2997,7 +3003,7 @@
         <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P22">
         <v>100</v>
@@ -3021,14 +3027,14 @@
         <v>1002</v>
       </c>
       <c r="X22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="Z22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -3036,7 +3042,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3100,7 +3106,7 @@
         <v>2401</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -3108,7 +3114,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3165,14 +3171,14 @@
         <v>1002</v>
       </c>
       <c r="X24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="Z24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -3180,7 +3186,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3234,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W25">
         <v>1002</v>
@@ -3247,7 +3253,7 @@
         <v>2901</v>
       </c>
       <c r="Z25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -3255,7 +3261,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3306,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W26">
         <v>1002</v>
@@ -3319,7 +3325,7 @@
         <v>2902</v>
       </c>
       <c r="Z26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3327,7 +3333,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3360,7 +3366,7 @@
         <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3378,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="W27">
         <v>1002</v>
@@ -3391,7 +3397,7 @@
         <v>2903</v>
       </c>
       <c r="Z27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3399,7 +3405,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -3447,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Z28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3458,7 +3464,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3506,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3514,7 +3520,7 @@
         <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3544,7 +3550,7 @@
         <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
@@ -3565,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3573,7 +3579,7 @@
         <v>9002</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3624,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3632,7 +3638,7 @@
         <v>9101</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3662,7 +3668,7 @@
         <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
@@ -3683,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3691,7 +3697,7 @@
         <v>9102</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3742,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3750,7 +3756,7 @@
         <v>9103</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3801,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3809,7 +3815,7 @@
         <v>9104</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3860,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3868,7 +3874,7 @@
         <v>9201</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3919,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3927,7 +3933,7 @@
         <v>9202</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3957,7 +3963,7 @@
         <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O37" t="s">
         <v>41</v>
@@ -3978,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3986,7 +3992,7 @@
         <v>9301</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4037,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -4045,7 +4051,7 @@
         <v>9901</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4096,7 +4102,7 @@
         <v>1098</v>
       </c>
       <c r="V39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1471,10 +1471,10 @@
   <sheetPr/>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X11" sqref="X11"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15640" windowHeight="11480"/>
+    <workbookView windowWidth="16080" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1472,9 +1472,9 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1777,7 +1777,7 @@
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>4001</v>
@@ -1996,7 +1996,7 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16080" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="137">
   <si>
     <t>//Remark</t>
   </si>
@@ -154,7 +154,7 @@
     <t>DamageSkill</t>
   </si>
   <si>
-    <t>imgIconSkill_1101</t>
+    <t>imgIconSkill_FireBall</t>
   </si>
   <si>
     <t>Use fire ball to attack multiple foes.</t>
@@ -172,7 +172,7 @@
     <t>BURN</t>
   </si>
   <si>
-    <t>imgIconSkill_Default</t>
+    <t>imgIconSkill_Boom</t>
   </si>
   <si>
     <t>Deal damage according to burning level.</t>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>0;0</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Default</t>
   </si>
   <si>
     <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
@@ -1472,9 +1475,9 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2161,14 +2164,14 @@
         <v>1001</v>
       </c>
       <c r="X10" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
       <c r="Z10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2176,7 +2179,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
@@ -2233,14 +2236,14 @@
         <v>1001</v>
       </c>
       <c r="X11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
       <c r="Z11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -2248,7 +2251,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2305,14 +2308,14 @@
         <v>1001</v>
       </c>
       <c r="X12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
       <c r="Z12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -2320,7 +2323,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2365,26 +2368,26 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s">
         <v>71</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W13">
         <v>1001</v>
       </c>
       <c r="X13" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
       <c r="Z13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:26">
@@ -2392,7 +2395,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2443,20 +2446,20 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W14">
         <v>1001</v>
       </c>
       <c r="X14" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2464,7 +2467,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2515,20 +2518,20 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W15">
         <v>1001</v>
       </c>
       <c r="X15" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="Z15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2536,7 +2539,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2566,7 +2569,7 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -2608,7 +2611,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2638,7 +2641,7 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
@@ -2665,14 +2668,14 @@
         <v>1002</v>
       </c>
       <c r="X17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="Z17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2680,7 +2683,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2737,14 +2740,14 @@
         <v>1002</v>
       </c>
       <c r="X18" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
       <c r="Z18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2752,7 +2755,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2791,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2809,14 +2812,14 @@
         <v>1002</v>
       </c>
       <c r="X19" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
       <c r="Z19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2824,7 +2827,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2881,13 +2884,13 @@
         <v>1002</v>
       </c>
       <c r="X20" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y20">
         <v>2202</v>
       </c>
       <c r="Z20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2895,7 +2898,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2928,7 +2931,7 @@
         <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P21">
         <v>30</v>
@@ -2955,14 +2958,14 @@
         <v>1002</v>
       </c>
       <c r="X21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y21">
         <f t="shared" ref="Y21:Y27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="Z21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2970,7 +2973,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3003,7 +3006,7 @@
         <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P22">
         <v>100</v>
@@ -3027,14 +3030,14 @@
         <v>1002</v>
       </c>
       <c r="X22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="Z22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -3042,7 +3045,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3099,14 +3102,14 @@
         <v>1002</v>
       </c>
       <c r="X23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
       <c r="Z23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -3114,7 +3117,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3171,14 +3174,14 @@
         <v>1002</v>
       </c>
       <c r="X24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="Z24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -3186,7 +3189,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3240,20 +3243,20 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W25">
         <v>1002</v>
       </c>
       <c r="X25" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
       <c r="Z25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -3261,7 +3264,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3312,20 +3315,20 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W26">
         <v>1002</v>
       </c>
       <c r="X26" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
       <c r="Z26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3333,7 +3336,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3366,7 +3369,7 @@
         <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3384,20 +3387,20 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W27">
         <v>1002</v>
       </c>
       <c r="X27" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Y27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
       <c r="Z27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3405,7 +3408,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -3453,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3464,7 +3467,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3520,7 +3523,7 @@
         <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3550,7 +3553,7 @@
         <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
@@ -3571,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3579,7 +3582,7 @@
         <v>9002</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3630,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3638,7 +3641,7 @@
         <v>9101</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3668,7 +3671,7 @@
         <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
@@ -3689,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3697,7 +3700,7 @@
         <v>9102</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3748,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3756,7 +3759,7 @@
         <v>9103</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3807,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3815,7 +3818,7 @@
         <v>9104</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3866,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3874,7 +3877,7 @@
         <v>9201</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3925,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3933,7 +3936,7 @@
         <v>9202</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3963,7 +3966,7 @@
         <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O37" t="s">
         <v>41</v>
@@ -3984,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3992,7 +3995,7 @@
         <v>9301</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4043,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -4051,7 +4054,7 @@
         <v>9901</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4102,7 +4105,7 @@
         <v>1098</v>
       </c>
       <c r="V39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="138">
   <si>
     <t>//Remark</t>
   </si>
@@ -209,7 +209,7 @@
 Deal damage according to difference of movement between source and target.</t>
   </si>
   <si>
-    <t>Stream</t>
+    <t>Fourtain</t>
   </si>
   <si>
     <t>Line</t>
@@ -218,13 +218,13 @@
     <t>RES</t>
   </si>
   <si>
-    <t>imgIconSkill_Stream</t>
+    <t>imgIconSkill_Fourtain</t>
   </si>
   <si>
     <t>Magic attack that can heal plants in the range.</t>
   </si>
   <si>
-    <t>Time Mending</t>
+    <t>Clean</t>
   </si>
   <si>
     <t>5002;6002</t>
@@ -233,40 +233,43 @@
     <t>0;0</t>
   </si>
   <si>
+    <t>imgIconSkill_Clean</t>
+  </si>
+  <si>
+    <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Lightning</t>
+  </si>
+  <si>
+    <t>Magic attack that can be transmitted damage by water tile.</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Teleport</t>
+  </si>
+  <si>
+    <t>Change one character or plant position.</t>
+  </si>
+  <si>
+    <t>Time Expand</t>
+  </si>
+  <si>
+    <t>5001;6001</t>
+  </si>
+  <si>
+    <t>UltimateSkill</t>
+  </si>
+  <si>
     <t>imgIconSkill_Default</t>
-  </si>
-  <si>
-    <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
-  </si>
-  <si>
-    <t>Lightning Bolt</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>imgIconSkill_Lightning</t>
-  </si>
-  <si>
-    <t>Magic attack that can be transmitted damage by water tile.</t>
-  </si>
-  <si>
-    <t>Teleport</t>
-  </si>
-  <si>
-    <t>imgIconSkill_1302</t>
-  </si>
-  <si>
-    <t>Change one character or plant position.</t>
-  </si>
-  <si>
-    <t>Time Expand</t>
-  </si>
-  <si>
-    <t>5001;6001</t>
-  </si>
-  <si>
-    <t>UltimateSkill</t>
   </si>
   <si>
     <t>Double the level of debuff for foe or buff for allies</t>
@@ -1474,10 +1477,10 @@
   <sheetPr/>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X5" sqref="X5"/>
+      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1999,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2380,14 +2383,14 @@
         <v>1001</v>
       </c>
       <c r="X13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
       <c r="Z13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:26">
@@ -2395,7 +2398,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2452,14 +2455,14 @@
         <v>1001</v>
       </c>
       <c r="X14" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -2467,7 +2470,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2524,14 +2527,14 @@
         <v>1001</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="Z15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -2539,7 +2542,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2569,7 +2572,7 @@
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -2611,7 +2614,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2641,7 +2644,7 @@
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O17" t="s">
         <v>41</v>
@@ -2668,14 +2671,14 @@
         <v>1002</v>
       </c>
       <c r="X17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="Z17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -2683,7 +2686,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2740,14 +2743,14 @@
         <v>1002</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
       <c r="Z18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -2755,7 +2758,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2794,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2812,14 +2815,14 @@
         <v>1002</v>
       </c>
       <c r="X19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
       <c r="Z19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2827,7 +2830,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2884,13 +2887,13 @@
         <v>1002</v>
       </c>
       <c r="X20" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y20">
         <v>2202</v>
       </c>
       <c r="Z20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2898,7 +2901,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2931,7 +2934,7 @@
         <v>50</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P21">
         <v>30</v>
@@ -2958,14 +2961,14 @@
         <v>1002</v>
       </c>
       <c r="X21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y21">
         <f t="shared" ref="Y21:Y27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2973,7 +2976,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3006,7 +3009,7 @@
         <v>50</v>
       </c>
       <c r="O22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P22">
         <v>100</v>
@@ -3030,14 +3033,14 @@
         <v>1002</v>
       </c>
       <c r="X22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="Z22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -3045,7 +3048,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3102,14 +3105,14 @@
         <v>1002</v>
       </c>
       <c r="X23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
       <c r="Z23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -3117,7 +3120,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3174,14 +3177,14 @@
         <v>1002</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="Z24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -3189,7 +3192,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3249,14 +3252,14 @@
         <v>1002</v>
       </c>
       <c r="X25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
       <c r="Z25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -3264,7 +3267,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3321,14 +3324,14 @@
         <v>1002</v>
       </c>
       <c r="X26" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
       <c r="Z26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -3336,7 +3339,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3369,7 +3372,7 @@
         <v>50</v>
       </c>
       <c r="O27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P27">
         <v>100</v>
@@ -3393,14 +3396,14 @@
         <v>1002</v>
       </c>
       <c r="X27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Y27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
       <c r="Z27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -3408,7 +3411,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -3456,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -3467,7 +3470,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3515,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -3523,7 +3526,7 @@
         <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3553,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="N30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" t="s">
         <v>41</v>
@@ -3574,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -3582,7 +3585,7 @@
         <v>9002</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3633,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -3641,7 +3644,7 @@
         <v>9101</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3671,7 +3674,7 @@
         <v>38</v>
       </c>
       <c r="N32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O32" t="s">
         <v>41</v>
@@ -3692,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -3700,7 +3703,7 @@
         <v>9102</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3751,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3759,7 +3762,7 @@
         <v>9103</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3810,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -3818,7 +3821,7 @@
         <v>9104</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3869,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -3877,7 +3880,7 @@
         <v>9201</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3928,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3936,7 +3939,7 @@
         <v>9202</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3966,7 +3969,7 @@
         <v>38</v>
       </c>
       <c r="N37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O37" t="s">
         <v>41</v>
@@ -3987,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3995,7 +3998,7 @@
         <v>9301</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4046,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -4054,7 +4057,7 @@
         <v>9901</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4105,7 +4108,7 @@
         <v>1098</v>
       </c>
       <c r="V39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="139">
   <si>
     <t>//Remark</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>costHP</t>
+  </si>
+  <si>
+    <t>costMemory</t>
   </si>
   <si>
     <t>range</t>
@@ -1475,12 +1478,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1488,21 +1491,22 @@
     <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="7.36363636363636" customWidth="1"/>
     <col min="4" max="5" width="8.09090909090909" customWidth="1"/>
-    <col min="6" max="6" width="5.81818181818182" customWidth="1"/>
-    <col min="7" max="7" width="11.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="15.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="6.81818181818182" customWidth="1"/>
-    <col min="10" max="14" width="20.8181818181818" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="11.7272727272727" customWidth="1"/>
-    <col min="17" max="19" width="14.9090909090909" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="16.7272727272727" customWidth="1"/>
-    <col min="22" max="22" width="20.5454545454545" customWidth="1"/>
-    <col min="23" max="23" width="11.5454545454545" customWidth="1"/>
-    <col min="24" max="24" width="26.7272727272727" customWidth="1"/>
-    <col min="25" max="25" width="14.1818181818182" customWidth="1"/>
-    <col min="26" max="26" width="48.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="11.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="5.81818181818182" customWidth="1"/>
+    <col min="8" max="8" width="11.6363636363636" customWidth="1"/>
+    <col min="9" max="9" width="15.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="6.81818181818182" customWidth="1"/>
+    <col min="11" max="15" width="20.8181818181818" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="17" max="17" width="11.7272727272727" customWidth="1"/>
+    <col min="18" max="20" width="14.9090909090909" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="16.7272727272727" customWidth="1"/>
+    <col min="23" max="23" width="20.5454545454545" customWidth="1"/>
+    <col min="24" max="24" width="11.5454545454545" customWidth="1"/>
+    <col min="25" max="25" width="26.7272727272727" customWidth="1"/>
+    <col min="26" max="26" width="14.1818181818182" customWidth="1"/>
+    <col min="27" max="27" width="48.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1510,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1526,7 +1530,7 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1541,7 +1545,7 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -1550,7 +1554,7 @@
       <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -1562,25 +1566,25 @@
       <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y2" t="s">
@@ -1589,111 +1593,114 @@
       <c r="Z2" t="s">
         <v>26</v>
       </c>
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="V3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Y3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="s">
         <v>28</v>
       </c>
+      <c r="AA3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
@@ -1702,7 +1709,7 @@
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
         <v>40</v>
@@ -1710,12 +1717,12 @@
       <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
@@ -1725,141 +1732,141 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4">
         <v>1001</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f>A4</f>
         <v>1001</v>
       </c>
-      <c r="Z4" t="s">
-        <v>43</v>
+      <c r="AA4" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
         <v>41</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4001</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5">
         <v>1001</v>
       </c>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5">
+      <c r="Y5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5">
         <f>A5</f>
         <v>1101</v>
       </c>
-      <c r="Z5" t="s">
-        <v>47</v>
+      <c r="AA5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" s="3">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
         <v>51</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6">
         <v>250</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
         <v>0</v>
       </c>
@@ -1869,216 +1876,216 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6">
         <v>1001</v>
       </c>
-      <c r="X6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6">
+      <c r="Y6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6">
         <f>A6</f>
         <v>1102</v>
       </c>
-      <c r="Z6" t="s">
-        <v>53</v>
+      <c r="AA6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" s="4">
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>1006</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7">
         <v>1001</v>
       </c>
-      <c r="X7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y7">
+      <c r="Y7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7">
         <f>A7</f>
         <v>1201</v>
       </c>
-      <c r="Z7" t="s">
-        <v>58</v>
+      <c r="AA7" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:26">
+    <row r="8" ht="42" spans="1:27">
       <c r="A8" s="4">
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
         <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
         <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8">
         <v>100</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-1</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>2001</v>
       </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8">
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8">
         <v>1001</v>
       </c>
-      <c r="X8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y8">
+      <c r="Y8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8">
         <f>A8</f>
         <v>1202</v>
       </c>
-      <c r="Z8" s="10" t="s">
-        <v>63</v>
+      <c r="AA8" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="5">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="L9" t="s">
         <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9">
         <v>200</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
         <v>0</v>
       </c>
@@ -2088,125 +2095,125 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9">
         <v>1001</v>
       </c>
-      <c r="X9" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" ref="Y8:Y26" si="0">A9</f>
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ref="Z8:Z26" si="0">A9</f>
         <v>1301</v>
       </c>
-      <c r="Z9" t="s">
-        <v>68</v>
+      <c r="AA9" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="5">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>70</v>
+      <c r="T10">
+        <v>0</v>
       </c>
       <c r="U10" t="s">
         <v>71</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
-      </c>
-      <c r="W10">
+        <v>72</v>
+      </c>
+      <c r="W10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10">
         <v>1001</v>
       </c>
-      <c r="X10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y10">
+      <c r="Y10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="Z10" t="s">
-        <v>73</v>
+      <c r="AA10" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>39</v>
@@ -2217,12 +2224,12 @@
       <c r="O11" t="s">
         <v>41</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11">
         <v>100</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
@@ -2232,359 +2239,359 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11">
         <v>1001</v>
       </c>
-      <c r="X11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y11">
+      <c r="Y11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
-      <c r="Z11" t="s">
-        <v>77</v>
+      <c r="AA11" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>3001</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W12">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12">
         <v>1001</v>
       </c>
-      <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12">
+      <c r="Y12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
-      <c r="Z12" t="s">
-        <v>80</v>
+      <c r="AA12" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="6">
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13" t="s">
-        <v>82</v>
+      <c r="T13">
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
-      </c>
-      <c r="W13">
+        <v>72</v>
+      </c>
+      <c r="W13" t="s">
+        <v>84</v>
+      </c>
+      <c r="X13">
         <v>1001</v>
       </c>
-      <c r="X13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y13">
+      <c r="Y13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
-      <c r="Z13" t="s">
-        <v>85</v>
+      <c r="AA13" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="14" ht="42" spans="1:26">
+    <row r="14" ht="42" spans="1:27">
       <c r="A14" s="6">
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="R14">
+        <v>40</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>1003</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14" t="s">
-        <v>83</v>
-      </c>
-      <c r="W14">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14">
         <v>1001</v>
       </c>
-      <c r="X14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y14">
+      <c r="Y14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
-      <c r="Z14" s="10" t="s">
-        <v>87</v>
+      <c r="AA14" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="6">
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="R15">
+        <v>40</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>1005</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15" t="s">
-        <v>83</v>
-      </c>
-      <c r="W15">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>84</v>
+      </c>
+      <c r="X15">
         <v>1001</v>
       </c>
-      <c r="X15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15">
+      <c r="Y15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
-      <c r="Z15" t="s">
-        <v>89</v>
+      <c r="AA15" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16">
+        <v>92</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16">
         <v>100</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2595,66 +2602,66 @@
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16" t="s">
-        <v>42</v>
-      </c>
-      <c r="W16">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16">
         <v>1002</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="Z16" t="s">
-        <v>43</v>
+      <c r="AA16" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" s="3">
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
         <v>39</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17">
         <v>100</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
         <v>0</v>
       </c>
@@ -2664,119 +2671,119 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17" t="s">
-        <v>45</v>
-      </c>
-      <c r="W17">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X17">
         <v>1002</v>
       </c>
-      <c r="X17" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y17">
+      <c r="Y17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="Z17" t="s">
-        <v>94</v>
+      <c r="AA17" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" s="3">
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="R18">
+        <v>40</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>1002</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3002</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3</v>
       </c>
-      <c r="V18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18">
+      <c r="W18" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18">
         <v>1002</v>
       </c>
-      <c r="X18" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y18">
+      <c r="Y18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
-      <c r="Z18" t="s">
-        <v>96</v>
+      <c r="AA18" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="A19" s="4">
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>38</v>
@@ -2785,166 +2792,166 @@
         <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>99</v>
       </c>
-      <c r="T19">
-        <v>0</v>
+      <c r="T19" t="s">
+        <v>100</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>46</v>
+      </c>
+      <c r="X19">
         <v>1002</v>
       </c>
-      <c r="X19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y19">
+      <c r="Y19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
-      <c r="Z19" t="s">
-        <v>100</v>
+      <c r="AA19" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:27">
       <c r="A20" s="4">
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="R20">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>1008</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20" t="s">
-        <v>56</v>
-      </c>
-      <c r="W20">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20">
         <v>1002</v>
       </c>
-      <c r="X20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20">
+      <c r="Y20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z20">
         <v>2202</v>
       </c>
-      <c r="Z20" t="s">
-        <v>102</v>
+      <c r="AA20" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:27">
       <c r="A21" s="5">
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
-      </c>
-      <c r="P21">
+        <v>51</v>
+      </c>
+      <c r="P21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21">
         <v>30</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-1</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
       <c r="S21">
         <v>0</v>
       </c>
@@ -2954,47 +2961,47 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21" t="s">
-        <v>56</v>
-      </c>
-      <c r="W21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21">
         <v>1002</v>
       </c>
-      <c r="X21" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" ref="Y21:Y27" si="1">A21</f>
+      <c r="Y21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ref="Z21:Z27" si="1">A21</f>
         <v>2301</v>
       </c>
-      <c r="Z21" t="s">
-        <v>106</v>
+      <c r="AA21" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:27">
       <c r="A22" s="5">
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>37</v>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
         <v>38</v>
@@ -3003,196 +3010,199 @@
         <v>39</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
-      </c>
-      <c r="P22">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22">
         <v>100</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>3003</v>
       </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
-        <v>45</v>
-      </c>
-      <c r="W22">
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22">
         <v>1002</v>
       </c>
-      <c r="X22" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y22">
+      <c r="Y22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
-      <c r="Z22" t="s">
-        <v>110</v>
+      <c r="AA22" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+        <v>40</v>
+      </c>
+      <c r="P23" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23">
         <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>1002</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3</v>
       </c>
-      <c r="V23" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23">
+      <c r="W23" t="s">
+        <v>57</v>
+      </c>
+      <c r="X23">
         <v>1002</v>
       </c>
-      <c r="X23" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y23">
+      <c r="Y23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
-      <c r="Z23" t="s">
-        <v>112</v>
+      <c r="AA23" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>37</v>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+        <v>40</v>
+      </c>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24">
         <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>1001</v>
       </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
-        <v>56</v>
-      </c>
-      <c r="W24">
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>57</v>
+      </c>
+      <c r="X24">
         <v>1002</v>
       </c>
-      <c r="X24" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y24">
+      <c r="Y24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
-      <c r="Z24" t="s">
-        <v>115</v>
+      <c r="AA24" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:27">
       <c r="A25" s="6">
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3200,164 +3210,162 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="R25">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>1001</v>
       </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25" t="s">
-        <v>83</v>
-      </c>
-      <c r="W25">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25">
         <v>1002</v>
       </c>
-      <c r="X25" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y25">
+      <c r="Y25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
-      <c r="Z25" t="s">
-        <v>117</v>
+      <c r="AA25" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:27">
       <c r="A26" s="6">
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26">
+        <v>119</v>
+      </c>
+      <c r="C26"/>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1004</v>
+      </c>
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" t="s">
-        <v>55</v>
-      </c>
-      <c r="N26" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1004</v>
-      </c>
-      <c r="S26">
-        <v>3</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26" t="s">
-        <v>83</v>
-      </c>
-      <c r="W26">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>84</v>
+      </c>
+      <c r="X26">
         <v>1002</v>
       </c>
-      <c r="X26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y26">
+      <c r="Y26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
-      <c r="Z26" t="s">
-        <v>119</v>
+      <c r="AA26" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:27">
       <c r="A27" s="6">
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>99</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>37</v>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>38</v>
@@ -3366,20 +3374,20 @@
         <v>39</v>
       </c>
       <c r="M27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O27" t="s">
-        <v>121</v>
-      </c>
-      <c r="P27">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27">
         <v>100</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
         <v>0</v>
       </c>
@@ -3389,44 +3397,44 @@
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27" t="s">
-        <v>83</v>
-      </c>
-      <c r="W27">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27">
         <v>1002</v>
       </c>
-      <c r="X27" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y27">
+      <c r="Y27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
-      <c r="Z27" t="s">
-        <v>122</v>
+      <c r="AA27" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28">
+        <v>124</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>37</v>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>38</v>
@@ -3435,20 +3443,20 @@
         <v>39</v>
       </c>
       <c r="M28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P28">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28">
         <v>100</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
         <v>0</v>
       </c>
@@ -3458,34 +3466,34 @@
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z28" t="s">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
         <v>125</v>
       </c>
+      <c r="AA28" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29">
+        <v>127</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>37</v>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
@@ -3494,79 +3502,79 @@
         <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="R29">
+        <v>40</v>
+      </c>
+      <c r="P29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>4001</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29" t="s">
-        <v>124</v>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>37</v>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
         <v>39</v>
       </c>
-      <c r="L30" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" t="s">
-        <v>38</v>
-      </c>
       <c r="N30" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
-      </c>
-      <c r="P30">
+        <v>92</v>
+      </c>
+      <c r="P30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30">
         <v>100</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
       <c r="S30">
         <v>0</v>
       </c>
@@ -3576,56 +3584,56 @@
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30" t="s">
-        <v>128</v>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>9002</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>37</v>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" t="s">
         <v>39</v>
       </c>
-      <c r="L31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" t="s">
-        <v>38</v>
-      </c>
       <c r="N31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O31" t="s">
         <v>41</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31">
         <v>100</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
       <c r="S31">
         <v>0</v>
       </c>
@@ -3635,56 +3643,56 @@
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31" t="s">
-        <v>128</v>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>9101</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>37</v>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" t="s">
         <v>39</v>
       </c>
-      <c r="L32" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" t="s">
-        <v>38</v>
-      </c>
       <c r="N32" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32">
+        <v>92</v>
+      </c>
+      <c r="P32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32">
         <v>100</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
       <c r="S32">
         <v>0</v>
       </c>
@@ -3694,233 +3702,233 @@
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="V32" t="s">
-        <v>128</v>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>9102</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>37</v>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O33" t="s">
         <v>41</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33">
         <v>100</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>4001</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="V33" t="s">
-        <v>128</v>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>9103</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>37</v>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" t="s">
         <v>39</v>
       </c>
-      <c r="L34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" t="s">
-        <v>38</v>
-      </c>
       <c r="N34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O34" t="s">
         <v>41</v>
       </c>
-      <c r="P34">
+      <c r="P34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34">
         <v>100</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>3003</v>
       </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34" t="s">
-        <v>128</v>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>9104</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>37</v>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" t="s">
         <v>39</v>
       </c>
-      <c r="L35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" t="s">
-        <v>38</v>
-      </c>
       <c r="N35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
-      </c>
-      <c r="P35">
+        <v>41</v>
+      </c>
+      <c r="P35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q35">
         <v>100</v>
       </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>2001</v>
       </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35" t="s">
-        <v>128</v>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>9201</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>30</v>
       </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>37</v>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" t="s">
         <v>39</v>
       </c>
-      <c r="L36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M36" t="s">
-        <v>38</v>
-      </c>
       <c r="N36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O36" t="s">
         <v>41</v>
       </c>
-      <c r="P36">
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36">
         <v>100</v>
       </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
       <c r="S36">
         <v>0</v>
       </c>
@@ -3930,56 +3938,56 @@
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36" t="s">
-        <v>128</v>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>9202</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>37</v>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" t="s">
         <v>39</v>
       </c>
-      <c r="L37" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" t="s">
-        <v>38</v>
-      </c>
       <c r="N37" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="O37" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37">
+        <v>92</v>
+      </c>
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37">
         <v>100</v>
       </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
       <c r="S37">
         <v>0</v>
       </c>
@@ -3989,56 +3997,56 @@
       <c r="U37">
         <v>0</v>
       </c>
-      <c r="V37" t="s">
-        <v>128</v>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>9301</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>37</v>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" t="s">
         <v>39</v>
       </c>
-      <c r="L38" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" t="s">
-        <v>38</v>
-      </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O38" t="s">
-        <v>41</v>
-      </c>
-      <c r="P38">
+        <v>51</v>
+      </c>
+      <c r="P38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38">
         <v>100</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
       <c r="S38">
         <v>0</v>
       </c>
@@ -4048,67 +4056,70 @@
       <c r="U38">
         <v>0</v>
       </c>
-      <c r="V38" t="s">
-        <v>128</v>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>9901</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O39" t="s">
-        <v>39</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="R39">
+        <v>40</v>
+      </c>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39">
         <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>9001</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>1098</v>
       </c>
-      <c r="V39" t="s">
-        <v>128</v>
+      <c r="W39" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="142">
   <si>
     <t>//Remark</t>
   </si>
@@ -272,20 +272,26 @@
     <t>UltimateSkill</t>
   </si>
   <si>
-    <t>imgIconSkill_Default</t>
+    <t>imgIconSkill_TimeExpand</t>
   </si>
   <si>
     <t>Double the level of debuff for foe or buff for allies</t>
   </si>
   <si>
     <t>Infinity</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Infinity</t>
   </si>
   <si>
     <t>Gain 3 Infinity.
 Infinity can enlarge next X skills' radius by 1 unit.</t>
   </si>
   <si>
-    <t>Final Chant</t>
+    <t>Rabbit Chant</t>
+  </si>
+  <si>
+    <t>imgIconSkill_MagicCircle</t>
   </si>
   <si>
     <t>Increase skill range and AP but can't get Movement when turn starts.</t>
@@ -307,6 +313,9 @@
   </si>
   <si>
     <t>Overtime Work</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Default</t>
   </si>
   <si>
     <t>Gain extra AP every turn but gain burning as well.</t>
@@ -1480,10 +1489,10 @@
   <sheetPr/>
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2465,14 +2474,14 @@
         <v>1001</v>
       </c>
       <c r="Y14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -2480,7 +2489,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2537,14 +2546,14 @@
         <v>1001</v>
       </c>
       <c r="Y15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="AA15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2552,7 +2561,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2582,7 +2591,7 @@
         <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
@@ -2624,7 +2633,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2654,7 +2663,7 @@
         <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s">
         <v>42</v>
@@ -2681,14 +2690,14 @@
         <v>1002</v>
       </c>
       <c r="Y17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="AA17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -2696,7 +2705,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2753,14 +2762,14 @@
         <v>1002</v>
       </c>
       <c r="Y18" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Z18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
       <c r="AA18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2768,7 +2777,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2807,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2825,14 +2834,14 @@
         <v>1002</v>
       </c>
       <c r="Y19" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Z19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
       <c r="AA19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2840,7 +2849,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2897,13 +2906,13 @@
         <v>1002</v>
       </c>
       <c r="Y20" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Z20">
         <v>2202</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2911,7 +2920,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2944,7 +2953,7 @@
         <v>51</v>
       </c>
       <c r="P21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q21">
         <v>30</v>
@@ -2971,14 +2980,14 @@
         <v>1002</v>
       </c>
       <c r="Y21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Z21">
         <f t="shared" ref="Z21:Z27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="AA21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2986,7 +2995,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3019,7 +3028,7 @@
         <v>51</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3043,14 +3052,14 @@
         <v>1002</v>
       </c>
       <c r="Y22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="AA22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -3058,7 +3067,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3115,14 +3124,14 @@
         <v>1002</v>
       </c>
       <c r="Y23" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
       <c r="AA23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -3130,7 +3139,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3187,14 +3196,14 @@
         <v>1002</v>
       </c>
       <c r="Y24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="AA24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -3202,7 +3211,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3262,14 +3271,14 @@
         <v>1002</v>
       </c>
       <c r="Y25" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Z25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
       <c r="AA25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3277,9 +3286,8 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26"/>
+        <v>122</v>
+      </c>
       <c r="F26">
         <v>10</v>
       </c>
@@ -3335,14 +3343,14 @@
         <v>1002</v>
       </c>
       <c r="Y26" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Z26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
       <c r="AA26" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3350,7 +3358,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3383,7 +3391,7 @@
         <v>51</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -3407,14 +3415,14 @@
         <v>1002</v>
       </c>
       <c r="Y27" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="Z27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
       <c r="AA27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3422,7 +3430,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3470,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3481,7 +3489,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -3529,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3537,7 +3545,7 @@
         <v>9001</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3567,7 +3575,7 @@
         <v>39</v>
       </c>
       <c r="O30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s">
         <v>42</v>
@@ -3588,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3596,7 +3604,7 @@
         <v>9002</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3647,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3655,7 +3663,7 @@
         <v>9101</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3685,7 +3693,7 @@
         <v>39</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
         <v>42</v>
@@ -3706,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3714,7 +3722,7 @@
         <v>9102</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3765,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3773,7 +3781,7 @@
         <v>9103</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3824,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3832,7 +3840,7 @@
         <v>9104</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3883,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3891,7 +3899,7 @@
         <v>9201</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3942,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3950,7 +3958,7 @@
         <v>9202</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3980,7 +3988,7 @@
         <v>39</v>
       </c>
       <c r="O37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P37" t="s">
         <v>42</v>
@@ -4001,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4009,7 +4017,7 @@
         <v>9301</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4060,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4068,7 +4076,7 @@
         <v>9901</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4119,7 +4127,7 @@
         <v>1098</v>
       </c>
       <c r="W39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="143">
   <si>
     <t>//Remark</t>
   </si>
@@ -408,7 +408,10 @@
     <t>Attack a enemy.</t>
   </si>
   <si>
-    <t>Overcook</t>
+    <t>Cook Human On Time</t>
+  </si>
+  <si>
+    <t>Hero Rabbit</t>
   </si>
   <si>
     <t>Slap</t>
@@ -1487,12 +1490,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3492,7 +3497,7 @@
         <v>130</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3542,19 +3547,16 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30">
-        <v>9001</v>
+        <v>3201</v>
       </c>
       <c r="B30" t="s">
         <v>131</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -3569,25 +3571,25 @@
         <v>40</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O30" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3596,21 +3598,21 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3634,7 +3636,7 @@
         <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s">
         <v>42</v>
@@ -3655,12 +3657,12 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>9101</v>
+        <v>9002</v>
       </c>
       <c r="B32" t="s">
         <v>134</v>
@@ -3669,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3693,7 +3695,7 @@
         <v>39</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
         <v>42</v>
@@ -3714,12 +3716,12 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
-        <v>9102</v>
+        <v>9101</v>
       </c>
       <c r="B33" t="s">
         <v>135</v>
@@ -3728,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
         <v>39</v>
@@ -3752,7 +3754,7 @@
         <v>39</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="P33" t="s">
         <v>42</v>
@@ -3761,10 +3763,10 @@
         <v>100</v>
       </c>
       <c r="S33">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3773,12 +3775,12 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
-        <v>9103</v>
+        <v>9102</v>
       </c>
       <c r="B34" t="s">
         <v>136</v>
@@ -3787,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -3796,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M34" t="s">
         <v>39</v>
@@ -3820,24 +3822,24 @@
         <v>100</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
@@ -3846,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Q35">
         <v>100</v>
@@ -3885,18 +3887,18 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>2001</v>
+        <v>3003</v>
       </c>
       <c r="V35">
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>9201</v>
+        <v>9104</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
@@ -3905,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -3932,7 +3934,7 @@
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="Q36">
         <v>100</v>
@@ -3944,18 +3946,18 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="B37" t="s">
         <v>139</v>
@@ -3964,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3988,7 +3990,7 @@
         <v>39</v>
       </c>
       <c r="O37" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="P37" t="s">
         <v>42</v>
@@ -4009,12 +4011,12 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>9301</v>
+        <v>9202</v>
       </c>
       <c r="B38" t="s">
         <v>140</v>
@@ -4047,7 +4049,7 @@
         <v>39</v>
       </c>
       <c r="O38" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
@@ -4068,12 +4070,12 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
-        <v>9901</v>
+        <v>9301</v>
       </c>
       <c r="B39" t="s">
         <v>141</v>
@@ -4082,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -4097,37 +4099,96 @@
         <v>38</v>
       </c>
       <c r="L39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39">
+        <v>100</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>9901</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
         <v>56</v>
       </c>
-      <c r="M39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
         <v>9001</v>
       </c>
-      <c r="V39">
+      <c r="V40">
         <v>1098</v>
       </c>
-      <c r="W39" t="s">
-        <v>132</v>
+      <c r="W40" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="144">
   <si>
     <t>//Remark</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Hero Rabbit</t>
+  </si>
+  <si>
+    <t>Unstable Rabbit</t>
   </si>
   <si>
     <t>Slap</t>
@@ -1490,14 +1493,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3603,31 +3606,28 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
-        <v>9001</v>
+        <v>3301</v>
       </c>
       <c r="B31" t="s">
         <v>132</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" t="s">
         <v>39</v>
@@ -3636,7 +3636,7 @@
         <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
         <v>42</v>
@@ -3651,27 +3651,27 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>39</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
         <v>42</v>
@@ -3716,12 +3716,12 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
-        <v>9101</v>
+        <v>9002</v>
       </c>
       <c r="B33" t="s">
         <v>135</v>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>39</v>
       </c>
       <c r="O33" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
         <v>42</v>
@@ -3775,12 +3775,12 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
-        <v>9102</v>
+        <v>9101</v>
       </c>
       <c r="B34" t="s">
         <v>136</v>
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -3798,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M34" t="s">
         <v>39</v>
@@ -3813,7 +3813,7 @@
         <v>39</v>
       </c>
       <c r="O34" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="P34" t="s">
         <v>42</v>
@@ -3822,10 +3822,10 @@
         <v>100</v>
       </c>
       <c r="S34">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3834,12 +3834,12 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
-        <v>9103</v>
+        <v>9102</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -3857,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
         <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M35" t="s">
         <v>39</v>
@@ -3881,24 +3881,24 @@
         <v>100</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -3934,7 +3934,7 @@
         <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Q36">
         <v>100</v>
@@ -3946,18 +3946,18 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>2001</v>
+        <v>3003</v>
       </c>
       <c r="V36">
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
-        <v>9201</v>
+        <v>9104</v>
       </c>
       <c r="B37" t="s">
         <v>139</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="Q37">
         <v>100</v>
@@ -4005,18 +4005,18 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="B38" t="s">
         <v>140</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>39</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
@@ -4070,12 +4070,12 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
-        <v>9301</v>
+        <v>9202</v>
       </c>
       <c r="B39" t="s">
         <v>141</v>
@@ -4108,7 +4108,7 @@
         <v>39</v>
       </c>
       <c r="O39" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="P39" t="s">
         <v>42</v>
@@ -4129,12 +4129,12 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
-        <v>9901</v>
+        <v>9301</v>
       </c>
       <c r="B40" t="s">
         <v>142</v>
@@ -4143,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -4158,37 +4158,96 @@
         <v>38</v>
       </c>
       <c r="L40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40">
+        <v>100</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>9901</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" t="s">
         <v>56</v>
       </c>
-      <c r="M40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N40" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" t="s">
-        <v>40</v>
-      </c>
-      <c r="P40" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
+      <c r="M41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
         <v>9001</v>
       </c>
-      <c r="V40">
+      <c r="V41">
         <v>1098</v>
       </c>
-      <c r="W40" t="s">
-        <v>133</v>
+      <c r="W41" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15670" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="146">
   <si>
     <t>//Remark</t>
   </si>
@@ -411,10 +411,16 @@
     <t>Cook Human On Time</t>
   </si>
   <si>
+    <t>Unstable Rabbit</t>
+  </si>
+  <si>
+    <t>Random MilkTea</t>
+  </si>
+  <si>
     <t>Hero Rabbit</t>
   </si>
   <si>
-    <t>Unstable Rabbit</t>
+    <t>Void Rabbit</t>
   </si>
   <si>
     <t>Slap</t>
@@ -619,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +665,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,7 +999,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,16 +1023,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1029,89 +1041,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,6 +1146,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1493,14 +1508,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1586,10 +1601,10 @@
       <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -1598,7 +1613,7 @@
       <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="X2" s="5" t="s">
@@ -1669,10 +1684,10 @@
       <c r="R3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -1681,7 +1696,7 @@
       <c r="V3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="9" t="s">
         <v>36</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -1974,7 +1989,7 @@
       <c r="X7">
         <v>1001</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="10" t="s">
         <v>58</v>
       </c>
       <c r="Z7">
@@ -2056,7 +2071,7 @@
         <f>A8</f>
         <v>1202</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AA8" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2488,7 +2503,7 @@
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
-      <c r="AA14" s="10" t="s">
+      <c r="AA14" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3493,7 +3508,7 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29">
+      <c r="A29" s="7">
         <v>3101</v>
       </c>
       <c r="B29" t="s">
@@ -3549,17 +3564,17 @@
       </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30">
-        <v>3201</v>
+      <c r="A30" s="7">
+        <v>3102</v>
       </c>
       <c r="B30" t="s">
         <v>131</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -3568,31 +3583,31 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M30" t="s">
         <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S30">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3605,23 +3620,23 @@
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31">
-        <v>3301</v>
+      <c r="A31" s="7">
+        <v>3103</v>
       </c>
       <c r="B31" t="s">
         <v>132</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
@@ -3630,19 +3645,19 @@
         <v>39</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3651,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>9998</v>
+        <v>8001</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3662,19 +3677,16 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
-        <v>9001</v>
+        <v>3201</v>
       </c>
       <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -3689,25 +3701,25 @@
         <v>40</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3716,36 +3728,33 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33">
-        <v>9002</v>
+        <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M33" t="s">
         <v>39</v>
@@ -3769,27 +3778,27 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34">
-        <v>9101</v>
+        <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -3834,12 +3843,12 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35">
-        <v>9102</v>
+        <v>9002</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
@@ -3857,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M35" t="s">
         <v>39</v>
@@ -3881,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="S35">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -3893,12 +3902,12 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36">
-        <v>9103</v>
+        <v>9101</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
@@ -3907,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -3931,7 +3940,7 @@
         <v>39</v>
       </c>
       <c r="O36" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="P36" t="s">
         <v>42</v>
@@ -3946,18 +3955,18 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37">
-        <v>9104</v>
+        <v>9102</v>
       </c>
       <c r="B37" t="s">
         <v>139</v>
@@ -3975,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
         <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M37" t="s">
         <v>39</v>
@@ -3993,30 +4002,30 @@
         <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Q37">
         <v>100</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38">
-        <v>9201</v>
+        <v>9103</v>
       </c>
       <c r="B38" t="s">
         <v>140</v>
@@ -4025,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4064,18 +4073,18 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39">
-        <v>9202</v>
+        <v>9104</v>
       </c>
       <c r="B39" t="s">
         <v>141</v>
@@ -4084,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4108,10 +4117,10 @@
         <v>39</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="Q39">
         <v>100</v>
@@ -4123,18 +4132,18 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40">
-        <v>9301</v>
+        <v>9201</v>
       </c>
       <c r="B40" t="s">
         <v>142</v>
@@ -4143,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4167,7 +4176,7 @@
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
@@ -4188,12 +4197,12 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41">
-        <v>9901</v>
+        <v>9202</v>
       </c>
       <c r="B41" t="s">
         <v>143</v>
@@ -4202,10 +4211,10 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -4217,37 +4226,155 @@
         <v>38</v>
       </c>
       <c r="L41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41">
+        <v>100</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>9301</v>
+      </c>
+      <c r="B42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42">
+        <v>100</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>9901</v>
+      </c>
+      <c r="B43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" t="s">
         <v>56</v>
       </c>
-      <c r="M41" t="s">
-        <v>40</v>
-      </c>
-      <c r="N41" t="s">
-        <v>40</v>
-      </c>
-      <c r="O41" t="s">
-        <v>40</v>
-      </c>
-      <c r="P41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
+      <c r="M43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
         <v>9001</v>
       </c>
-      <c r="V41">
+      <c r="V43">
         <v>1098</v>
       </c>
-      <c r="W41" t="s">
-        <v>134</v>
+      <c r="W43" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15670" windowHeight="7770"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,12 +665,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +993,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,16 +1017,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1041,89 +1035,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,9 +1140,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1511,11 +1502,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1601,10 +1592,10 @@
       <c r="R2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -1613,7 +1604,7 @@
       <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="X2" s="5" t="s">
@@ -1684,10 +1675,10 @@
       <c r="R3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -1696,7 +1687,7 @@
       <c r="V3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="X3" s="5" t="s">
@@ -1989,7 +1980,7 @@
       <c r="X7">
         <v>1001</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="Z7">
@@ -2071,7 +2062,7 @@
         <f>A8</f>
         <v>1202</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA8" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2083,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -2117,6 +2108,9 @@
       </c>
       <c r="Q9">
         <v>200</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2155,7 +2149,7 @@
         <v>70</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -2227,7 +2221,7 @@
         <v>75</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -2261,6 +2255,9 @@
       </c>
       <c r="Q11">
         <v>100</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2299,7 +2296,7 @@
         <v>79</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2503,7 +2500,7 @@
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
-      <c r="AA14" s="11" t="s">
+      <c r="AA14" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3508,7 +3505,7 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="7">
+      <c r="A29" s="2">
         <v>3101</v>
       </c>
       <c r="B29" t="s">
@@ -3564,7 +3561,7 @@
       </c>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>3102</v>
       </c>
       <c r="B30" t="s">
@@ -3620,7 +3617,7 @@
       </c>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="7">
+      <c r="A31" s="2">
         <v>3103</v>
       </c>
       <c r="B31" t="s">
@@ -3769,7 +3766,7 @@
         <v>42</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S33">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1502,11 +1502,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1502,11 +1502,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3568,16 +3568,16 @@
         <v>131</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
         <v>76</v>
@@ -3586,7 +3586,7 @@
         <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N30" t="s">
         <v>40</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -423,13 +423,13 @@
     <t>Void Rabbit</t>
   </si>
   <si>
-    <t>Slap</t>
+    <t>Bite</t>
   </si>
   <si>
     <t>MonsterSkill</t>
   </si>
   <si>
-    <t>Anxiety</t>
+    <t>Write me!</t>
   </si>
   <si>
     <t>Anxious Nodule</t>
@@ -1506,7 +1506,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="147">
   <si>
     <t>//Remark</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>ATKDISD1</t>
   </si>
   <si>
     <t>imgIconSkill_Lightning</t>
@@ -1502,11 +1505,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2224,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -2251,13 +2254,13 @@
         <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="Q11">
         <v>100</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2278,14 +2281,14 @@
         <v>1001</v>
       </c>
       <c r="Y11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
       <c r="AA11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -2293,7 +2296,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2350,14 +2353,14 @@
         <v>1001</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
       <c r="AA12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -2365,7 +2368,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2410,26 +2413,26 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V13" t="s">
         <v>72</v>
       </c>
       <c r="W13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X13">
         <v>1001</v>
       </c>
       <c r="Y13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
       <c r="AA13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:27">
@@ -2437,7 +2440,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2488,20 +2491,20 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X14">
         <v>1001</v>
       </c>
       <c r="Y14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -2509,7 +2512,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2560,20 +2563,20 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X15">
         <v>1001</v>
       </c>
       <c r="Y15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="AA15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2581,7 +2584,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2611,7 +2614,7 @@
         <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" t="s">
         <v>42</v>
@@ -2653,7 +2656,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2683,7 +2686,7 @@
         <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s">
         <v>42</v>
@@ -2710,14 +2713,14 @@
         <v>1002</v>
       </c>
       <c r="Y17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="AA17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -2725,7 +2728,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2782,14 +2785,14 @@
         <v>1002</v>
       </c>
       <c r="Y18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
       <c r="AA18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2797,7 +2800,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2836,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2854,14 +2857,14 @@
         <v>1002</v>
       </c>
       <c r="Y19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2869,7 +2872,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2926,13 +2929,13 @@
         <v>1002</v>
       </c>
       <c r="Y20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z20">
         <v>2202</v>
       </c>
       <c r="AA20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2940,7 +2943,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2973,10 +2976,10 @@
         <v>51</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R21">
         <v>-1</v>
@@ -3000,14 +3003,14 @@
         <v>1002</v>
       </c>
       <c r="Y21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z21">
         <f t="shared" ref="Z21:Z27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="AA21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -3015,7 +3018,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3048,7 +3051,7 @@
         <v>51</v>
       </c>
       <c r="P22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3072,14 +3075,14 @@
         <v>1002</v>
       </c>
       <c r="Y22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="AA22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -3087,7 +3090,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3144,14 +3147,14 @@
         <v>1002</v>
       </c>
       <c r="Y23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
       <c r="AA23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -3159,7 +3162,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3216,14 +3219,14 @@
         <v>1002</v>
       </c>
       <c r="Y24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="AA24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -3231,7 +3234,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3285,20 +3288,20 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X25">
         <v>1002</v>
       </c>
       <c r="Y25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
       <c r="AA25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3306,7 +3309,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3357,20 +3360,20 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X26">
         <v>1002</v>
       </c>
       <c r="Y26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
       <c r="AA26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3378,7 +3381,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3411,7 +3414,7 @@
         <v>51</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -3429,20 +3432,20 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X27">
         <v>1002</v>
       </c>
       <c r="Y27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
       <c r="AA27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3450,7 +3453,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3498,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3509,7 +3512,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3557,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3565,7 +3568,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3613,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3621,7 +3624,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3669,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3677,7 +3680,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3725,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3733,7 +3736,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3781,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3789,7 +3792,7 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3819,7 +3822,7 @@
         <v>39</v>
       </c>
       <c r="O34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P34" t="s">
         <v>42</v>
@@ -3840,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3848,7 +3851,7 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3899,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3907,7 +3910,7 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3937,7 +3940,7 @@
         <v>39</v>
       </c>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P36" t="s">
         <v>42</v>
@@ -3958,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3966,7 +3969,7 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4017,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4025,7 +4028,7 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4076,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4084,7 +4087,7 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4135,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4143,7 +4146,7 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4194,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4202,7 +4205,7 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4232,7 +4235,7 @@
         <v>39</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P41" t="s">
         <v>42</v>
@@ -4253,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4261,7 +4264,7 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4312,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4320,7 +4323,7 @@
         <v>9901</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4371,7 +4374,7 @@
         <v>1098</v>
       </c>
       <c r="W43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1505,7 +1505,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2260,7 +2260,7 @@
         <v>100</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="150">
   <si>
     <t>//Remark</t>
   </si>
@@ -85,6 +85,9 @@
     <t>listSpecialDelta</t>
   </si>
   <si>
+    <t>tileEffectType</t>
+  </si>
+  <si>
     <t>activeSkillType</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>enum|SkillTileEffectType</t>
+  </si>
+  <si>
     <t>enum|ActiveSkillType</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
   </si>
   <si>
     <t>Fire Ball</t>
+  </si>
+  <si>
+    <t>Burn</t>
   </si>
   <si>
     <t>DamageSkill</t>
@@ -1502,14 +1511,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1528,11 +1537,12 @@
     <col min="18" max="20" width="14.9090909090909" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
     <col min="22" max="22" width="16.7272727272727" customWidth="1"/>
-    <col min="23" max="23" width="20.5454545454545" customWidth="1"/>
-    <col min="24" max="24" width="11.5454545454545" customWidth="1"/>
-    <col min="25" max="25" width="26.7272727272727" customWidth="1"/>
-    <col min="26" max="26" width="14.1818181818182" customWidth="1"/>
-    <col min="27" max="27" width="48.0909090909091" customWidth="1"/>
+    <col min="23" max="23" width="25.8181818181818" customWidth="1"/>
+    <col min="24" max="24" width="20.5454545454545" customWidth="1"/>
+    <col min="25" max="25" width="11.5454545454545" customWidth="1"/>
+    <col min="26" max="26" width="26.7272727272727" customWidth="1"/>
+    <col min="27" max="27" width="14.1818181818182" customWidth="1"/>
+    <col min="28" max="28" width="48.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1540,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1607,13 +1617,13 @@
       <c r="V2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Z2" t="s">
@@ -1622,96 +1632,102 @@
       <c r="AA2" t="s">
         <v>27</v>
       </c>
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z3" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
       </c>
       <c r="AA3" t="s">
         <v>29</v>
       </c>
+      <c r="AB3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1729,22 +1745,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -1762,25 +1778,28 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y4">
         <v>1001</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>A4</f>
         <v>1001</v>
       </c>
-      <c r="AA4" t="s">
-        <v>44</v>
+      <c r="AB4" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1798,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>100</v>
@@ -1834,28 +1853,31 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5">
+        <v>48</v>
+      </c>
+      <c r="X5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5">
         <v>1001</v>
       </c>
-      <c r="Y5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5">
+      <c r="Z5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5">
         <f>A5</f>
         <v>1101</v>
       </c>
-      <c r="AA5" t="s">
-        <v>48</v>
+      <c r="AB5" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="3">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1873,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q6">
         <v>250</v>
@@ -1906,28 +1928,31 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6">
         <v>1001</v>
       </c>
-      <c r="Y6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z6">
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6">
         <f>A6</f>
         <v>1102</v>
       </c>
-      <c r="AA6" t="s">
-        <v>54</v>
+      <c r="AB6" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="4">
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1945,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1978,28 +2003,31 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
-      </c>
-      <c r="X7">
+        <v>42</v>
+      </c>
+      <c r="X7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7">
         <v>1001</v>
       </c>
-      <c r="Y7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z7">
+      <c r="Z7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA7">
         <f>A7</f>
         <v>1201</v>
       </c>
-      <c r="AA7" t="s">
-        <v>59</v>
+      <c r="AB7" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:27">
+    <row r="8" ht="42" spans="1:28">
       <c r="A8" s="4">
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2017,22 +2045,22 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -2053,28 +2081,31 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8">
+        <v>42</v>
+      </c>
+      <c r="X8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8">
         <v>1001</v>
       </c>
-      <c r="Y8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z8">
+      <c r="Z8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA8">
         <f>A8</f>
         <v>1202</v>
       </c>
-      <c r="AA8" s="10" t="s">
-        <v>64</v>
+      <c r="AB8" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="5">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2092,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q9">
         <v>200</v>
@@ -2128,28 +2159,31 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>46</v>
-      </c>
-      <c r="X9">
+        <v>42</v>
+      </c>
+      <c r="X9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9">
         <v>1001</v>
       </c>
-      <c r="Y9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" ref="Z8:Z26" si="0">A9</f>
+      <c r="Z9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA8:AA26" si="0">A9</f>
         <v>1301</v>
       </c>
-      <c r="AA9" t="s">
-        <v>69</v>
+      <c r="AB9" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="5">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2167,22 +2201,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2194,34 +2228,37 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
-      </c>
-      <c r="X10">
+        <v>42</v>
+      </c>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10">
         <v>1001</v>
       </c>
-      <c r="Y10" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z10">
+      <c r="Z10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="AA10" t="s">
-        <v>74</v>
+      <c r="AB10" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2239,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -2275,28 +2312,31 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11">
+        <v>42</v>
+      </c>
+      <c r="X11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11">
         <v>1001</v>
       </c>
-      <c r="Y11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z11">
+      <c r="Z11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
-      <c r="AA11" t="s">
-        <v>79</v>
+      <c r="AB11" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2314,22 +2354,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2347,28 +2387,31 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X12">
+        <v>42</v>
+      </c>
+      <c r="X12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12">
         <v>1001</v>
       </c>
-      <c r="Y12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z12">
+      <c r="Z12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
-      <c r="AA12" t="s">
-        <v>82</v>
+      <c r="AB12" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="6">
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2386,22 +2429,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2413,34 +2456,37 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s">
-        <v>85</v>
-      </c>
-      <c r="X13">
+        <v>42</v>
+      </c>
+      <c r="X13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13">
         <v>1001</v>
       </c>
-      <c r="Y13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z13">
+      <c r="Z13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
-      <c r="AA13" t="s">
-        <v>87</v>
+      <c r="AB13" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="14" ht="42" spans="1:27">
+    <row r="14" ht="42" spans="1:28">
       <c r="A14" s="6">
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2458,22 +2504,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2491,28 +2537,31 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>85</v>
-      </c>
-      <c r="X14">
+        <v>42</v>
+      </c>
+      <c r="X14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y14">
         <v>1001</v>
       </c>
-      <c r="Y14" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z14">
+      <c r="Z14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>90</v>
+      <c r="AB14" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="6">
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2530,22 +2579,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2563,28 +2612,31 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>85</v>
-      </c>
-      <c r="X15">
+        <v>42</v>
+      </c>
+      <c r="X15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15">
         <v>1001</v>
       </c>
-      <c r="Y15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z15">
+      <c r="Z15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
-      <c r="AA15" t="s">
-        <v>93</v>
+      <c r="AB15" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2602,22 +2654,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>100</v>
@@ -2638,25 +2690,28 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>43</v>
-      </c>
-      <c r="X16">
+        <v>42</v>
+      </c>
+      <c r="X16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y16">
         <v>1002</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="AA16" t="s">
-        <v>44</v>
+      <c r="AB16" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="3">
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2674,22 +2729,22 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q17">
         <v>100</v>
@@ -2707,28 +2762,31 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>46</v>
-      </c>
-      <c r="X17">
+        <v>42</v>
+      </c>
+      <c r="X17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y17">
         <v>1002</v>
       </c>
-      <c r="Y17" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z17">
+      <c r="Z17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="AA17" t="s">
-        <v>98</v>
+      <c r="AB17" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2746,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2779,28 +2837,31 @@
         <v>3</v>
       </c>
       <c r="W18" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18">
+        <v>42</v>
+      </c>
+      <c r="X18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18">
         <v>1002</v>
       </c>
-      <c r="Y18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z18">
+      <c r="Z18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
-      <c r="AA18" t="s">
-        <v>101</v>
+      <c r="AB18" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="4">
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2818,61 +2879,64 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T19" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y19">
+        <v>1002</v>
+      </c>
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="T19" t="s">
-        <v>104</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>46</v>
-      </c>
-      <c r="X19">
-        <v>1002</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z19">
+      <c r="AA19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
-      <c r="AA19" t="s">
-        <v>105</v>
+      <c r="AB19" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" s="4">
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2890,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2923,27 +2987,30 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>57</v>
-      </c>
-      <c r="X20">
+        <v>42</v>
+      </c>
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y20">
         <v>1002</v>
       </c>
-      <c r="Y20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z20">
+      <c r="Z20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA20">
         <v>2202</v>
       </c>
-      <c r="AA20" t="s">
-        <v>107</v>
+      <c r="AB20" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="5">
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2961,22 +3028,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q21">
         <v>25</v>
@@ -2997,28 +3064,31 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>57</v>
-      </c>
-      <c r="X21">
+        <v>42</v>
+      </c>
+      <c r="X21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21">
         <v>1002</v>
       </c>
-      <c r="Y21" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" ref="Z21:Z27" si="1">A21</f>
+      <c r="Z21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21:AA27" si="1">A21</f>
         <v>2301</v>
       </c>
-      <c r="AA21" t="s">
-        <v>111</v>
+      <c r="AB21" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" s="5">
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3036,22 +3106,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3069,28 +3139,31 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>46</v>
-      </c>
-      <c r="X22">
+        <v>42</v>
+      </c>
+      <c r="X22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22">
         <v>1002</v>
       </c>
-      <c r="Y22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z22">
+      <c r="Z22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
-      <c r="AA22" t="s">
-        <v>115</v>
+      <c r="AB22" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3108,22 +3181,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3141,28 +3214,31 @@
         <v>3</v>
       </c>
       <c r="W23" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23">
+        <v>42</v>
+      </c>
+      <c r="X23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y23">
         <v>1002</v>
       </c>
-      <c r="Y23" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z23">
+      <c r="Z23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
-      <c r="AA23" t="s">
-        <v>117</v>
+      <c r="AB23" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3180,22 +3256,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3213,28 +3289,31 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>57</v>
-      </c>
-      <c r="X24">
+        <v>42</v>
+      </c>
+      <c r="X24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y24">
         <v>1002</v>
       </c>
-      <c r="Y24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z24">
+      <c r="Z24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
-      <c r="AA24" t="s">
-        <v>120</v>
+      <c r="AB24" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="A25" s="6">
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3255,22 +3334,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3288,28 +3367,31 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>85</v>
-      </c>
-      <c r="X25">
+        <v>42</v>
+      </c>
+      <c r="X25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y25">
         <v>1002</v>
       </c>
-      <c r="Y25" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z25">
+      <c r="Z25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
-      <c r="AA25" t="s">
-        <v>122</v>
+      <c r="AB25" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" s="6">
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3327,22 +3409,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3360,28 +3442,31 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>85</v>
-      </c>
-      <c r="X26">
+        <v>42</v>
+      </c>
+      <c r="X26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y26">
         <v>1002</v>
       </c>
-      <c r="Y26" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z26">
+      <c r="Z26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
-      <c r="AA26" t="s">
-        <v>124</v>
+      <c r="AB26" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="A27" s="6">
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3399,22 +3484,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -3432,28 +3517,31 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>85</v>
-      </c>
-      <c r="X27">
+        <v>42</v>
+      </c>
+      <c r="X27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y27">
         <v>1002</v>
       </c>
-      <c r="Y27" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z27">
+      <c r="Z27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
-      <c r="AA27" t="s">
-        <v>127</v>
+      <c r="AB27" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3468,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>100</v>
@@ -3501,18 +3589,21 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>130</v>
+        <v>42</v>
+      </c>
+      <c r="X28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" s="2">
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3527,22 +3618,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3560,15 +3651,18 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="X29" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" s="2">
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3583,22 +3677,22 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>100</v>
@@ -3616,15 +3710,18 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="X30" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" s="2">
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3639,22 +3736,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3672,15 +3769,18 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="X31" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3695,22 +3795,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3728,15 +3828,18 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="X32" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3751,22 +3854,22 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q33">
         <v>500</v>
@@ -3784,15 +3887,18 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>129</v>
+        <v>42</v>
+      </c>
+      <c r="X33" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3810,22 +3916,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>100</v>
@@ -3843,15 +3949,18 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X34" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3869,22 +3978,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q35">
         <v>100</v>
@@ -3902,15 +4011,18 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X35" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3928,22 +4040,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q36">
         <v>100</v>
@@ -3961,15 +4073,18 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X36" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3987,22 +4102,22 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q37">
         <v>100</v>
@@ -4020,15 +4135,18 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>137</v>
+        <v>48</v>
+      </c>
+      <c r="X37" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4046,22 +4164,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q38">
         <v>100</v>
@@ -4079,15 +4197,18 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X38" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4105,22 +4226,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q39">
         <v>100</v>
@@ -4138,15 +4259,18 @@
         <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X39" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4164,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q40">
         <v>100</v>
@@ -4197,15 +4321,18 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X40" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4223,22 +4350,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O41" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q41">
         <v>100</v>
@@ -4256,15 +4383,18 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X41" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4282,22 +4412,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q42">
         <v>100</v>
@@ -4315,15 +4445,18 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X42" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>9901</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4341,22 +4474,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4374,7 +4507,10 @@
         <v>1098</v>
       </c>
       <c r="W43" t="s">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="X43" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -230,6 +230,9 @@
     <t>RES</t>
   </si>
   <si>
+    <t>Water</t>
+  </si>
+  <si>
     <t>imgIconSkill_Fourtain</t>
   </si>
   <si>
@@ -252,9 +255,6 @@
   </si>
   <si>
     <t>Lightning Bolt</t>
-  </si>
-  <si>
-    <t>Water</t>
   </si>
   <si>
     <t>ATKDISD1</t>
@@ -1518,7 +1518,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s">
         <v>49</v>
@@ -2168,14 +2168,14 @@
         <v>1001</v>
       </c>
       <c r="Z9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9">
         <f t="shared" ref="AA8:AA26" si="0">A9</f>
         <v>1301</v>
       </c>
       <c r="AB9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2183,7 +2183,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s">
         <v>42</v>
@@ -2243,14 +2243,14 @@
         <v>1001</v>
       </c>
       <c r="Z10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
       <c r="AB10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2258,7 +2258,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
         <v>41</v>
@@ -2459,7 +2459,7 @@
         <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
@@ -3677,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s">
         <v>41</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
   <si>
     <t>//Remark</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>ATKMOV</t>
+  </si>
+  <si>
+    <t>Break</t>
   </si>
   <si>
     <t>imgIconSkill_Gravity</t>
@@ -1518,7 +1521,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2081,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="X8" t="s">
         <v>49</v>
@@ -2090,14 +2093,14 @@
         <v>1001</v>
       </c>
       <c r="Z8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA8">
         <f>A8</f>
         <v>1202</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2105,7 +2108,7 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
         <v>41</v>
@@ -2138,7 +2141,7 @@
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q9">
         <v>200</v>
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s">
         <v>49</v>
@@ -2168,14 +2171,14 @@
         <v>1001</v>
       </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA9">
         <f t="shared" ref="AA8:AA26" si="0">A9</f>
         <v>1301</v>
       </c>
       <c r="AB9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2183,7 +2186,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2228,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s">
         <v>42</v>
@@ -2243,14 +2246,14 @@
         <v>1001</v>
       </c>
       <c r="Z10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
       <c r="AB10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2258,7 +2261,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2276,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" t="s">
         <v>41</v>
@@ -2291,7 +2294,7 @@
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -2321,14 +2324,14 @@
         <v>1001</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
       <c r="AB11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2336,7 +2339,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2396,14 +2399,14 @@
         <v>1001</v>
       </c>
       <c r="Z12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
       <c r="AB12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2411,7 +2414,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2456,29 +2459,29 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s">
         <v>42</v>
       </c>
       <c r="X13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y13">
         <v>1001</v>
       </c>
       <c r="Z13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
       <c r="AB13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:28">
@@ -2486,7 +2489,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2540,20 +2543,20 @@
         <v>42</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y14">
         <v>1001</v>
       </c>
       <c r="Z14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2561,7 +2564,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2615,20 +2618,20 @@
         <v>42</v>
       </c>
       <c r="X15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y15">
         <v>1001</v>
       </c>
       <c r="Z15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="AB15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2636,7 +2639,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2666,7 +2669,7 @@
         <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
@@ -2711,7 +2714,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2741,7 +2744,7 @@
         <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
@@ -2771,14 +2774,14 @@
         <v>1002</v>
       </c>
       <c r="Z17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="AB17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2786,7 +2789,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2846,14 +2849,14 @@
         <v>1002</v>
       </c>
       <c r="Z18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
       <c r="AB18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2861,7 +2864,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2900,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2921,14 +2924,14 @@
         <v>1002</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
       <c r="AB19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2936,7 +2939,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2996,13 +2999,13 @@
         <v>1002</v>
       </c>
       <c r="Z20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA20">
         <v>2202</v>
       </c>
       <c r="AB20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -3010,7 +3013,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3043,7 +3046,7 @@
         <v>54</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21">
         <v>25</v>
@@ -3073,14 +3076,14 @@
         <v>1002</v>
       </c>
       <c r="Z21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA21">
         <f t="shared" ref="AA21:AA27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="AB21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -3088,7 +3091,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3121,7 +3124,7 @@
         <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3148,14 +3151,14 @@
         <v>1002</v>
       </c>
       <c r="Z22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="AB22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -3163,7 +3166,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3223,14 +3226,14 @@
         <v>1002</v>
       </c>
       <c r="Z23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
       <c r="AB23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3238,7 +3241,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3298,14 +3301,14 @@
         <v>1002</v>
       </c>
       <c r="Z24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="AB24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3313,7 +3316,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3370,20 +3373,20 @@
         <v>42</v>
       </c>
       <c r="X25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y25">
         <v>1002</v>
       </c>
       <c r="Z25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
       <c r="AB25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3391,7 +3394,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3445,20 +3448,20 @@
         <v>42</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y26">
         <v>1002</v>
       </c>
       <c r="Z26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
       <c r="AB26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3466,7 +3469,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3499,7 +3502,7 @@
         <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -3520,20 +3523,20 @@
         <v>42</v>
       </c>
       <c r="X27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y27">
         <v>1002</v>
       </c>
       <c r="Z27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
       <c r="AB27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3541,7 +3544,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3592,10 +3595,10 @@
         <v>42</v>
       </c>
       <c r="X28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AB28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3603,7 +3606,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3654,7 +3657,7 @@
         <v>42</v>
       </c>
       <c r="X29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3662,7 +3665,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3677,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
         <v>41</v>
@@ -3713,7 +3716,7 @@
         <v>42</v>
       </c>
       <c r="X30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3721,7 +3724,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3772,7 +3775,7 @@
         <v>42</v>
       </c>
       <c r="X31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3780,7 +3783,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3831,7 +3834,7 @@
         <v>42</v>
       </c>
       <c r="X32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3839,7 +3842,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3890,7 +3893,7 @@
         <v>42</v>
       </c>
       <c r="X33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3898,7 +3901,7 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3928,7 +3931,7 @@
         <v>41</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s">
         <v>44</v>
@@ -3952,7 +3955,7 @@
         <v>42</v>
       </c>
       <c r="X34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3960,7 +3963,7 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4014,7 +4017,7 @@
         <v>42</v>
       </c>
       <c r="X35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4022,7 +4025,7 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4052,7 +4055,7 @@
         <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P36" t="s">
         <v>44</v>
@@ -4076,7 +4079,7 @@
         <v>42</v>
       </c>
       <c r="X36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -4084,7 +4087,7 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4138,7 +4141,7 @@
         <v>48</v>
       </c>
       <c r="X37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -4146,7 +4149,7 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4200,7 +4203,7 @@
         <v>42</v>
       </c>
       <c r="X38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -4208,7 +4211,7 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4262,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="X39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -4270,7 +4273,7 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4324,7 +4327,7 @@
         <v>42</v>
       </c>
       <c r="X40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -4332,7 +4335,7 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4362,7 +4365,7 @@
         <v>41</v>
       </c>
       <c r="O41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P41" t="s">
         <v>44</v>
@@ -4386,7 +4389,7 @@
         <v>42</v>
       </c>
       <c r="X41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4394,7 +4397,7 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4448,7 +4451,7 @@
         <v>42</v>
       </c>
       <c r="X42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4456,7 +4459,7 @@
         <v>9901</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4510,7 +4513,7 @@
         <v>42</v>
       </c>
       <c r="X43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="150">
   <si>
     <t>//Remark</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>ATKMOV</t>
-  </si>
-  <si>
-    <t>Break</t>
   </si>
   <si>
     <t>imgIconSkill_Gravity</t>
@@ -2084,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="X8" t="s">
         <v>49</v>
@@ -2093,14 +2090,14 @@
         <v>1001</v>
       </c>
       <c r="Z8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA8">
         <f>A8</f>
         <v>1202</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -2108,7 +2105,7 @@
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2126,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>41</v>
@@ -2141,7 +2138,7 @@
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q9">
         <v>200</v>
@@ -2162,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s">
         <v>49</v>
@@ -2171,14 +2168,14 @@
         <v>1001</v>
       </c>
       <c r="Z9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA9">
         <f t="shared" ref="AA8:AA26" si="0">A9</f>
         <v>1301</v>
       </c>
       <c r="AB9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -2186,7 +2183,7 @@
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2231,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s">
         <v>76</v>
-      </c>
-      <c r="V10" t="s">
-        <v>77</v>
       </c>
       <c r="W10" t="s">
         <v>42</v>
@@ -2246,14 +2243,14 @@
         <v>1001</v>
       </c>
       <c r="Z10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
       <c r="AB10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -2261,7 +2258,7 @@
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2279,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
         <v>41</v>
@@ -2294,7 +2291,7 @@
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -2324,14 +2321,14 @@
         <v>1001</v>
       </c>
       <c r="Z11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -2339,7 +2336,7 @@
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2399,14 +2396,14 @@
         <v>1001</v>
       </c>
       <c r="Z12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
       <c r="AB12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -2414,7 +2411,7 @@
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2459,29 +2456,29 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" t="s">
         <v>88</v>
-      </c>
-      <c r="V13" t="s">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X13" t="s">
-        <v>89</v>
       </c>
       <c r="Y13">
         <v>1001</v>
       </c>
       <c r="Z13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AA13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
       <c r="AB13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:28">
@@ -2489,7 +2486,7 @@
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2543,20 +2540,20 @@
         <v>42</v>
       </c>
       <c r="X14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y14">
         <v>1001</v>
       </c>
       <c r="Z14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2564,7 +2561,7 @@
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2618,20 +2615,20 @@
         <v>42</v>
       </c>
       <c r="X15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y15">
         <v>1001</v>
       </c>
       <c r="Z15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="AB15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2639,7 +2636,7 @@
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2669,7 +2666,7 @@
         <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s">
         <v>44</v>
@@ -2714,7 +2711,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2744,7 +2741,7 @@
         <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
         <v>44</v>
@@ -2774,14 +2771,14 @@
         <v>1002</v>
       </c>
       <c r="Z17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
       <c r="AB17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2789,7 +2786,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2849,14 +2846,14 @@
         <v>1002</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
       <c r="AB18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2864,7 +2861,7 @@
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2903,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
+        <v>106</v>
+      </c>
+      <c r="T19" t="s">
         <v>107</v>
-      </c>
-      <c r="T19" t="s">
-        <v>108</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2924,14 +2921,14 @@
         <v>1002</v>
       </c>
       <c r="Z19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
       <c r="AB19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2939,7 +2936,7 @@
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2999,13 +2996,13 @@
         <v>1002</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA20">
         <v>2202</v>
       </c>
       <c r="AB20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -3013,7 +3010,7 @@
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3046,7 +3043,7 @@
         <v>54</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q21">
         <v>25</v>
@@ -3076,14 +3073,14 @@
         <v>1002</v>
       </c>
       <c r="Z21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA21">
         <f t="shared" ref="AA21:AA27" si="1">A21</f>
         <v>2301</v>
       </c>
       <c r="AB21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -3091,7 +3088,7 @@
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3124,7 +3121,7 @@
         <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3151,14 +3148,14 @@
         <v>1002</v>
       </c>
       <c r="Z22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
       <c r="AB22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -3166,7 +3163,7 @@
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3226,14 +3223,14 @@
         <v>1002</v>
       </c>
       <c r="Z23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
       <c r="AB23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -3241,7 +3238,7 @@
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3301,14 +3298,14 @@
         <v>1002</v>
       </c>
       <c r="Z24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
       <c r="AB24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3316,7 +3313,7 @@
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3373,20 +3370,20 @@
         <v>42</v>
       </c>
       <c r="X25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y25">
         <v>1002</v>
       </c>
       <c r="Z25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
       <c r="AB25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3394,7 +3391,7 @@
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -3448,20 +3445,20 @@
         <v>42</v>
       </c>
       <c r="X26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y26">
         <v>1002</v>
       </c>
       <c r="Z26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
       <c r="AB26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3469,7 +3466,7 @@
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3502,7 +3499,7 @@
         <v>54</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -3523,20 +3520,20 @@
         <v>42</v>
       </c>
       <c r="X27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y27">
         <v>1002</v>
       </c>
       <c r="Z27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
       <c r="AB27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3544,7 +3541,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3595,10 +3592,10 @@
         <v>42</v>
       </c>
       <c r="X28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB28" t="s">
         <v>133</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3606,7 +3603,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3657,7 +3654,7 @@
         <v>42</v>
       </c>
       <c r="X29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3665,7 +3662,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3680,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s">
         <v>41</v>
@@ -3716,7 +3713,7 @@
         <v>42</v>
       </c>
       <c r="X30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3724,7 +3721,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3775,7 +3772,7 @@
         <v>42</v>
       </c>
       <c r="X31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3783,7 +3780,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3834,7 +3831,7 @@
         <v>42</v>
       </c>
       <c r="X32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3842,7 +3839,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3893,7 +3890,7 @@
         <v>42</v>
       </c>
       <c r="X33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3901,7 +3898,7 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3931,7 +3928,7 @@
         <v>41</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P34" t="s">
         <v>44</v>
@@ -3955,7 +3952,7 @@
         <v>42</v>
       </c>
       <c r="X34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3963,7 +3960,7 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4017,7 +4014,7 @@
         <v>42</v>
       </c>
       <c r="X35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4025,7 +4022,7 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4055,7 +4052,7 @@
         <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s">
         <v>44</v>
@@ -4079,7 +4076,7 @@
         <v>42</v>
       </c>
       <c r="X36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -4087,7 +4084,7 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4141,7 +4138,7 @@
         <v>48</v>
       </c>
       <c r="X37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -4149,7 +4146,7 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4203,7 +4200,7 @@
         <v>42</v>
       </c>
       <c r="X38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -4211,7 +4208,7 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4265,7 +4262,7 @@
         <v>42</v>
       </c>
       <c r="X39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -4273,7 +4270,7 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4327,7 +4324,7 @@
         <v>42</v>
       </c>
       <c r="X40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -4335,7 +4332,7 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4365,7 +4362,7 @@
         <v>41</v>
       </c>
       <c r="O41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P41" t="s">
         <v>44</v>
@@ -4389,7 +4386,7 @@
         <v>42</v>
       </c>
       <c r="X41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4397,7 +4394,7 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4451,7 +4448,7 @@
         <v>42</v>
       </c>
       <c r="X42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4459,7 +4456,7 @@
         <v>9901</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4513,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="X43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
   <si>
     <t>//Remark</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Cook Human On Time</t>
+  </si>
+  <si>
+    <t>BurnUnitOnly</t>
   </si>
   <si>
     <t>Unstable Rabbit</t>
@@ -1514,11 +1517,11 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3651,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="X29" t="s">
         <v>132</v>
@@ -3662,7 +3665,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3721,7 +3724,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3780,7 +3783,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3839,7 +3842,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3898,7 +3901,7 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3952,7 +3955,7 @@
         <v>42</v>
       </c>
       <c r="X34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3960,7 +3963,7 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4014,7 +4017,7 @@
         <v>42</v>
       </c>
       <c r="X35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4022,7 +4025,7 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4076,7 +4079,7 @@
         <v>42</v>
       </c>
       <c r="X36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -4084,7 +4087,7 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4135,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="X37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -4146,7 +4149,7 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4200,7 +4203,7 @@
         <v>42</v>
       </c>
       <c r="X38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -4208,7 +4211,7 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4262,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="X39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -4270,13 +4273,13 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4324,7 +4327,7 @@
         <v>42</v>
       </c>
       <c r="X40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -4332,7 +4335,7 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4386,7 +4389,7 @@
         <v>42</v>
       </c>
       <c r="X41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4394,7 +4397,7 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4448,7 +4451,7 @@
         <v>42</v>
       </c>
       <c r="X42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4456,7 +4459,7 @@
         <v>9901</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4510,7 +4513,7 @@
         <v>42</v>
       </c>
       <c r="X43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1517,11 +1517,11 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -3246,8 +3246,14 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
       <c r="G24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3397,7 +3403,7 @@
         <v>126</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>2</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -381,7 +381,7 @@
     <t>Gain 3 Movement.</t>
   </si>
   <si>
-    <t>Inspire</t>
+    <t>Handover</t>
   </si>
   <si>
     <t>imgIconSkill_2301</t>
@@ -1517,11 +1517,11 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3247,11 +3247,9 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
         <v>2</v>
       </c>
+      <c r="E24"/>
       <c r="G24">
         <v>1</v>
       </c>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1517,11 +1517,11 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2677,9 +2677,7 @@
       <c r="Q16">
         <v>100</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
+      <c r="R16"/>
       <c r="S16">
         <v>0</v>
       </c>
@@ -3249,7 +3247,6 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24"/>
       <c r="G24">
         <v>1</v>
       </c>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1517,11 +1517,11 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2663,7 +2663,7 @@
         <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N16" t="s">
         <v>42</v>
@@ -2677,7 +2677,6 @@
       <c r="Q16">
         <v>100</v>
       </c>
-      <c r="R16"/>
       <c r="S16">
         <v>0</v>
       </c>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -263,7 +263,8 @@
     <t>imgIconSkill_Lightning</t>
   </si>
   <si>
-    <t>Magic attack that can be transmitted damage by water tile.</t>
+    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 4 damage.
+Can be transmitted damage by water tile.</t>
   </si>
   <si>
     <t>Teleport</t>
@@ -1517,11 +1518,11 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2256,7 +2257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" ht="42" spans="1:28">
       <c r="A11" s="1">
         <v>1401</v>
       </c>
@@ -2330,7 +2331,7 @@
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AB11" s="10" t="s">
         <v>82</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1522,7 +1522,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1518,11 +1518,11 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3049,9 +3049,7 @@
       <c r="Q21">
         <v>25</v>
       </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
+      <c r="R21"/>
       <c r="S21">
         <v>0</v>
       </c>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="126">
   <si>
     <t>//Remark</t>
   </si>
@@ -100,9 +100,6 @@
     <t>unlockNodeID</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>NormalAttack</t>
   </si>
   <si>
-    <t>Normal attack,deal damage to single foe.</t>
-  </si>
-  <si>
     <t>Fire Ball</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>imgIconSkill_FireBall</t>
   </si>
   <si>
-    <t>Use fire ball to attack multiple foes.</t>
-  </si>
-  <si>
     <t>Boom!</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>imgIconSkill_Boom</t>
   </si>
   <si>
-    <t>Deal damage according to burning level.</t>
-  </si>
-  <si>
     <t>Chronal Shift</t>
   </si>
   <si>
@@ -202,9 +190,6 @@
     <t>imgIconSkill_ChronalShift</t>
   </si>
   <si>
-    <t>Dodge next attack.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -217,10 +202,6 @@
     <t>imgIconSkill_Gravity</t>
   </si>
   <si>
-    <t>Magic attack that reduce movement.
-Deal damage according to difference of movement between source and target.</t>
-  </si>
-  <si>
     <t>Fourtain</t>
   </si>
   <si>
@@ -236,9 +217,6 @@
     <t>imgIconSkill_Fourtain</t>
   </si>
   <si>
-    <t>Magic attack that can heal plants in the range.</t>
-  </si>
-  <si>
     <t>Clean</t>
   </si>
   <si>
@@ -251,9 +229,6 @@
     <t>imgIconSkill_Clean</t>
   </si>
   <si>
-    <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
-  </si>
-  <si>
     <t>Lightning Bolt</t>
   </si>
   <si>
@@ -263,19 +238,12 @@
     <t>imgIconSkill_Lightning</t>
   </si>
   <si>
-    <t>Deal &lt;sprite="Common" name="ATK"&gt; ATK + 4 damage.
-Can be transmitted damage by water tile.</t>
-  </si>
-  <si>
     <t>Teleport</t>
   </si>
   <si>
     <t>imgIconSkill_Teleport</t>
   </si>
   <si>
-    <t>Change one character or plant position.</t>
-  </si>
-  <si>
     <t>Time Expand</t>
   </si>
   <si>
@@ -288,28 +256,18 @@
     <t>imgIconSkill_TimeExpand</t>
   </si>
   <si>
-    <t>Double the level of debuff for foe or buff for allies</t>
-  </si>
-  <si>
     <t>Infinity</t>
   </si>
   <si>
     <t>imgIconSkill_Infinity</t>
   </si>
   <si>
-    <t>Gain 3 Infinity.
-Infinity can enlarge next X skills' radius by 1 unit.</t>
-  </si>
-  <si>
     <t>Rabbit Chant</t>
   </si>
   <si>
     <t>imgIconSkill_MagicCircle</t>
   </si>
   <si>
-    <t>Increase skill range and AP but can't get Movement when turn starts.</t>
-  </si>
-  <si>
     <t>Strike</t>
   </si>
   <si>
@@ -322,18 +280,12 @@
     <t>imgIconSkill_BFCut</t>
   </si>
   <si>
-    <t>Cut the foes around you.</t>
-  </si>
-  <si>
     <t>Overtime Work</t>
   </si>
   <si>
     <t>imgIconSkill_Default</t>
   </si>
   <si>
-    <t>Gain extra AP every turn but gain burning as well.</t>
-  </si>
-  <si>
     <t>Curse</t>
   </si>
   <si>
@@ -343,15 +295,9 @@
     <t>1;1</t>
   </si>
   <si>
-    <t>The target will receive Fragile every time lost HP.</t>
-  </si>
-  <si>
     <t>Provoke</t>
   </si>
   <si>
-    <t>Attract enemies' attack in 2 turns.</t>
-  </si>
-  <si>
     <t>Take a Nap</t>
   </si>
   <si>
@@ -361,9 +307,6 @@
     <t>imgIconSkill_Rest</t>
   </si>
   <si>
-    <t>Heal one character according to HP.</t>
-  </si>
-  <si>
     <t>Fish Drat</t>
   </si>
   <si>
@@ -373,52 +316,31 @@
     <t>imgIconSkill_FishDrat</t>
   </si>
   <si>
-    <t>Deal damage according to DEF, next strike will recover HP according to damage.</t>
-  </si>
-  <si>
     <t>Rush Hour</t>
   </si>
   <si>
-    <t>Gain 3 Movement.</t>
-  </si>
-  <si>
     <t>Handover</t>
   </si>
   <si>
     <t>imgIconSkill_2301</t>
   </si>
   <si>
-    <t>Regain AP by 1.</t>
-  </si>
-  <si>
     <t>Final Guard</t>
   </si>
   <si>
-    <t>HP won't become 0.</t>
-  </si>
-  <si>
     <t>Super Worker</t>
   </si>
   <si>
-    <t>Increase ATK,DEF,RES,max Movement by 1.</t>
-  </si>
-  <si>
     <t>Finish Work</t>
   </si>
   <si>
     <t>COSTHP</t>
   </si>
   <si>
-    <t>Cost HP to deal damage, the damage will be equal to lost HP.</t>
-  </si>
-  <si>
     <t>Tadpole Strike</t>
   </si>
   <si>
     <t>PlantSkill</t>
-  </si>
-  <si>
-    <t>Attack a enemy.</t>
   </si>
   <si>
     <t>Cook Human On Time</t>
@@ -1133,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,9 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1515,14 +1434,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1546,7 +1465,6 @@
     <col min="25" max="25" width="11.5454545454545" customWidth="1"/>
     <col min="26" max="26" width="26.7272727272727" customWidth="1"/>
     <col min="27" max="27" width="14.1818181818182" customWidth="1"/>
-    <col min="28" max="28" width="48.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1554,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1636,102 +1554,96 @@
       <c r="AA2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" t="s">
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:27">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1749,22 +1661,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -1782,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y4">
         <v>1001</v>
@@ -1794,16 +1706,13 @@
         <f>A4</f>
         <v>1001</v>
       </c>
-      <c r="AB4" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:27">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1821,22 +1730,22 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
         <v>43</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
       </c>
       <c r="Q5">
         <v>100</v>
@@ -1857,31 +1766,28 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y5">
         <v>1001</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA5">
         <f>A5</f>
         <v>1101</v>
       </c>
-      <c r="AB5" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:27">
       <c r="A6" s="3">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1899,22 +1805,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q6">
         <v>250</v>
@@ -1932,31 +1838,28 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y6">
         <v>1001</v>
       </c>
       <c r="Z6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA6">
         <f>A6</f>
         <v>1102</v>
       </c>
-      <c r="AB6" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:27">
       <c r="A7" s="4">
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1974,22 +1877,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2007,31 +1910,28 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y7">
         <v>1001</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AA7">
         <f>A7</f>
         <v>1201</v>
       </c>
-      <c r="AB7" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="8" ht="42" spans="1:28">
+    <row r="8" spans="1:27">
       <c r="A8" s="4">
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2049,22 +1949,22 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
         <v>42</v>
       </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" t="s">
-        <v>43</v>
-      </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -2085,31 +1985,28 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y8">
         <v>1001</v>
       </c>
       <c r="Z8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AA8">
         <f>A8</f>
         <v>1202</v>
       </c>
-      <c r="AB8" s="10" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:27">
       <c r="A9" s="5">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2127,22 +2024,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" t="s">
-        <v>43</v>
-      </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q9">
         <v>200</v>
@@ -2163,31 +2060,28 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y9">
         <v>1001</v>
       </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA9">
         <f t="shared" ref="AA8:AA26" si="0">A9</f>
         <v>1301</v>
       </c>
-      <c r="AB9" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:27">
       <c r="A10" s="5">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2205,22 +2099,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2232,37 +2126,34 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="V10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="W10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y10">
         <v>1001</v>
       </c>
       <c r="Z10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
-      <c r="AB10" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="11" ht="42" spans="1:28">
+    <row r="11" spans="1:27">
       <c r="A11" s="1">
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2280,22 +2171,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
         <v>42</v>
       </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
       <c r="P11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -2316,31 +2207,28 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y11">
         <v>1001</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
-      <c r="AB11" s="10" t="s">
-        <v>82</v>
-      </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2358,22 +2246,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2391,31 +2279,28 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y12">
         <v>1001</v>
       </c>
       <c r="Z12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AA12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
-      <c r="AB12" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:27">
       <c r="A13" s="6">
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2433,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2460,37 +2345,34 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="W13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y13">
         <v>1001</v>
       </c>
       <c r="Z13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AA13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
-      <c r="AB13" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="14" ht="42" spans="1:28">
+    <row r="14" spans="1:27">
       <c r="A14" s="6">
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2508,22 +2390,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2541,31 +2423,28 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y14">
         <v>1001</v>
       </c>
       <c r="Z14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
-      <c r="AB14" s="10" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:27">
       <c r="A15" s="6">
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2583,22 +2462,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2616,31 +2495,28 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y15">
         <v>1001</v>
       </c>
       <c r="Z15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
-      <c r="AB15" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:27">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2658,22 +2534,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q16">
         <v>100</v>
@@ -2691,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y16">
         <v>1002</v>
@@ -2703,16 +2579,13 @@
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="AB16" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:27">
       <c r="A17" s="3">
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2730,22 +2603,22 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q17">
         <v>100</v>
@@ -2763,31 +2636,28 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y17">
         <v>1002</v>
       </c>
       <c r="Z17" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
-      <c r="AB17" t="s">
-        <v>101</v>
-      </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:27">
       <c r="A18" s="3">
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2805,22 +2675,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2838,31 +2708,28 @@
         <v>3</v>
       </c>
       <c r="W18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y18">
         <v>1002</v>
       </c>
       <c r="Z18" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AA18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
-      <c r="AB18" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:27">
       <c r="A19" s="4">
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2880,31 +2747,31 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="T19" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2913,31 +2780,28 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y19">
         <v>1002</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AA19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
-      <c r="AB19" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:27">
       <c r="A20" s="4">
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2955,22 +2819,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2988,30 +2852,27 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y20">
         <v>1002</v>
       </c>
       <c r="Z20" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AA20">
         <v>2202</v>
       </c>
-      <c r="AB20" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:27">
       <c r="A21" s="5">
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3029,27 +2890,26 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P21" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="Q21">
         <v>25</v>
       </c>
-      <c r="R21"/>
       <c r="S21">
         <v>0</v>
       </c>
@@ -3063,31 +2923,28 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y21">
         <v>1002</v>
       </c>
       <c r="Z21" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AA21">
         <f t="shared" ref="AA21:AA27" si="1">A21</f>
         <v>2301</v>
       </c>
-      <c r="AB21" t="s">
-        <v>114</v>
-      </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:27">
       <c r="A22" s="5">
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3105,22 +2962,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3138,31 +2995,28 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y22">
         <v>1002</v>
       </c>
       <c r="Z22" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="AA22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
-      <c r="AB22" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:27">
       <c r="A23" s="1">
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3180,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3213,31 +3067,28 @@
         <v>3</v>
       </c>
       <c r="W23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y23">
         <v>1002</v>
       </c>
       <c r="Z23" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
-      <c r="AB23" t="s">
-        <v>120</v>
-      </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:27">
       <c r="A24" s="1">
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3258,22 +3109,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3291,31 +3142,28 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Y24">
         <v>1002</v>
       </c>
       <c r="Z24" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="AA24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
-      <c r="AB24" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:27">
       <c r="A25" s="6">
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3336,22 +3184,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3369,31 +3217,28 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y25">
         <v>1002</v>
       </c>
       <c r="Z25" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AA25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
-      <c r="AB25" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:27">
       <c r="A26" s="6">
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -3411,22 +3256,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3444,31 +3289,28 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y26">
         <v>1002</v>
       </c>
       <c r="Z26" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AA26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
-      <c r="AB26" t="s">
-        <v>127</v>
-      </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:27">
       <c r="A27" s="6">
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3486,22 +3328,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -3519,31 +3361,28 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Y27">
         <v>1002</v>
       </c>
       <c r="Z27" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="AA27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
-      <c r="AB27" t="s">
-        <v>130</v>
-      </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3558,22 +3397,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q28">
         <v>100</v>
@@ -3591,13 +3430,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3605,7 +3441,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3620,22 +3456,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3653,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="X29" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3664,7 +3500,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3679,22 +3515,22 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" t="s">
         <v>42</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>43</v>
-      </c>
-      <c r="P30" t="s">
-        <v>44</v>
       </c>
       <c r="Q30">
         <v>100</v>
@@ -3712,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3723,7 +3559,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3738,22 +3574,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3771,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3782,7 +3618,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3797,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3830,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3841,7 +3677,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3856,22 +3692,22 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" t="s">
         <v>43</v>
-      </c>
-      <c r="P33" t="s">
-        <v>44</v>
       </c>
       <c r="Q33">
         <v>500</v>
@@ -3889,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3900,7 +3736,7 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3918,22 +3754,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q34">
         <v>100</v>
@@ -3951,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3962,7 +3798,7 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3980,22 +3816,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" t="s">
         <v>42</v>
       </c>
-      <c r="M35" t="s">
-        <v>41</v>
-      </c>
-      <c r="N35" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>43</v>
-      </c>
-      <c r="P35" t="s">
-        <v>44</v>
       </c>
       <c r="Q35">
         <v>100</v>
@@ -4013,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4024,7 +3860,7 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4042,22 +3878,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O36" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q36">
         <v>100</v>
@@ -4075,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -4086,7 +3922,7 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4104,22 +3940,22 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" t="s">
         <v>43</v>
-      </c>
-      <c r="P37" t="s">
-        <v>44</v>
       </c>
       <c r="Q37">
         <v>100</v>
@@ -4137,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="X37" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -4148,7 +3984,7 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4166,22 +4002,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" t="s">
         <v>42</v>
       </c>
-      <c r="M38" t="s">
-        <v>41</v>
-      </c>
-      <c r="N38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>43</v>
-      </c>
-      <c r="P38" t="s">
-        <v>44</v>
       </c>
       <c r="Q38">
         <v>100</v>
@@ -4199,10 +4035,10 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -4210,7 +4046,7 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4228,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" t="s">
         <v>42</v>
       </c>
-      <c r="M39" t="s">
-        <v>41</v>
-      </c>
-      <c r="N39" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" t="s">
-        <v>43</v>
-      </c>
       <c r="P39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q39">
         <v>100</v>
@@ -4261,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -4272,7 +4108,7 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4290,22 +4126,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L40" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" t="s">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
         <v>42</v>
       </c>
-      <c r="M40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N40" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>43</v>
-      </c>
-      <c r="P40" t="s">
-        <v>44</v>
       </c>
       <c r="Q40">
         <v>100</v>
@@ -4323,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -4334,7 +4170,7 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4352,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q41">
         <v>100</v>
@@ -4385,10 +4221,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4396,7 +4232,7 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4414,22 +4250,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q42">
         <v>100</v>
@@ -4447,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4458,7 +4294,7 @@
         <v>9901</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4476,22 +4312,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4509,10 +4345,10 @@
         <v>1098</v>
       </c>
       <c r="W43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1437,11 +1437,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3340,7 +3340,7 @@
         <v>41</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s">
         <v>106</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -9,7 +9,20 @@
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -397,7 +410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1437,11 +1450,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -305,7 +305,7 @@
     <t>2001;4002</t>
   </si>
   <si>
-    <t>1;1</t>
+    <t>2;1</t>
   </si>
   <si>
     <t>Provoke</t>
@@ -1450,11 +1450,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2745,7 +2745,7 @@
         <v>90</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>3</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -143,7 +143,7 @@
     <t>enum|ActiveSkillType</t>
   </si>
   <si>
-    <t>Elemental Ball</t>
+    <t>Pluse Wave</t>
   </si>
   <si>
     <t>Circle</t>
@@ -1450,11 +1450,11 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14940" windowHeight="10010"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="109">
   <si>
     <t>//Remark</t>
   </si>
@@ -107,9 +107,6 @@
     <t>characterID</t>
   </si>
   <si>
-    <t>iconUrl</t>
-  </si>
-  <si>
     <t>unlockNodeID</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>DamageSkill</t>
   </si>
   <si>
-    <t>imgIconSkill_FireBall</t>
-  </si>
-  <si>
     <t>Boom!</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>BURN</t>
   </si>
   <si>
-    <t>imgIconSkill_Boom</t>
-  </si>
-  <si>
     <t>Chronal Shift</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>SupportSkill</t>
   </si>
   <si>
-    <t>imgIconSkill_ChronalShift</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>ATKMOV</t>
   </si>
   <si>
-    <t>imgIconSkill_Gravity</t>
-  </si>
-  <si>
     <t>Fourtain</t>
   </si>
   <si>
@@ -227,9 +212,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>imgIconSkill_Fourtain</t>
-  </si>
-  <si>
     <t>Clean</t>
   </si>
   <si>
@@ -239,24 +221,15 @@
     <t>0;0</t>
   </si>
   <si>
-    <t>imgIconSkill_Clean</t>
-  </si>
-  <si>
     <t>Lightning Bolt</t>
   </si>
   <si>
     <t>ATKDISD1</t>
   </si>
   <si>
-    <t>imgIconSkill_Lightning</t>
-  </si>
-  <si>
     <t>Teleport</t>
   </si>
   <si>
-    <t>imgIconSkill_Teleport</t>
-  </si>
-  <si>
     <t>Time Expand</t>
   </si>
   <si>
@@ -266,21 +239,12 @@
     <t>UltimateSkill</t>
   </si>
   <si>
-    <t>imgIconSkill_TimeExpand</t>
-  </si>
-  <si>
     <t>Infinity</t>
   </si>
   <si>
-    <t>imgIconSkill_Infinity</t>
-  </si>
-  <si>
     <t>Rabbit Chant</t>
   </si>
   <si>
-    <t>imgIconSkill_MagicCircle</t>
-  </si>
-  <si>
     <t>Strike</t>
   </si>
   <si>
@@ -290,15 +254,9 @@
     <t>Wind Chop</t>
   </si>
   <si>
-    <t>imgIconSkill_BFCut</t>
-  </si>
-  <si>
     <t>Overtime Work</t>
   </si>
   <si>
-    <t>imgIconSkill_Default</t>
-  </si>
-  <si>
     <t>Curse</t>
   </si>
   <si>
@@ -317,25 +275,16 @@
     <t>MAXHP</t>
   </si>
   <si>
-    <t>imgIconSkill_Rest</t>
-  </si>
-  <si>
     <t>Fish Drat</t>
   </si>
   <si>
     <t>DEF</t>
   </si>
   <si>
-    <t>imgIconSkill_FishDrat</t>
-  </si>
-  <si>
     <t>Rush Hour</t>
   </si>
   <si>
     <t>Handover</t>
-  </si>
-  <si>
-    <t>imgIconSkill_2301</t>
   </si>
   <si>
     <t>Final Guard</t>
@@ -1068,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,9 +1043,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,14 +1393,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1476,8 +1422,7 @@
     <col min="23" max="23" width="25.8181818181818" customWidth="1"/>
     <col min="24" max="24" width="20.5454545454545" customWidth="1"/>
     <col min="25" max="25" width="11.5454545454545" customWidth="1"/>
-    <col min="26" max="26" width="26.7272727272727" customWidth="1"/>
-    <col min="27" max="27" width="14.1818181818182" customWidth="1"/>
+    <col min="26" max="26" width="14.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1485,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1564,99 +1509,93 @@
       <c r="Z2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s">
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:26">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1674,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
       </c>
       <c r="Q4">
         <v>100</v>
@@ -1707,25 +1646,25 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y4">
         <v>1001</v>
       </c>
-      <c r="AA4">
+      <c r="Z4">
         <f>A4</f>
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:26">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1743,22 +1682,22 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
         <v>42</v>
-      </c>
-      <c r="P5" t="s">
-        <v>43</v>
       </c>
       <c r="Q5">
         <v>100</v>
@@ -1779,28 +1718,25 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
         <v>46</v>
-      </c>
-      <c r="X5" t="s">
-        <v>47</v>
       </c>
       <c r="Y5">
         <v>1001</v>
       </c>
-      <c r="Z5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5">
+      <c r="Z5">
         <f>A5</f>
         <v>1101</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:26">
       <c r="A6" s="3">
         <v>1102</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1818,22 +1754,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
         <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>52</v>
       </c>
       <c r="Q6">
         <v>250</v>
@@ -1851,28 +1787,25 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y6">
         <v>1001</v>
       </c>
-      <c r="Z6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA6">
+      <c r="Z6">
         <f>A6</f>
         <v>1102</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:26">
       <c r="A7" s="4">
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1890,22 +1823,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1923,28 +1856,25 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y7">
         <v>1001</v>
       </c>
-      <c r="Z7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA7">
+      <c r="Z7">
         <f>A7</f>
         <v>1201</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:26">
       <c r="A8" s="4">
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1962,22 +1892,22 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
       <c r="P8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q8">
         <v>100</v>
@@ -1998,28 +1928,25 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y8">
         <v>1001</v>
       </c>
-      <c r="Z8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8">
+      <c r="Z8">
         <f>A8</f>
         <v>1202</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:26">
       <c r="A9" s="5">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2037,22 +1964,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
         <v>41</v>
       </c>
-      <c r="N9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q9">
         <v>200</v>
@@ -2073,28 +2000,25 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y9">
         <v>1001</v>
       </c>
-      <c r="Z9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" ref="AA8:AA26" si="0">A9</f>
+      <c r="Z9">
+        <f t="shared" ref="Z8:Z26" si="0">A9</f>
         <v>1301</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:26">
       <c r="A10" s="5">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2112,22 +2036,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2139,34 +2063,31 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="W10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y10">
         <v>1001</v>
       </c>
-      <c r="Z10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA10">
+      <c r="Z10">
         <f t="shared" si="0"/>
         <v>1302</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>1401</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2184,22 +2105,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
         <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" t="s">
-        <v>72</v>
       </c>
       <c r="Q11">
         <v>100</v>
@@ -2220,28 +2141,25 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y11">
         <v>1001</v>
       </c>
-      <c r="Z11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA11">
+      <c r="Z11">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>1402</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2259,22 +2177,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2292,28 +2210,25 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y12">
         <v>1001</v>
       </c>
-      <c r="Z12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA12">
+      <c r="Z12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:26">
       <c r="A13" s="6">
         <v>1901</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2331,22 +2246,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2358,34 +2273,31 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="V13" t="s">
+        <v>63</v>
+      </c>
+      <c r="W13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" t="s">
         <v>69</v>
-      </c>
-      <c r="W13" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" t="s">
-        <v>78</v>
       </c>
       <c r="Y13">
         <v>1001</v>
       </c>
-      <c r="Z13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA13">
+      <c r="Z13">
         <f t="shared" si="0"/>
         <v>1901</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:26">
       <c r="A14" s="6">
         <v>1902</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2403,22 +2315,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2436,28 +2348,25 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Y14">
         <v>1001</v>
       </c>
-      <c r="Z14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA14">
+      <c r="Z14">
         <f t="shared" si="0"/>
         <v>1902</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:26">
       <c r="A15" s="6">
         <v>1903</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -2475,22 +2384,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2508,28 +2417,25 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X15" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Y15">
         <v>1001</v>
       </c>
-      <c r="Z15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA15">
+      <c r="Z15">
         <f t="shared" si="0"/>
         <v>1903</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:26">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2547,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q16">
         <v>100</v>
@@ -2580,25 +2486,25 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y16">
         <v>1002</v>
       </c>
-      <c r="AA16">
+      <c r="Z16">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:26">
       <c r="A17" s="3">
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2616,22 +2522,22 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q17">
         <v>100</v>
@@ -2649,28 +2555,25 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y17">
         <v>1002</v>
       </c>
-      <c r="Z17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA17">
+      <c r="Z17">
         <f t="shared" si="0"/>
         <v>2101</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:26">
       <c r="A18" s="3">
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2688,22 +2591,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -2721,28 +2624,25 @@
         <v>3</v>
       </c>
       <c r="W18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y18">
         <v>1002</v>
       </c>
-      <c r="Z18" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA18">
+      <c r="Z18">
         <f t="shared" si="0"/>
         <v>2102</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:26">
       <c r="A19" s="4">
         <v>2201</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2760,31 +2660,31 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2793,28 +2693,25 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y19">
         <v>1002</v>
       </c>
-      <c r="Z19" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA19">
+      <c r="Z19">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:26">
       <c r="A20" s="4">
         <v>2202</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2832,22 +2729,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2865,27 +2762,24 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y20">
         <v>1002</v>
       </c>
-      <c r="Z20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA20">
+      <c r="Z20">
         <v>2202</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:26">
       <c r="A21" s="5">
         <v>2301</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2903,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P21" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q21">
         <v>25</v>
@@ -2936,28 +2830,25 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y21">
         <v>1002</v>
       </c>
-      <c r="Z21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" ref="AA21:AA27" si="1">A21</f>
+      <c r="Z21">
+        <f t="shared" ref="Z21:Z27" si="1">A21</f>
         <v>2301</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:26">
       <c r="A22" s="5">
         <v>2302</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2975,22 +2866,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3008,28 +2899,25 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y22">
         <v>1002</v>
       </c>
-      <c r="Z22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA22">
+      <c r="Z22">
         <f t="shared" si="1"/>
         <v>2302</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>2401</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3047,22 +2935,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3080,28 +2968,25 @@
         <v>3</v>
       </c>
       <c r="W23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y23">
         <v>1002</v>
       </c>
-      <c r="Z23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA23">
+      <c r="Z23">
         <f t="shared" si="1"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>2402</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3122,22 +3007,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3155,28 +3040,25 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y24">
         <v>1002</v>
       </c>
-      <c r="Z24" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA24">
+      <c r="Z24">
         <f t="shared" si="1"/>
         <v>2402</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:26">
       <c r="A25" s="6">
         <v>2901</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -3197,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3230,28 +3112,25 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Y25">
         <v>1002</v>
       </c>
-      <c r="Z25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA25">
+      <c r="Z25">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:26">
       <c r="A26" s="6">
         <v>2902</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -3269,22 +3148,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3302,28 +3181,25 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Y26">
         <v>1002</v>
       </c>
-      <c r="Z26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA26">
+      <c r="Z26">
         <f t="shared" si="1"/>
         <v>2902</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:26">
       <c r="A27" s="6">
         <v>2903</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -3341,22 +3217,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P27" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="Q27">
         <v>100</v>
@@ -3374,18 +3250,15 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Y27">
         <v>1002</v>
       </c>
-      <c r="Z27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA27">
+      <c r="Z27">
         <f t="shared" si="1"/>
         <v>2903</v>
       </c>
@@ -3395,7 +3268,7 @@
         <v>3001</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3410,22 +3283,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q28">
         <v>100</v>
@@ -3443,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -3454,7 +3327,7 @@
         <v>3101</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3469,22 +3342,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3502,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="X29" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -3513,7 +3386,7 @@
         <v>3102</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3528,22 +3401,22 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N30" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" t="s">
         <v>41</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>42</v>
-      </c>
-      <c r="P30" t="s">
-        <v>43</v>
       </c>
       <c r="Q30">
         <v>100</v>
@@ -3561,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X30" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3572,7 +3445,7 @@
         <v>3103</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3587,22 +3460,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -3620,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X31" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3631,7 +3504,7 @@
         <v>3201</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3646,22 +3519,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3679,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X32" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3690,7 +3563,7 @@
         <v>3301</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3705,22 +3578,22 @@
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="s">
         <v>42</v>
-      </c>
-      <c r="P33" t="s">
-        <v>43</v>
       </c>
       <c r="Q33">
         <v>500</v>
@@ -3738,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X33" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3749,7 +3622,7 @@
         <v>9001</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3767,22 +3640,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q34">
         <v>100</v>
@@ -3800,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3811,7 +3684,7 @@
         <v>9002</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3829,22 +3702,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" t="s">
         <v>41</v>
       </c>
-      <c r="M35" t="s">
-        <v>40</v>
-      </c>
-      <c r="N35" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>42</v>
-      </c>
-      <c r="P35" t="s">
-        <v>43</v>
       </c>
       <c r="Q35">
         <v>100</v>
@@ -3862,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3873,7 +3746,7 @@
         <v>9101</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3891,22 +3764,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O36" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q36">
         <v>100</v>
@@ -3924,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3935,7 +3808,7 @@
         <v>9102</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3953,22 +3826,22 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" t="s">
         <v>42</v>
-      </c>
-      <c r="P37" t="s">
-        <v>43</v>
       </c>
       <c r="Q37">
         <v>100</v>
@@ -3986,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="X37" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3997,7 +3870,7 @@
         <v>9103</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4015,22 +3888,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L38" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" t="s">
         <v>41</v>
       </c>
-      <c r="M38" t="s">
-        <v>40</v>
-      </c>
-      <c r="N38" t="s">
-        <v>40</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>42</v>
-      </c>
-      <c r="P38" t="s">
-        <v>43</v>
       </c>
       <c r="Q38">
         <v>100</v>
@@ -4048,10 +3921,10 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -4059,7 +3932,7 @@
         <v>9104</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4077,22 +3950,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" t="s">
         <v>41</v>
       </c>
-      <c r="M39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N39" t="s">
-        <v>40</v>
-      </c>
-      <c r="O39" t="s">
-        <v>42</v>
-      </c>
       <c r="P39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q39">
         <v>100</v>
@@ -4110,10 +3983,10 @@
         <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -4121,7 +3994,7 @@
         <v>9201</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4139,22 +4012,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" t="s">
         <v>41</v>
       </c>
-      <c r="M40" t="s">
-        <v>40</v>
-      </c>
-      <c r="N40" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>42</v>
-      </c>
-      <c r="P40" t="s">
-        <v>43</v>
       </c>
       <c r="Q40">
         <v>100</v>
@@ -4172,10 +4045,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X40" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -4183,7 +4056,7 @@
         <v>9202</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4201,22 +4074,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O41" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q41">
         <v>100</v>
@@ -4234,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4245,7 +4118,7 @@
         <v>9301</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4263,22 +4136,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q42">
         <v>100</v>
@@ -4296,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X42" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4307,7 +4180,7 @@
         <v>9901</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4325,22 +4198,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4358,10 +4231,10 @@
         <v>1098</v>
       </c>
       <c r="W43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="10010"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -1396,11 +1396,11 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2815,7 +2815,7 @@
         <v>81</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S21">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="110">
   <si>
     <t>//Remark</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Emotional Damage</t>
+  </si>
+  <si>
+    <t>Coffee</t>
   </si>
   <si>
     <t>Summon Darkness</t>
@@ -1393,14 +1396,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4000,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4177,7 +4180,7 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
-        <v>9901</v>
+        <v>9302</v>
       </c>
       <c r="B43" t="s">
         <v>108</v>
@@ -4186,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
@@ -4210,30 +4213,92 @@
         <v>40</v>
       </c>
       <c r="O43" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44">
+        <v>9901</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
         <v>9001</v>
       </c>
-      <c r="V43">
+      <c r="V44">
         <v>1098</v>
       </c>
-      <c r="W43" t="s">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s">
+      <c r="W44" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1399,11 +1399,11 @@
   <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="112">
   <si>
     <t>//Remark</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>Summon Darkness</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>CURHP</t>
   </si>
 </sst>
 </file>
@@ -1396,14 +1402,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4302,6 +4308,68 @@
         <v>99</v>
       </c>
     </row>
+    <row r="45" spans="1:24">
+      <c r="A45">
+        <v>9902</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q45">
+        <v>100</v>
+      </c>
+      <c r="S45">
+        <v>2001</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1409,7 +1409,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1409,7 +1409,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3457,28 +3457,28 @@
         <v>95</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>3</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N31" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1405,11 +1405,11 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y31" sqref="Y31"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2348,7 +2348,7 @@
         <v>1003</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U14">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1405,11 +1405,11 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1889,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1405,11 +1405,11 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3339,7 +3339,7 @@
         <v>92</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3372,16 +3372,16 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>3004</v>
+      </c>
+      <c r="V29">
         <v>4001</v>
-      </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
       </c>
       <c r="W29" t="s">
         <v>93</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="114">
   <si>
     <t>//Remark</t>
   </si>
@@ -317,12 +317,21 @@
     <t>Random MilkTea</t>
   </si>
   <si>
+    <t>Gogo Rabbit's Trap</t>
+  </si>
+  <si>
     <t>Hero Rabbit</t>
   </si>
   <si>
     <t>Void Rabbit</t>
   </si>
   <si>
+    <t>Rescuer Rabbit</t>
+  </si>
+  <si>
+    <t>CURHP</t>
+  </si>
+  <si>
     <t>Bite</t>
   </si>
   <si>
@@ -360,9 +369,6 @@
   </si>
   <si>
     <t>Pressure</t>
-  </si>
-  <si>
-    <t>CURHP</t>
   </si>
 </sst>
 </file>
@@ -1402,14 +1408,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
+      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3509,17 +3515,17 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32">
-        <v>3201</v>
+      <c r="A32" s="2">
+        <v>3104</v>
       </c>
       <c r="B32" t="s">
         <v>96</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -3531,13 +3537,13 @@
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M32" t="s">
         <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
@@ -3549,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>3301</v>
+        <v>3201</v>
       </c>
       <c r="B33" t="s">
         <v>97</v>
@@ -3584,37 +3590,37 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q33">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U33">
-        <v>9998</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3628,31 +3634,28 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <v>9001</v>
+        <v>3301</v>
       </c>
       <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M34" t="s">
         <v>39</v>
@@ -3661,13 +3664,13 @@
         <v>39</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="P34" t="s">
         <v>42</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3676,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3685,21 +3688,18 @@
         <v>40</v>
       </c>
       <c r="X34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
-        <v>9002</v>
+        <v>3401</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>40</v>
       </c>
       <c r="M35" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P35" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="Q35">
         <v>100</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>3005</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3747,12 +3747,12 @@
         <v>40</v>
       </c>
       <c r="X35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
-        <v>9101</v>
+        <v>9001</v>
       </c>
       <c r="B36" t="s">
         <v>101</v>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -3809,15 +3809,15 @@
         <v>40</v>
       </c>
       <c r="X36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
-        <v>9102</v>
+        <v>9002</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3832,13 +3832,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>38</v>
       </c>
       <c r="L37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M37" t="s">
         <v>39</v>
@@ -3856,10 +3856,10 @@
         <v>100</v>
       </c>
       <c r="S37">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3868,24 +3868,24 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
-        <v>9103</v>
+        <v>9101</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>39</v>
       </c>
       <c r="O38" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="P38" t="s">
         <v>42</v>
@@ -3924,24 +3924,24 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="s">
         <v>40</v>
       </c>
       <c r="X38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
-        <v>9104</v>
+        <v>9102</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3956,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M39" t="s">
         <v>39</v>
@@ -3974,42 +3974,42 @@
         <v>41</v>
       </c>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q39">
         <v>100</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="X39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
-        <v>9201</v>
+        <v>9103</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4048,30 +4048,30 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40" t="s">
         <v>40</v>
       </c>
       <c r="X40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41">
-        <v>9202</v>
+        <v>9104</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4095,10 +4095,10 @@
         <v>39</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q41">
         <v>100</v>
@@ -4110,30 +4110,30 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="s">
         <v>40</v>
       </c>
       <c r="X41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42">
-        <v>9301</v>
+        <v>9201</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="O42" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P42" t="s">
         <v>42</v>
@@ -4181,15 +4181,15 @@
         <v>40</v>
       </c>
       <c r="X42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
-        <v>9302</v>
+        <v>9202</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -4210,16 +4210,16 @@
         <v>38</v>
       </c>
       <c r="L43" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O43" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="P43" t="s">
         <v>42</v>
@@ -4228,10 +4228,10 @@
         <v>100</v>
       </c>
       <c r="S43">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -4243,24 +4243,24 @@
         <v>40</v>
       </c>
       <c r="X43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44">
-        <v>9901</v>
+        <v>9301</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -4272,22 +4272,22 @@
         <v>38</v>
       </c>
       <c r="L44" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O44" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4296,24 +4296,24 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>9001</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="W44" t="s">
         <v>40</v>
       </c>
       <c r="X44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
-        <v>9902</v>
+        <v>9302</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -4334,40 +4334,164 @@
         <v>38</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O45" t="s">
         <v>49</v>
       </c>
       <c r="P45" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="Q45">
         <v>100</v>
       </c>
       <c r="S45">
+        <v>3001</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46">
+        <v>9901</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>9001</v>
+      </c>
+      <c r="V46">
+        <v>1098</v>
+      </c>
+      <c r="W46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47">
+        <v>9902</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" t="s">
+        <v>39</v>
+      </c>
+      <c r="O47" t="s">
+        <v>49</v>
+      </c>
+      <c r="P47" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>100</v>
+      </c>
+      <c r="S47">
         <v>2001</v>
       </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s">
-        <v>40</v>
-      </c>
-      <c r="X45" t="s">
-        <v>99</v>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1411,11 +1411,11 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T32" sqref="T32"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3751,7 +3751,7 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>9001</v>
       </c>
       <c r="B36" t="s">
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>9002</v>
       </c>
       <c r="B37" t="s">
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>9101</v>
       </c>
       <c r="B38" t="s">
@@ -3937,7 +3937,7 @@
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>9102</v>
       </c>
       <c r="B39" t="s">
@@ -3999,7 +3999,7 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>9103</v>
       </c>
       <c r="B40" t="s">
@@ -4061,7 +4061,7 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>9104</v>
       </c>
       <c r="B41" t="s">
@@ -4123,7 +4123,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>9201</v>
       </c>
       <c r="B42" t="s">
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>9202</v>
       </c>
       <c r="B43" t="s">
@@ -4247,7 +4247,7 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>9301</v>
       </c>
       <c r="B44" t="s">
@@ -4309,7 +4309,7 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>9302</v>
       </c>
       <c r="B45" t="s">

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="115">
   <si>
     <t>//Remark</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>CURHP</t>
+  </si>
+  <si>
+    <t>3005;9999</t>
   </si>
   <si>
     <t>Bite</t>
@@ -1411,11 +1414,11 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3699,7 +3702,7 @@
         <v>99</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -3732,16 +3735,16 @@
         <v>100</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>3005</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>101</v>
+      </c>
+      <c r="V35" t="s">
+        <v>63</v>
       </c>
       <c r="W35" t="s">
         <v>40</v>
@@ -3755,7 +3758,7 @@
         <v>9001</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3809,7 +3812,7 @@
         <v>40</v>
       </c>
       <c r="X36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3817,7 +3820,7 @@
         <v>9002</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3871,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="X37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3879,7 +3882,7 @@
         <v>9101</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3933,7 +3936,7 @@
         <v>40</v>
       </c>
       <c r="X38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3941,7 +3944,7 @@
         <v>9102</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3995,7 +3998,7 @@
         <v>93</v>
       </c>
       <c r="X39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -4003,7 +4006,7 @@
         <v>9103</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4057,7 +4060,7 @@
         <v>40</v>
       </c>
       <c r="X40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -4065,7 +4068,7 @@
         <v>9104</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4119,7 +4122,7 @@
         <v>40</v>
       </c>
       <c r="X41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -4127,7 +4130,7 @@
         <v>9201</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4181,7 +4184,7 @@
         <v>40</v>
       </c>
       <c r="X42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -4189,7 +4192,7 @@
         <v>9202</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4243,7 +4246,7 @@
         <v>40</v>
       </c>
       <c r="X43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -4251,7 +4254,7 @@
         <v>9301</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4305,7 +4308,7 @@
         <v>40</v>
       </c>
       <c r="X44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4313,7 +4316,7 @@
         <v>9302</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4367,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="X45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4375,7 +4378,7 @@
         <v>9901</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4429,7 +4432,7 @@
         <v>40</v>
       </c>
       <c r="X46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4437,7 +4440,7 @@
         <v>9902</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4491,7 +4494,7 @@
         <v>40</v>
       </c>
       <c r="X47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1414,11 +1414,11 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T35" sqref="T35"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3525,7 +3525,7 @@
         <v>96</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>99</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="117">
   <si>
     <t>//Remark</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>Gogo Rabbit's Trap</t>
+  </si>
+  <si>
+    <t>Motorhome Drive</t>
+  </si>
+  <si>
+    <t>Random Helper</t>
   </si>
   <si>
     <t>Hero Rabbit</t>
@@ -1411,14 +1417,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z47"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3466,7 +3472,7 @@
         <v>95</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -3475,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>38</v>
@@ -3558,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>3004</v>
+      </c>
+      <c r="V32">
         <v>1009</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
       </c>
       <c r="W32" t="s">
         <v>40</v>
@@ -3577,8 +3583,8 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33">
-        <v>3201</v>
+      <c r="A33" s="2">
+        <v>3105</v>
       </c>
       <c r="B33" t="s">
         <v>97</v>
@@ -3593,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
         <v>38</v>
@@ -3602,7 +3608,7 @@
         <v>40</v>
       </c>
       <c r="M33" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N33" t="s">
         <v>52</v>
@@ -3617,16 +3623,16 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>3006</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>5004</v>
       </c>
       <c r="W33" t="s">
         <v>40</v>
@@ -3636,8 +3642,8 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34">
-        <v>3301</v>
+      <c r="A34" s="2">
+        <v>3106</v>
       </c>
       <c r="B34" t="s">
         <v>98</v>
@@ -3652,28 +3658,28 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N34" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="O34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -3682,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>9998</v>
+        <v>8002</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3696,16 +3702,16 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
-        <v>3401</v>
+        <v>3201</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -3720,31 +3726,31 @@
         <v>40</v>
       </c>
       <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
         <v>52</v>
       </c>
-      <c r="N35" t="s">
-        <v>40</v>
-      </c>
       <c r="O35" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Q35">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="U35" t="s">
-        <v>101</v>
-      </c>
-      <c r="V35" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
       </c>
       <c r="W35" t="s">
         <v>40</v>
@@ -3754,32 +3760,29 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="3">
-        <v>9001</v>
+      <c r="A36">
+        <v>3301</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" t="s">
         <v>38</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M36" t="s">
         <v>39</v>
@@ -3788,13 +3791,13 @@
         <v>39</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
         <v>42</v>
       </c>
       <c r="Q36">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3803,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3812,21 +3815,18 @@
         <v>40</v>
       </c>
       <c r="X36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="3">
-        <v>9002</v>
+      <c r="A37">
+        <v>3401</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -3844,51 +3844,51 @@
         <v>40</v>
       </c>
       <c r="M37" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="N37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O37" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="Q37">
         <v>100</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>103</v>
+      </c>
+      <c r="V37" t="s">
+        <v>63</v>
       </c>
       <c r="W37" t="s">
         <v>40</v>
       </c>
       <c r="X37" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="4">
-        <v>9101</v>
+      <c r="A38" s="3">
+        <v>9001</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -3936,12 +3936,12 @@
         <v>40</v>
       </c>
       <c r="X38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="4">
-        <v>9102</v>
+      <c r="A39" s="3">
+        <v>9002</v>
       </c>
       <c r="B39" t="s">
         <v>106</v>
@@ -3959,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M39" t="s">
         <v>39</v>
@@ -3983,10 +3983,10 @@
         <v>100</v>
       </c>
       <c r="S39">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -3995,15 +3995,15 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="4">
-        <v>9103</v>
+        <v>9101</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="P40" t="s">
         <v>42</v>
@@ -4051,21 +4051,21 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="s">
         <v>40</v>
       </c>
       <c r="X40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="4">
-        <v>9104</v>
+        <v>9102</v>
       </c>
       <c r="B41" t="s">
         <v>108</v>
@@ -4083,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
         <v>38</v>
       </c>
       <c r="L41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M41" t="s">
         <v>39</v>
@@ -4101,33 +4101,33 @@
         <v>41</v>
       </c>
       <c r="P41" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q41">
         <v>100</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="X41" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="3">
-        <v>9201</v>
+      <c r="A42" s="4">
+        <v>9103</v>
       </c>
       <c r="B42" t="s">
         <v>109</v>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4175,21 +4175,21 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" t="s">
         <v>40</v>
       </c>
       <c r="X42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="3">
-        <v>9202</v>
+      <c r="A43" s="4">
+        <v>9104</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -4198,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4222,10 +4222,10 @@
         <v>39</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="P43" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q43">
         <v>100</v>
@@ -4237,21 +4237,21 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" t="s">
         <v>40</v>
       </c>
       <c r="X43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="4">
-        <v>9301</v>
+      <c r="A44" s="3">
+        <v>9201</v>
       </c>
       <c r="B44" t="s">
         <v>111</v>
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>39</v>
       </c>
       <c r="O44" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P44" t="s">
         <v>42</v>
@@ -4308,12 +4308,12 @@
         <v>40</v>
       </c>
       <c r="X44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="4">
-        <v>9302</v>
+      <c r="A45" s="3">
+        <v>9202</v>
       </c>
       <c r="B45" t="s">
         <v>112</v>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -4337,16 +4337,16 @@
         <v>38</v>
       </c>
       <c r="L45" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O45" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="P45" t="s">
         <v>42</v>
@@ -4355,10 +4355,10 @@
         <v>100</v>
       </c>
       <c r="S45">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -4370,12 +4370,12 @@
         <v>40</v>
       </c>
       <c r="X45" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46">
-        <v>9901</v>
+      <c r="A46" s="4">
+        <v>9301</v>
       </c>
       <c r="B46" t="s">
         <v>113</v>
@@ -4384,10 +4384,10 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -4399,22 +4399,22 @@
         <v>38</v>
       </c>
       <c r="L46" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O46" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4423,21 +4423,21 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>9001</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="W46" t="s">
         <v>40</v>
       </c>
       <c r="X46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47">
-        <v>9902</v>
+      <c r="A47" s="4">
+        <v>9302</v>
       </c>
       <c r="B47" t="s">
         <v>114</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -4461,40 +4461,164 @@
         <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O47" t="s">
         <v>49</v>
       </c>
       <c r="P47" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="Q47">
         <v>100</v>
       </c>
       <c r="S47">
+        <v>3001</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48">
+        <v>9901</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" t="s">
+        <v>40</v>
+      </c>
+      <c r="N48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>9001</v>
+      </c>
+      <c r="V48">
+        <v>1098</v>
+      </c>
+      <c r="W48" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49">
+        <v>9902</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" t="s">
+        <v>40</v>
+      </c>
+      <c r="M49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" t="s">
+        <v>39</v>
+      </c>
+      <c r="O49" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q49">
+        <v>100</v>
+      </c>
+      <c r="S49">
         <v>2001</v>
       </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
-        <v>40</v>
-      </c>
-      <c r="X47" t="s">
-        <v>103</v>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -197,7 +197,7 @@
     <t>Square</t>
   </si>
   <si>
-    <t>ATKMOV</t>
+    <t>ATKMOV2</t>
   </si>
   <si>
     <t>Fourtain</t>
@@ -1420,11 +1420,11 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1420,11 +1420,11 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3531,7 +3531,7 @@
         <v>96</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1424,7 +1424,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3157,7 +3157,7 @@
         <v>87</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>2</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1420,11 +1420,11 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2045,7 +2045,7 @@
         <v>61</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>4</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1420,11 +1420,11 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1727,7 +1727,7 @@
         <v>100</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <v>4001</v>
@@ -2565,6 +2565,9 @@
       </c>
       <c r="Q17">
         <v>100</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>

--- a/Assets/Excel/Skill.xlsx
+++ b/Assets/Excel/Skill.xlsx
@@ -1420,11 +1420,11 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="L16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
